--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B69EC-9D21-4139-9353-3B765D7FDDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA40EF-3A3B-4074-886E-BF1954171759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,7 +306,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -397,8 +397,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -690,8 +690,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2555,7 +2555,7 @@
         <v>8</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L31" s="8">
         <v>14.058999999999999</v>
@@ -2565,7 +2565,12 @@
         <v>41</v>
       </c>
       <c r="R31" s="8"/>
-      <c r="V31" s="8"/>
+      <c r="T31">
+        <v>12</v>
+      </c>
+      <c r="V31" s="8">
+        <v>1</v>
+      </c>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
@@ -10242,7 +10247,6 @@
       <c r="AK163" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL163" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA40EF-3A3B-4074-886E-BF1954171759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E34FC-601F-430E-B086-3C444659BEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Opening Stock Carton</t>
-  </si>
-  <si>
-    <t>Opening Stock Pallet(M/Ton)</t>
   </si>
   <si>
     <t>Production Pallet</t>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>Total Production Ton</t>
+  </si>
+  <si>
+    <t>Opening Stock M/Ton</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:AL163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
     <col min="2" max="2" width="8.88671875" style="11"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -755,67 +755,67 @@
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
@@ -823,35 +823,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
       </c>
       <c r="I2" s="6">
         <v>5.95</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
       </c>
       <c r="L2" s="8">
         <v>13</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="AK2" s="8"/>
       <c r="AL2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -889,35 +889,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="6">
         <v>5.95</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
       </c>
       <c r="L3" s="8">
         <v>13</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="8"/>
       <c r="V3" s="8"/>
@@ -939,32 +939,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
       </c>
       <c r="I4" s="9">
         <v>8</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="8">
         <v>14.058999999999999</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4">
         <v>315</v>
@@ -1004,35 +1004,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
       <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
       </c>
       <c r="I5" s="9">
         <v>8</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6">
         <v>650</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" s="8"/>
       <c r="V5" s="8"/>
@@ -1054,35 +1054,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="9">
         <v>8</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8">
         <v>5.3280000000000003</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P6">
         <v>560</v>
@@ -1121,35 +1121,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>4900</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="10">
         <v>10.5</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="8">
         <v>52</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7">
         <v>163</v>
@@ -1196,35 +1196,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>4902</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="9">
         <v>11</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="8">
         <v>52</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R8" s="8"/>
       <c r="V8" s="8"/>
@@ -1246,35 +1246,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
       </c>
       <c r="I9" s="9">
         <v>11</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8">
         <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1318,35 +1318,35 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <v>4944</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="9">
         <v>12</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8">
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10">
         <v>93</v>
@@ -1381,35 +1381,35 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>4944</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="9">
         <v>12</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8">
         <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R11" s="8"/>
       <c r="V11" s="8"/>
@@ -1431,35 +1431,35 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>4944</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="9">
         <v>13</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="8">
         <v>13</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1499,35 +1499,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>4907</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="9">
         <v>13</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="8">
         <v>26</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -1562,28 +1562,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>4951</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="9">
         <v>13</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="8">
         <v>26</v>
@@ -1609,35 +1609,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
       </c>
       <c r="I15" s="9">
         <v>16</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15" s="8">
         <v>60</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R15" s="8"/>
       <c r="V15" s="8"/>
@@ -1659,35 +1659,35 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>4866</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="9">
         <v>16</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" s="8">
         <v>15</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16">
         <v>400</v>
@@ -1719,35 +1719,35 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>4941</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="9">
         <v>16</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L17" s="8">
         <v>135</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1780,28 +1780,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>4951</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="9">
         <v>16</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="8">
         <v>78</v>
@@ -1845,35 +1845,35 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9">
         <v>16</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8">
         <v>6.5</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R19" s="8">
         <v>0</v>
@@ -1899,35 +1899,35 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
       </c>
       <c r="I20" s="9">
         <v>16</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8">
         <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1958,32 +1958,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9">
         <v>16</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="8">
         <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2016,28 +2016,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>4955</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9">
         <v>18</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L22" s="8">
         <v>52</v>
@@ -2063,28 +2063,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>4954</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9">
         <v>24</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="8">
         <v>52</v>
@@ -2120,27 +2120,27 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9">
         <v>24</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="6"/>
       <c r="N24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24">
         <v>60</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="AK24" s="8"/>
       <c r="AL24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
@@ -2176,35 +2176,35 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>4871</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9">
         <v>24</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
         <v>73</v>
-      </c>
-      <c r="K25" t="s">
-        <v>74</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="8">
         <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P25">
         <v>429</v>
@@ -2244,35 +2244,35 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26">
         <v>4949</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9">
         <v>26</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" s="8">
         <v>26</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O26">
         <v>20</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AK26" s="8"/>
       <c r="AL26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
@@ -2308,28 +2308,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>4956</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9">
         <v>26</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L27" s="8">
         <v>52</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="AK27" s="8"/>
       <c r="AL27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
@@ -2369,22 +2369,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9">
         <v>26</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="6"/>
@@ -2421,35 +2421,35 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
         <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
       </c>
       <c r="I29" s="6">
         <v>5.95</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" t="s">
         <v>36</v>
-      </c>
-      <c r="K29" t="s">
-        <v>37</v>
       </c>
       <c r="L29" s="8">
         <v>13</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="AK29" s="8"/>
       <c r="AL29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
@@ -2487,35 +2487,35 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="6">
         <v>5.95</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" t="s">
         <v>36</v>
-      </c>
-      <c r="K30" t="s">
-        <v>37</v>
       </c>
       <c r="L30" s="8">
         <v>13</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R30" s="8"/>
       <c r="V30" s="8"/>
@@ -2537,32 +2537,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
         <v>42</v>
-      </c>
-      <c r="F31" t="s">
-        <v>43</v>
       </c>
       <c r="I31" s="9">
         <v>8</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L31" s="8">
         <v>14.058999999999999</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R31" s="8"/>
       <c r="T31">
@@ -2589,35 +2589,35 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
         <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>46</v>
       </c>
       <c r="I32" s="9">
         <v>8</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="6">
         <v>650</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R32" s="8"/>
       <c r="V32" s="8"/>
@@ -2639,35 +2639,35 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9">
         <v>8</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8">
         <v>5.3280000000000003</v>
       </c>
       <c r="N33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33">
         <v>7</v>
@@ -2702,35 +2702,35 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <v>4900</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I34" s="10">
         <v>10.5</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L34" s="8">
         <v>52</v>
       </c>
       <c r="M34" s="10"/>
       <c r="N34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O34">
         <v>26</v>
@@ -2770,35 +2770,35 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>4902</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9">
         <v>11</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L35" s="8">
         <v>52</v>
       </c>
       <c r="M35" s="10"/>
       <c r="N35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R35" s="8"/>
       <c r="V35" s="8"/>
@@ -2820,35 +2820,35 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
         <v>54</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
       </c>
       <c r="I36" s="9">
         <v>11</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8">
         <v>11</v>
       </c>
       <c r="N36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2883,35 +2883,35 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37">
         <v>4944</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9">
         <v>12</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8">
         <v>26</v>
       </c>
       <c r="N37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2951,35 +2951,35 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38">
         <v>4944</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9">
         <v>12</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8">
         <v>13</v>
       </c>
       <c r="N38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R38" s="8"/>
       <c r="V38" s="8"/>
@@ -3001,35 +3001,35 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39">
         <v>4944</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9">
         <v>13</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L39" s="8">
         <v>13</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3069,35 +3069,35 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40">
         <v>4907</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9">
         <v>13</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L40" s="8">
         <v>26</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O40">
         <v>3</v>
@@ -3132,28 +3132,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41">
         <v>4951</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9">
         <v>13</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L41" s="8">
         <v>26</v>
@@ -3179,35 +3179,35 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
         <v>65</v>
-      </c>
-      <c r="F42" t="s">
-        <v>66</v>
       </c>
       <c r="I42" s="9">
         <v>16</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L42" s="8">
         <v>60</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R42" s="8"/>
       <c r="V42" s="8"/>
@@ -3229,35 +3229,35 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43">
         <v>4866</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9">
         <v>16</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L43" s="8">
         <v>15</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P43">
         <v>400</v>
@@ -3289,35 +3289,35 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>4941</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9">
         <v>16</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L44" s="8">
         <v>135</v>
       </c>
       <c r="M44" s="8"/>
       <c r="N44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -3350,28 +3350,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45">
         <v>4951</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9">
         <v>16</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L45" s="8">
         <v>78</v>
@@ -3415,35 +3415,35 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9">
         <v>16</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8">
         <v>6.5</v>
       </c>
       <c r="N46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R46" s="8">
         <v>0</v>
@@ -3469,35 +3469,35 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s">
         <v>54</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
       </c>
       <c r="I47" s="9">
         <v>16</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8">
         <v>15</v>
       </c>
       <c r="N47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3528,32 +3528,32 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9">
         <v>16</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="8">
         <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -3586,28 +3586,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49">
         <v>4955</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49" s="9">
         <v>18</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49" s="8">
         <v>52</v>
@@ -3633,28 +3633,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50">
         <v>4954</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9">
         <v>24</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L50" s="8">
         <v>52</v>
@@ -3690,27 +3690,27 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I51" s="9">
         <v>24</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="6"/>
       <c r="N51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O51">
         <v>60</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="AK51" s="8"/>
       <c r="AL51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.3">
@@ -3746,35 +3746,35 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52">
         <v>4871</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I52" s="9">
         <v>24</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s">
         <v>73</v>
-      </c>
-      <c r="K52" t="s">
-        <v>74</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="8">
         <v>39</v>
       </c>
       <c r="N52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P52">
         <v>429</v>
@@ -3814,35 +3814,35 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>4949</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9">
         <v>26</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L53" s="8">
         <v>26</v>
       </c>
       <c r="M53" s="6"/>
       <c r="N53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O53">
         <v>20</v>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="AK53" s="8"/>
       <c r="AL53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
@@ -3878,28 +3878,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54">
         <v>4956</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9">
         <v>26</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L54" s="8">
         <v>52</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="AK54" s="8"/>
       <c r="AL54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.3">
@@ -3939,22 +3939,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9">
         <v>26</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="6"/>
@@ -3991,35 +3991,35 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
         <v>34</v>
-      </c>
-      <c r="F56" t="s">
-        <v>35</v>
       </c>
       <c r="I56" s="6">
         <v>5.95</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" t="s">
         <v>36</v>
-      </c>
-      <c r="K56" t="s">
-        <v>37</v>
       </c>
       <c r="L56" s="8">
         <v>13</v>
       </c>
       <c r="M56" s="6"/>
       <c r="N56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="AK56" s="8"/>
       <c r="AL56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.3">
@@ -4057,35 +4057,35 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I57" s="6">
         <v>5.95</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" t="s">
         <v>36</v>
-      </c>
-      <c r="K57" t="s">
-        <v>37</v>
       </c>
       <c r="L57" s="8">
         <v>13</v>
       </c>
       <c r="M57" s="6"/>
       <c r="N57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R57" s="8"/>
       <c r="V57" s="8"/>
@@ -4107,32 +4107,32 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
         <v>42</v>
-      </c>
-      <c r="F58" t="s">
-        <v>43</v>
       </c>
       <c r="I58" s="9">
         <v>8</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L58" s="8">
         <v>14.058999999999999</v>
       </c>
       <c r="M58" s="8"/>
       <c r="N58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R58" s="8"/>
       <c r="V58" s="8"/>
@@ -4154,35 +4154,35 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
         <v>45</v>
-      </c>
-      <c r="F59" t="s">
-        <v>46</v>
       </c>
       <c r="I59" s="9">
         <v>8</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="6">
         <v>650</v>
       </c>
       <c r="N59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R59" s="8"/>
       <c r="V59" s="8"/>
@@ -4204,35 +4204,35 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9">
         <v>8</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8">
         <v>5.3280000000000003</v>
       </c>
       <c r="N60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O60">
         <v>7</v>
@@ -4267,35 +4267,35 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E61">
         <v>4900</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I61" s="10">
         <v>10.5</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L61" s="8">
         <v>52</v>
       </c>
       <c r="M61" s="10"/>
       <c r="N61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O61">
         <v>26</v>
@@ -4335,35 +4335,35 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62">
         <v>4902</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9">
         <v>11</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L62" s="8">
         <v>52</v>
       </c>
       <c r="M62" s="10"/>
       <c r="N62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R62" s="8"/>
       <c r="V62" s="8"/>
@@ -4385,35 +4385,35 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" t="s">
         <v>54</v>
-      </c>
-      <c r="F63" t="s">
-        <v>55</v>
       </c>
       <c r="I63" s="9">
         <v>11</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8">
         <v>11</v>
       </c>
       <c r="N63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -4448,35 +4448,35 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64">
         <v>4944</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I64" s="9">
         <v>12</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8">
         <v>26</v>
       </c>
       <c r="N64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -4516,35 +4516,35 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E65">
         <v>4944</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9">
         <v>12</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8">
         <v>13</v>
       </c>
       <c r="N65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R65" s="8"/>
       <c r="V65" s="8"/>
@@ -4566,35 +4566,35 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E66">
         <v>4944</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I66" s="9">
         <v>13</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L66" s="8">
         <v>13</v>
       </c>
       <c r="M66" s="8"/>
       <c r="N66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -4634,35 +4634,35 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E67">
         <v>4907</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I67" s="9">
         <v>13</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L67" s="8">
         <v>26</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O67">
         <v>3</v>
@@ -4697,28 +4697,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E68">
         <v>4951</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9">
         <v>13</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L68" s="8">
         <v>26</v>
@@ -4744,35 +4744,35 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E69" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" t="s">
         <v>65</v>
-      </c>
-      <c r="F69" t="s">
-        <v>66</v>
       </c>
       <c r="I69" s="9">
         <v>16</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L69" s="8">
         <v>60</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R69" s="8"/>
       <c r="V69" s="8"/>
@@ -4794,35 +4794,35 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70">
         <v>4866</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I70" s="9">
         <v>16</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L70" s="8">
         <v>15</v>
       </c>
       <c r="M70" s="8"/>
       <c r="N70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P70">
         <v>400</v>
@@ -4854,35 +4854,35 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E71">
         <v>4941</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9">
         <v>16</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L71" s="8">
         <v>135</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4915,28 +4915,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E72">
         <v>4951</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I72" s="9">
         <v>16</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L72" s="8">
         <v>78</v>
@@ -4980,35 +4980,35 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9">
         <v>16</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8">
         <v>6.5</v>
       </c>
       <c r="N73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R73" s="8">
         <v>0</v>
@@ -5034,35 +5034,35 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" t="s">
         <v>54</v>
-      </c>
-      <c r="F74" t="s">
-        <v>55</v>
       </c>
       <c r="I74" s="9">
         <v>16</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8">
         <v>15</v>
       </c>
       <c r="N74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -5093,32 +5093,32 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9">
         <v>16</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="8">
         <v>35</v>
       </c>
       <c r="N75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -5151,28 +5151,28 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <v>4955</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9">
         <v>18</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L76" s="8">
         <v>52</v>
@@ -5198,28 +5198,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77">
         <v>4954</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9">
         <v>24</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L77" s="8">
         <v>52</v>
@@ -5255,27 +5255,27 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I78" s="9">
         <v>24</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="6"/>
       <c r="N78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O78">
         <v>60</v>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="AK78" s="8"/>
       <c r="AL78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.3">
@@ -5311,35 +5311,35 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E79">
         <v>4871</v>
       </c>
       <c r="F79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I79" s="9">
         <v>24</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K79" t="s">
         <v>73</v>
-      </c>
-      <c r="K79" t="s">
-        <v>74</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="8">
         <v>39</v>
       </c>
       <c r="N79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P79">
         <v>429</v>
@@ -5379,35 +5379,35 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E80">
         <v>4949</v>
       </c>
       <c r="F80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I80" s="9">
         <v>26</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L80" s="8">
         <v>26</v>
       </c>
       <c r="M80" s="6"/>
       <c r="N80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O80">
         <v>20</v>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="AK80" s="8"/>
       <c r="AL80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.3">
@@ -5443,28 +5443,28 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E81">
         <v>4956</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9">
         <v>26</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L81" s="8">
         <v>52</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="AK81" s="8"/>
       <c r="AL81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.3">
@@ -5504,22 +5504,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I82" s="9">
         <v>26</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="6"/>
@@ -5556,35 +5556,35 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
         <v>34</v>
-      </c>
-      <c r="F83" t="s">
-        <v>35</v>
       </c>
       <c r="I83" s="6">
         <v>5.95</v>
       </c>
       <c r="J83" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K83" t="s">
         <v>36</v>
-      </c>
-      <c r="K83" t="s">
-        <v>37</v>
       </c>
       <c r="L83" s="8">
         <v>13</v>
       </c>
       <c r="M83" s="6"/>
       <c r="N83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="AK83" s="8"/>
       <c r="AL83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.3">
@@ -5622,35 +5622,35 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I84" s="6">
         <v>5.95</v>
       </c>
       <c r="J84" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K84" t="s">
         <v>36</v>
-      </c>
-      <c r="K84" t="s">
-        <v>37</v>
       </c>
       <c r="L84" s="8">
         <v>13</v>
       </c>
       <c r="M84" s="6"/>
       <c r="N84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R84" s="8"/>
       <c r="V84" s="8"/>
@@ -5672,32 +5672,32 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s">
         <v>42</v>
-      </c>
-      <c r="F85" t="s">
-        <v>43</v>
       </c>
       <c r="I85" s="9">
         <v>8</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L85" s="8">
         <v>14.058999999999999</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R85" s="8"/>
       <c r="V85" s="8"/>
@@ -5719,35 +5719,35 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
         <v>77</v>
       </c>
-      <c r="D86" t="s">
-        <v>78</v>
-      </c>
       <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
         <v>45</v>
-      </c>
-      <c r="F86" t="s">
-        <v>46</v>
       </c>
       <c r="I86" s="9">
         <v>8</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="6">
         <v>650</v>
       </c>
       <c r="N86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R86" s="8"/>
       <c r="V86" s="8"/>
@@ -5769,35 +5769,35 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" t="s">
         <v>77</v>
       </c>
-      <c r="D87" t="s">
-        <v>78</v>
-      </c>
       <c r="E87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9">
         <v>8</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8">
         <v>5.3280000000000003</v>
       </c>
       <c r="N87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O87">
         <v>7</v>
@@ -5832,35 +5832,35 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E88">
         <v>4900</v>
       </c>
       <c r="F88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I88" s="10">
         <v>10.5</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L88" s="8">
         <v>52</v>
       </c>
       <c r="M88" s="10"/>
       <c r="N88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O88">
         <v>26</v>
@@ -5900,35 +5900,35 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E89">
         <v>4902</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I89" s="9">
         <v>11</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L89" s="8">
         <v>52</v>
       </c>
       <c r="M89" s="10"/>
       <c r="N89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R89" s="8"/>
       <c r="V89" s="8"/>
@@ -5950,35 +5950,35 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E90" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" t="s">
         <v>54</v>
-      </c>
-      <c r="F90" t="s">
-        <v>55</v>
       </c>
       <c r="I90" s="9">
         <v>11</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8">
         <v>11</v>
       </c>
       <c r="N90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -6013,35 +6013,35 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E91">
         <v>4944</v>
       </c>
       <c r="F91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I91" s="9">
         <v>12</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8">
         <v>26</v>
       </c>
       <c r="N91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -6081,35 +6081,35 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E92">
         <v>4944</v>
       </c>
       <c r="F92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9">
         <v>12</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L92" s="8"/>
       <c r="M92" s="8">
         <v>13</v>
       </c>
       <c r="N92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R92" s="8"/>
       <c r="V92" s="8"/>
@@ -6131,35 +6131,35 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E93">
         <v>4944</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I93" s="9">
         <v>13</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L93" s="8">
         <v>13</v>
       </c>
       <c r="M93" s="8"/>
       <c r="N93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -6199,35 +6199,35 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E94">
         <v>4907</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9">
         <v>13</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L94" s="8">
         <v>26</v>
       </c>
       <c r="M94" s="8"/>
       <c r="N94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O94">
         <v>3</v>
@@ -6262,28 +6262,28 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E95">
         <v>4951</v>
       </c>
       <c r="F95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I95" s="9">
         <v>13</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L95" s="8">
         <v>26</v>
@@ -6309,35 +6309,35 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E96" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" t="s">
         <v>65</v>
-      </c>
-      <c r="F96" t="s">
-        <v>66</v>
       </c>
       <c r="I96" s="9">
         <v>16</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L96" s="8">
         <v>60</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R96" s="8"/>
       <c r="V96" s="8"/>
@@ -6359,35 +6359,35 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E97">
         <v>4866</v>
       </c>
       <c r="F97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I97" s="9">
         <v>16</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L97" s="8">
         <v>15</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P97">
         <v>400</v>
@@ -6419,35 +6419,35 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E98">
         <v>4941</v>
       </c>
       <c r="F98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I98" s="9">
         <v>16</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L98" s="8">
         <v>135</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6480,28 +6480,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E99">
         <v>4951</v>
       </c>
       <c r="F99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I99" s="9">
         <v>16</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L99" s="8">
         <v>78</v>
@@ -6545,35 +6545,35 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I100" s="9">
         <v>16</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L100" s="8"/>
       <c r="M100" s="8">
         <v>6.5</v>
       </c>
       <c r="N100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R100" s="8">
         <v>0</v>
@@ -6599,35 +6599,35 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E101" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" t="s">
         <v>54</v>
-      </c>
-      <c r="F101" t="s">
-        <v>55</v>
       </c>
       <c r="I101" s="9">
         <v>16</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L101" s="8"/>
       <c r="M101" s="8">
         <v>15</v>
       </c>
       <c r="N101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -6658,32 +6658,32 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9">
         <v>16</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="8">
         <v>35</v>
       </c>
       <c r="N102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -6716,28 +6716,28 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E103">
         <v>4955</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I103" s="9">
         <v>18</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L103" s="8">
         <v>52</v>
@@ -6763,28 +6763,28 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E104">
         <v>4954</v>
       </c>
       <c r="F104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I104" s="9">
         <v>24</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L104" s="8">
         <v>52</v>
@@ -6820,27 +6820,27 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I105" s="9">
         <v>24</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="6"/>
       <c r="N105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O105">
         <v>60</v>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AK105" s="8"/>
       <c r="AL105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.3">
@@ -6876,35 +6876,35 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E106">
         <v>4871</v>
       </c>
       <c r="F106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I106" s="9">
         <v>24</v>
       </c>
       <c r="J106" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K106" t="s">
         <v>73</v>
-      </c>
-      <c r="K106" t="s">
-        <v>74</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="8">
         <v>39</v>
       </c>
       <c r="N106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P106">
         <v>429</v>
@@ -6944,35 +6944,35 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E107">
         <v>4949</v>
       </c>
       <c r="F107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I107" s="9">
         <v>26</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L107" s="8">
         <v>26</v>
       </c>
       <c r="M107" s="6"/>
       <c r="N107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O107">
         <v>20</v>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="AK107" s="8"/>
       <c r="AL107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.3">
@@ -7008,28 +7008,28 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E108">
         <v>4956</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I108" s="9">
         <v>26</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L108" s="8">
         <v>52</v>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AK108" s="8"/>
       <c r="AL108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.3">
@@ -7069,22 +7069,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I109" s="9">
         <v>26</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="6"/>
@@ -7121,35 +7121,35 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C110" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" t="s">
         <v>77</v>
       </c>
-      <c r="D110" t="s">
-        <v>78</v>
-      </c>
       <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" t="s">
         <v>34</v>
-      </c>
-      <c r="F110" t="s">
-        <v>35</v>
       </c>
       <c r="I110" s="6">
         <v>5.95</v>
       </c>
       <c r="J110" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K110" t="s">
         <v>36</v>
-      </c>
-      <c r="K110" t="s">
-        <v>37</v>
       </c>
       <c r="L110" s="8">
         <v>13</v>
       </c>
       <c r="M110" s="6"/>
       <c r="N110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="AK110" s="8"/>
       <c r="AL110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.3">
@@ -7187,35 +7187,35 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" t="s">
         <v>77</v>
       </c>
-      <c r="D111" t="s">
-        <v>78</v>
-      </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I111" s="6">
         <v>5.95</v>
       </c>
       <c r="J111" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" t="s">
         <v>36</v>
-      </c>
-      <c r="K111" t="s">
-        <v>37</v>
       </c>
       <c r="L111" s="8">
         <v>13</v>
       </c>
       <c r="M111" s="6"/>
       <c r="N111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R111" s="8"/>
       <c r="V111" s="8"/>
@@ -7237,32 +7237,32 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" t="s">
         <v>77</v>
       </c>
-      <c r="D112" t="s">
-        <v>78</v>
-      </c>
       <c r="E112" t="s">
+        <v>41</v>
+      </c>
+      <c r="F112" t="s">
         <v>42</v>
-      </c>
-      <c r="F112" t="s">
-        <v>43</v>
       </c>
       <c r="I112" s="9">
         <v>8</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L112" s="8">
         <v>14.058999999999999</v>
       </c>
       <c r="M112" s="8"/>
       <c r="N112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R112" s="8"/>
       <c r="V112" s="8"/>
@@ -7284,35 +7284,35 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
         <v>45</v>
-      </c>
-      <c r="F113" t="s">
-        <v>46</v>
       </c>
       <c r="I113" s="9">
         <v>8</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="6">
         <v>650</v>
       </c>
       <c r="N113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R113" s="8"/>
       <c r="V113" s="8"/>
@@ -7334,35 +7334,35 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I114" s="9">
         <v>8</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8">
         <v>5.3280000000000003</v>
       </c>
       <c r="N114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O114">
         <v>7</v>
@@ -7397,35 +7397,35 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E115">
         <v>4900</v>
       </c>
       <c r="F115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I115" s="10">
         <v>10.5</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L115" s="8">
         <v>52</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O115">
         <v>26</v>
@@ -7465,35 +7465,35 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E116">
         <v>4902</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I116" s="9">
         <v>11</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L116" s="8">
         <v>52</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R116" s="8"/>
       <c r="V116" s="8"/>
@@ -7515,35 +7515,35 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E117" t="s">
+        <v>53</v>
+      </c>
+      <c r="F117" t="s">
         <v>54</v>
-      </c>
-      <c r="F117" t="s">
-        <v>55</v>
       </c>
       <c r="I117" s="9">
         <v>11</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8">
         <v>11</v>
       </c>
       <c r="N117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -7578,35 +7578,35 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E118">
         <v>4944</v>
       </c>
       <c r="F118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I118" s="9">
         <v>12</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L118" s="8"/>
       <c r="M118" s="8">
         <v>26</v>
       </c>
       <c r="N118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O118">
         <v>0</v>
@@ -7646,35 +7646,35 @@
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E119">
         <v>4944</v>
       </c>
       <c r="F119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I119" s="9">
         <v>12</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L119" s="8"/>
       <c r="M119" s="8">
         <v>13</v>
       </c>
       <c r="N119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R119" s="8"/>
       <c r="V119" s="8"/>
@@ -7696,35 +7696,35 @@
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E120">
         <v>4944</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I120" s="9">
         <v>13</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L120" s="8">
         <v>13</v>
       </c>
       <c r="M120" s="8"/>
       <c r="N120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O120">
         <v>0</v>
@@ -7764,35 +7764,35 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E121">
         <v>4907</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I121" s="9">
         <v>13</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L121" s="8">
         <v>26</v>
       </c>
       <c r="M121" s="8"/>
       <c r="N121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O121">
         <v>3</v>
@@ -7827,28 +7827,28 @@
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E122">
         <v>4951</v>
       </c>
       <c r="F122" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I122" s="9">
         <v>13</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L122" s="8">
         <v>26</v>
@@ -7874,35 +7874,35 @@
         <v>122</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E123" t="s">
+        <v>64</v>
+      </c>
+      <c r="F123" t="s">
         <v>65</v>
-      </c>
-      <c r="F123" t="s">
-        <v>66</v>
       </c>
       <c r="I123" s="9">
         <v>16</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L123" s="8">
         <v>60</v>
       </c>
       <c r="M123" s="8"/>
       <c r="N123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R123" s="8"/>
       <c r="V123" s="8"/>
@@ -7924,35 +7924,35 @@
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E124">
         <v>4866</v>
       </c>
       <c r="F124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I124" s="9">
         <v>16</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L124" s="8">
         <v>15</v>
       </c>
       <c r="M124" s="8"/>
       <c r="N124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P124">
         <v>400</v>
@@ -7984,35 +7984,35 @@
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E125">
         <v>4941</v>
       </c>
       <c r="F125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I125" s="9">
         <v>16</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L125" s="8">
         <v>135</v>
       </c>
       <c r="M125" s="8"/>
       <c r="N125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8045,28 +8045,28 @@
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E126">
         <v>4951</v>
       </c>
       <c r="F126" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I126" s="9">
         <v>16</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L126" s="8">
         <v>78</v>
@@ -8110,35 +8110,35 @@
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I127" s="9">
         <v>16</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L127" s="8"/>
       <c r="M127" s="8">
         <v>6.5</v>
       </c>
       <c r="N127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R127" s="8">
         <v>0</v>
@@ -8164,35 +8164,35 @@
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E128" t="s">
+        <v>53</v>
+      </c>
+      <c r="F128" t="s">
         <v>54</v>
-      </c>
-      <c r="F128" t="s">
-        <v>55</v>
       </c>
       <c r="I128" s="9">
         <v>16</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L128" s="8"/>
       <c r="M128" s="8">
         <v>15</v>
       </c>
       <c r="N128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -8223,32 +8223,32 @@
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C129" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I129" s="9">
         <v>16</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="8">
         <v>35</v>
       </c>
       <c r="N129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -8281,28 +8281,28 @@
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C130" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E130">
         <v>4955</v>
       </c>
       <c r="F130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I130" s="9">
         <v>18</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L130" s="8">
         <v>52</v>
@@ -8328,28 +8328,28 @@
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C131" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E131">
         <v>4954</v>
       </c>
       <c r="F131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I131" s="9">
         <v>24</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L131" s="8">
         <v>52</v>
@@ -8385,27 +8385,27 @@
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C132" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I132" s="9">
         <v>24</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L132" s="10"/>
       <c r="M132" s="6"/>
       <c r="N132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O132">
         <v>60</v>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="AK132" s="8"/>
       <c r="AL132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.3">
@@ -8441,35 +8441,35 @@
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C133" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E133">
         <v>4871</v>
       </c>
       <c r="F133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I133" s="9">
         <v>24</v>
       </c>
       <c r="J133" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K133" t="s">
         <v>73</v>
-      </c>
-      <c r="K133" t="s">
-        <v>74</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="8">
         <v>39</v>
       </c>
       <c r="N133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P133">
         <v>429</v>
@@ -8509,35 +8509,35 @@
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E134">
         <v>4949</v>
       </c>
       <c r="F134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I134" s="9">
         <v>26</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L134" s="8">
         <v>26</v>
       </c>
       <c r="M134" s="6"/>
       <c r="N134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O134">
         <v>20</v>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="AK134" s="8"/>
       <c r="AL134" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:38" x14ac:dyDescent="0.3">
@@ -8573,28 +8573,28 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E135">
         <v>4956</v>
       </c>
       <c r="F135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I135" s="9">
         <v>26</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L135" s="8">
         <v>52</v>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="AK135" s="8"/>
       <c r="AL135" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.3">
@@ -8634,22 +8634,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C136" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I136" s="9">
         <v>26</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L136" s="8"/>
       <c r="M136" s="6"/>
@@ -8686,35 +8686,35 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C137" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E137" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
         <v>34</v>
-      </c>
-      <c r="F137" t="s">
-        <v>35</v>
       </c>
       <c r="I137" s="6">
         <v>5.95</v>
       </c>
       <c r="J137" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K137" t="s">
         <v>36</v>
-      </c>
-      <c r="K137" t="s">
-        <v>37</v>
       </c>
       <c r="L137" s="8">
         <v>13</v>
       </c>
       <c r="M137" s="6"/>
       <c r="N137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="AK137" s="8"/>
       <c r="AL137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.3">
@@ -8752,35 +8752,35 @@
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D138" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I138" s="6">
         <v>5.95</v>
       </c>
       <c r="J138" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K138" t="s">
         <v>36</v>
-      </c>
-      <c r="K138" t="s">
-        <v>37</v>
       </c>
       <c r="L138" s="8">
         <v>13</v>
       </c>
       <c r="M138" s="6"/>
       <c r="N138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R138" s="8"/>
       <c r="V138" s="8"/>
@@ -8802,32 +8802,32 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C139" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D139" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E139" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139" t="s">
         <v>42</v>
-      </c>
-      <c r="F139" t="s">
-        <v>43</v>
       </c>
       <c r="I139" s="9">
         <v>8</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L139" s="8">
         <v>14.058999999999999</v>
       </c>
       <c r="M139" s="8"/>
       <c r="N139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R139" s="8"/>
       <c r="V139" s="8"/>
@@ -8849,35 +8849,35 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D140" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E140" t="s">
+        <v>44</v>
+      </c>
+      <c r="F140" t="s">
         <v>45</v>
-      </c>
-      <c r="F140" t="s">
-        <v>46</v>
       </c>
       <c r="I140" s="9">
         <v>8</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L140" s="8"/>
       <c r="M140" s="6">
         <v>650</v>
       </c>
       <c r="N140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R140" s="8"/>
       <c r="V140" s="8"/>
@@ -8899,35 +8899,35 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D141" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I141" s="9">
         <v>8</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L141" s="8"/>
       <c r="M141" s="8">
         <v>5.3280000000000003</v>
       </c>
       <c r="N141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O141">
         <v>7</v>
@@ -8962,35 +8962,35 @@
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E142">
         <v>4900</v>
       </c>
       <c r="F142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I142" s="10">
         <v>10.5</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L142" s="8">
         <v>52</v>
       </c>
       <c r="M142" s="10"/>
       <c r="N142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O142">
         <v>26</v>
@@ -9030,35 +9030,35 @@
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D143" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E143">
         <v>4902</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I143" s="9">
         <v>11</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L143" s="8">
         <v>52</v>
       </c>
       <c r="M143" s="10"/>
       <c r="N143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R143" s="8"/>
       <c r="V143" s="8"/>
@@ -9080,35 +9080,35 @@
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D144" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E144" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" t="s">
         <v>54</v>
-      </c>
-      <c r="F144" t="s">
-        <v>55</v>
       </c>
       <c r="I144" s="9">
         <v>11</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L144" s="8"/>
       <c r="M144" s="8">
         <v>11</v>
       </c>
       <c r="N144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -9143,35 +9143,35 @@
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D145" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E145">
         <v>4944</v>
       </c>
       <c r="F145" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I145" s="9">
         <v>12</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="8">
         <v>26</v>
       </c>
       <c r="N145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -9211,35 +9211,35 @@
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E146">
         <v>4944</v>
       </c>
       <c r="F146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I146" s="9">
         <v>12</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="8">
         <v>13</v>
       </c>
       <c r="N146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R146" s="8"/>
       <c r="V146" s="8"/>
@@ -9261,35 +9261,35 @@
         <v>146</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E147">
         <v>4944</v>
       </c>
       <c r="F147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I147" s="9">
         <v>13</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L147" s="8">
         <v>13</v>
       </c>
       <c r="M147" s="8"/>
       <c r="N147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -9329,35 +9329,35 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D148" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E148">
         <v>4907</v>
       </c>
       <c r="F148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I148" s="9">
         <v>13</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L148" s="8">
         <v>26</v>
       </c>
       <c r="M148" s="8"/>
       <c r="N148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O148">
         <v>3</v>
@@ -9392,28 +9392,28 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D149" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E149">
         <v>4951</v>
       </c>
       <c r="F149" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I149" s="9">
         <v>13</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L149" s="8">
         <v>26</v>
@@ -9439,35 +9439,35 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D150" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E150" t="s">
+        <v>64</v>
+      </c>
+      <c r="F150" t="s">
         <v>65</v>
-      </c>
-      <c r="F150" t="s">
-        <v>66</v>
       </c>
       <c r="I150" s="9">
         <v>16</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L150" s="8">
         <v>60</v>
       </c>
       <c r="M150" s="8"/>
       <c r="N150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R150" s="8"/>
       <c r="V150" s="8"/>
@@ -9489,35 +9489,35 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D151" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E151">
         <v>4866</v>
       </c>
       <c r="F151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I151" s="9">
         <v>16</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L151" s="8">
         <v>15</v>
       </c>
       <c r="M151" s="8"/>
       <c r="N151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P151">
         <v>400</v>
@@ -9549,35 +9549,35 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D152" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E152">
         <v>4941</v>
       </c>
       <c r="F152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I152" s="9">
         <v>16</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L152" s="8">
         <v>135</v>
       </c>
       <c r="M152" s="8"/>
       <c r="N152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -9610,28 +9610,28 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C153" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E153">
         <v>4951</v>
       </c>
       <c r="F153" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I153" s="9">
         <v>16</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L153" s="8">
         <v>78</v>
@@ -9675,35 +9675,35 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E154" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I154" s="9">
         <v>16</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L154" s="8"/>
       <c r="M154" s="8">
         <v>6.5</v>
       </c>
       <c r="N154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R154" s="8">
         <v>0</v>
@@ -9729,35 +9729,35 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C155" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E155" t="s">
+        <v>53</v>
+      </c>
+      <c r="F155" t="s">
         <v>54</v>
-      </c>
-      <c r="F155" t="s">
-        <v>55</v>
       </c>
       <c r="I155" s="9">
         <v>16</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L155" s="8"/>
       <c r="M155" s="8">
         <v>15</v>
       </c>
       <c r="N155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -9788,32 +9788,32 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C156" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D156" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E156" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I156" s="9">
         <v>16</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L156" s="10"/>
       <c r="M156" s="8">
         <v>35</v>
       </c>
       <c r="N156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O156">
         <v>1</v>
@@ -9846,28 +9846,28 @@
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E157">
         <v>4955</v>
       </c>
       <c r="F157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I157" s="9">
         <v>18</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L157" s="8">
         <v>52</v>
@@ -9893,28 +9893,28 @@
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C158" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D158" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>4954</v>
       </c>
       <c r="F158" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I158" s="9">
         <v>24</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L158" s="8">
         <v>52</v>
@@ -9950,27 +9950,27 @@
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I159" s="9">
         <v>24</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L159" s="10"/>
       <c r="M159" s="6"/>
       <c r="N159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O159">
         <v>60</v>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="AK159" s="8"/>
       <c r="AL159" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.3">
@@ -10006,35 +10006,35 @@
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C160" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D160" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E160">
         <v>4871</v>
       </c>
       <c r="F160" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I160" s="9">
         <v>24</v>
       </c>
       <c r="J160" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K160" t="s">
         <v>73</v>
-      </c>
-      <c r="K160" t="s">
-        <v>74</v>
       </c>
       <c r="L160" s="10"/>
       <c r="M160" s="8">
         <v>39</v>
       </c>
       <c r="N160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P160">
         <v>429</v>
@@ -10074,35 +10074,35 @@
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C161" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D161" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E161">
         <v>4949</v>
       </c>
       <c r="F161" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I161" s="9">
         <v>26</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L161" s="8">
         <v>26</v>
       </c>
       <c r="M161" s="6"/>
       <c r="N161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O161">
         <v>20</v>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="AK161" s="8"/>
       <c r="AL161" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.3">
@@ -10138,28 +10138,28 @@
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C162" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D162" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E162">
         <v>4956</v>
       </c>
       <c r="F162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I162" s="9">
         <v>26</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L162" s="8">
         <v>52</v>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="AK162" s="8"/>
       <c r="AL162" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:38" x14ac:dyDescent="0.3">
@@ -10199,22 +10199,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C163" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D163" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I163" s="9">
         <v>26</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="6"/>
@@ -10247,6 +10247,7 @@
       <c r="AK163" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL163" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E34FC-601F-430E-B086-3C444659BEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CFF964-8459-49D4-A9D5-E1E68E6EA5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CFF964-8459-49D4-A9D5-E1E68E6EA5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06568E7-D413-4023-9E39-5A609E991E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$1:$AL$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$1:$AL$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="117">
   <si>
     <t>Sl No</t>
   </si>
@@ -257,33 +257,6 @@
     <t>GLOBALTEX</t>
   </si>
   <si>
-    <t>14/2/2024</t>
-  </si>
-  <si>
-    <t>Comilla</t>
-  </si>
-  <si>
-    <t>Mill 1A</t>
-  </si>
-  <si>
-    <t>Mill 2A</t>
-  </si>
-  <si>
-    <t>Mill 1B</t>
-  </si>
-  <si>
-    <t>Mill 2B</t>
-  </si>
-  <si>
-    <t>Faridpur</t>
-  </si>
-  <si>
-    <t>Narsingdi</t>
-  </si>
-  <si>
-    <t>15/2/2024</t>
-  </si>
-  <si>
     <t>Total Production Pallet</t>
   </si>
   <si>
@@ -297,18 +270,136 @@
   </si>
   <si>
     <t>Opening Stock M/Ton</t>
+  </si>
+  <si>
+    <t>L/679</t>
+  </si>
+  <si>
+    <t>8886R</t>
+  </si>
+  <si>
+    <t>8815R</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Gofar</t>
+  </si>
+  <si>
+    <t>Hermann</t>
+  </si>
+  <si>
+    <t>Sarvomangla</t>
+  </si>
+  <si>
+    <t>Nanmu</t>
+  </si>
+  <si>
+    <t>Unnati</t>
+  </si>
+  <si>
+    <t>UC Rugs</t>
+  </si>
+  <si>
+    <t>Ask Hand</t>
+  </si>
+  <si>
+    <t>Sarvomangola</t>
+  </si>
+  <si>
+    <t>Dalian D.L.</t>
+  </si>
+  <si>
+    <t>Unsold</t>
+  </si>
+  <si>
+    <t>Haining</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/1 Bleached </t>
+  </si>
+  <si>
+    <t>8/1 Hessain</t>
+  </si>
+  <si>
+    <t>10.4/3 vot</t>
+  </si>
+  <si>
+    <t>14/2  Hessian</t>
+  </si>
+  <si>
+    <t>16/2 Ply</t>
+  </si>
+  <si>
+    <t>16/3 Green</t>
+  </si>
+  <si>
+    <t>16/2 Bleached</t>
+  </si>
+  <si>
+    <t>18/2 Ply</t>
+  </si>
+  <si>
+    <t>20/2 Black</t>
+  </si>
+  <si>
+    <t>20/2 Skg</t>
+  </si>
+  <si>
+    <t>21/1 Beached</t>
+  </si>
+  <si>
+    <t>21/1 Heavy</t>
+  </si>
+  <si>
+    <t>21/3 CB Bleached</t>
+  </si>
+  <si>
+    <t>26/1  Black</t>
+  </si>
+  <si>
+    <t>SJIL</t>
+  </si>
+  <si>
+    <t>JJMLN</t>
+  </si>
+  <si>
+    <t>JJMLF</t>
+  </si>
+  <si>
+    <t>Mill No. 1A</t>
+  </si>
+  <si>
+    <t>Mill No. 2A</t>
+  </si>
+  <si>
+    <t>Mill No. 1B</t>
+  </si>
+  <si>
+    <t>Mill No. 2B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="10">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="167" formatCode="_(* ###0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);\(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* ###0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_-* ###0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_(* ###0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +411,55 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -371,11 +511,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -407,8 +684,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -687,19 +1057,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL163"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:AL179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="9.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -755,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>17</v>
@@ -770,16 +1144,16 @@
         <v>20</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>21</v>
@@ -818,18 +1192,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>75</v>
+      <c r="B2" s="11">
+        <v>45324</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -884,18 +1258,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>75</v>
+      <c r="B3" s="11">
+        <v>45324</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -934,18 +1308,18 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>75</v>
+      <c r="B4" s="11">
+        <v>45324</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -999,18 +1373,18 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>75</v>
+      <c r="B5" s="11">
+        <v>45324</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -1049,18 +1423,18 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>75</v>
+      <c r="B6" s="11">
+        <v>45324</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
@@ -1116,18 +1490,18 @@
       </c>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>75</v>
+      <c r="B7" s="11">
+        <v>45324</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>4900</v>
@@ -1191,18 +1565,18 @@
       </c>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>75</v>
+      <c r="B8" s="11">
+        <v>45324</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E8">
         <v>4902</v>
@@ -1241,18 +1615,18 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>75</v>
+      <c r="B9" s="11">
+        <v>45324</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
@@ -1313,18 +1687,18 @@
       </c>
       <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>75</v>
+      <c r="B10" s="11">
+        <v>45324</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>4944</v>
@@ -1376,18 +1750,18 @@
       </c>
       <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>75</v>
+      <c r="B11" s="11">
+        <v>45324</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>4944</v>
@@ -1426,18 +1800,18 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>75</v>
+      <c r="B12" s="11">
+        <v>45324</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>4944</v>
@@ -1494,18 +1868,18 @@
       </c>
       <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>75</v>
+      <c r="B13" s="11">
+        <v>45324</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E13">
         <v>4907</v>
@@ -1557,18 +1931,18 @@
       </c>
       <c r="AK13" s="8"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>75</v>
+      <c r="B14" s="11">
+        <v>45324</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>4951</v>
@@ -1604,18 +1978,18 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
+      <c r="B15" s="11">
+        <v>45324</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
         <v>64</v>
@@ -1654,18 +2028,18 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>75</v>
+      <c r="B16" s="11">
+        <v>45324</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E16">
         <v>4866</v>
@@ -1714,18 +2088,18 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>75</v>
+      <c r="B17" s="11">
+        <v>45324</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E17">
         <v>4941</v>
@@ -1775,18 +2149,18 @@
       </c>
       <c r="AK17" s="8"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>75</v>
+      <c r="B18" s="11">
+        <v>45324</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E18">
         <v>4951</v>
@@ -1840,18 +2214,18 @@
       </c>
       <c r="AK18" s="8"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>75</v>
+      <c r="B19" s="11">
+        <v>45324</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
@@ -1894,18 +2268,18 @@
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>75</v>
+      <c r="B20" s="11">
+        <v>45324</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -1953,18 +2327,18 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>75</v>
+      <c r="B21" s="11">
+        <v>45324</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>69</v>
@@ -2011,18 +2385,18 @@
       </c>
       <c r="AK21" s="8"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>75</v>
+      <c r="B22" s="11">
+        <v>45324</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>4955</v>
@@ -2058,18 +2432,18 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>75</v>
+      <c r="B23" s="11">
+        <v>45324</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>4954</v>
@@ -2115,18 +2489,18 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>75</v>
+      <c r="B24" s="11">
+        <v>45324</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I24" s="9">
         <v>24</v>
@@ -2171,18 +2545,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>75</v>
+      <c r="B25" s="11">
+        <v>45324</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>4871</v>
@@ -2239,18 +2613,18 @@
       </c>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>75</v>
+      <c r="B26" s="11">
+        <v>45324</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>4949</v>
@@ -2303,18 +2677,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>75</v>
+      <c r="B27" s="11">
+        <v>45324</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>4956</v>
@@ -2364,18 +2738,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>75</v>
+      <c r="B28" s="11">
+        <v>45324</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I28" s="9">
         <v>26</v>
@@ -2416,18 +2790,18 @@
       </c>
       <c r="AK28" s="8"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>75</v>
+      <c r="B29" s="11">
+        <v>45324</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -2482,18 +2856,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>75</v>
+      <c r="B30" s="11">
+        <v>45324</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
@@ -2532,18 +2906,18 @@
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>75</v>
+      <c r="B31" s="11">
+        <v>45324</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
@@ -2584,18 +2958,18 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>75</v>
+      <c r="B32" s="11">
+        <v>45324</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>44</v>
@@ -2634,18 +3008,18 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>75</v>
+      <c r="B33" s="11">
+        <v>45324</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>48</v>
@@ -2697,18 +3071,18 @@
       </c>
       <c r="AK33" s="8"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>75</v>
+      <c r="B34" s="11">
+        <v>45324</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E34">
         <v>4900</v>
@@ -2765,18 +3139,18 @@
       </c>
       <c r="AK34" s="8"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>75</v>
+      <c r="B35" s="11">
+        <v>45324</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>4902</v>
@@ -2815,18 +3189,18 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>75</v>
+      <c r="B36" s="11">
+        <v>45324</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>53</v>
@@ -2878,18 +3252,18 @@
       </c>
       <c r="AK36" s="8"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>75</v>
+      <c r="B37" s="11">
+        <v>45324</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E37">
         <v>4944</v>
@@ -2946,18 +3320,18 @@
       </c>
       <c r="AK37" s="8"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>75</v>
+      <c r="B38" s="11">
+        <v>45324</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E38">
         <v>4944</v>
@@ -2996,18 +3370,18 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>75</v>
+      <c r="B39" s="11">
+        <v>45324</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E39">
         <v>4944</v>
@@ -3064,18 +3438,18 @@
       </c>
       <c r="AK39" s="8"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>75</v>
+      <c r="B40" s="11">
+        <v>45324</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E40">
         <v>4907</v>
@@ -3127,18 +3501,18 @@
       </c>
       <c r="AK40" s="8"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>75</v>
+      <c r="B41" s="11">
+        <v>45324</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E41">
         <v>4951</v>
@@ -3174,18 +3548,18 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>75</v>
+      <c r="B42" s="11">
+        <v>45324</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
         <v>64</v>
@@ -3224,18 +3598,18 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>75</v>
+      <c r="B43" s="11">
+        <v>45324</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E43">
         <v>4866</v>
@@ -3284,18 +3658,18 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>75</v>
+      <c r="B44" s="11">
+        <v>45324</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E44">
         <v>4941</v>
@@ -3345,18 +3719,18 @@
       </c>
       <c r="AK44" s="8"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>75</v>
+      <c r="B45" s="11">
+        <v>45324</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E45">
         <v>4951</v>
@@ -3410,18 +3784,18 @@
       </c>
       <c r="AK45" s="8"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>75</v>
+      <c r="B46" s="11">
+        <v>45324</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>67</v>
@@ -3464,18 +3838,18 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>75</v>
+      <c r="B47" s="11">
+        <v>45324</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>53</v>
@@ -3523,18 +3897,18 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>75</v>
+      <c r="B48" s="11">
+        <v>45324</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>69</v>
@@ -3581,18 +3955,18 @@
       </c>
       <c r="AK48" s="8"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>75</v>
+      <c r="B49" s="11">
+        <v>45324</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E49">
         <v>4955</v>
@@ -3628,18 +4002,18 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>75</v>
+      <c r="B50" s="11">
+        <v>45324</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E50">
         <v>4954</v>
@@ -3685,18 +4059,18 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>75</v>
+      <c r="B51" s="11">
+        <v>45324</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I51" s="9">
         <v>24</v>
@@ -3741,18 +4115,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>75</v>
+      <c r="B52" s="11">
+        <v>45324</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E52">
         <v>4871</v>
@@ -3809,18 +4183,18 @@
       </c>
       <c r="AK52" s="8"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>75</v>
+      <c r="B53" s="11">
+        <v>45324</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E53">
         <v>4949</v>
@@ -3873,18 +4247,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>75</v>
+      <c r="B54" s="11">
+        <v>45324</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E54">
         <v>4956</v>
@@ -3934,18 +4308,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>75</v>
+      <c r="B55" s="11">
+        <v>45324</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I55" s="9">
         <v>26</v>
@@ -3986,18 +4360,18 @@
       </c>
       <c r="AK55" s="8"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>75</v>
+      <c r="B56" s="11">
+        <v>45324</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
         <v>33</v>
@@ -4052,18 +4426,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>75</v>
+      <c r="B57" s="11">
+        <v>45324</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
         <v>39</v>
@@ -4106,14 +4480,14 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>75</v>
+      <c r="B58" s="11">
+        <v>45324</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>41</v>
@@ -4153,14 +4527,14 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>75</v>
+      <c r="B59" s="11">
+        <v>45324</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>44</v>
@@ -4203,14 +4577,14 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>75</v>
+      <c r="B60" s="11">
+        <v>45324</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>48</v>
@@ -4266,14 +4640,14 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>75</v>
+      <c r="B61" s="11">
+        <v>45324</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E61">
         <v>4900</v>
@@ -4334,14 +4708,14 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>75</v>
+      <c r="B62" s="11">
+        <v>45324</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E62">
         <v>4902</v>
@@ -4384,14 +4758,14 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>75</v>
+      <c r="B63" s="11">
+        <v>45324</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>53</v>
@@ -4447,14 +4821,14 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>75</v>
+      <c r="B64" s="11">
+        <v>45324</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E64">
         <v>4944</v>
@@ -4515,14 +4889,14 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>75</v>
+      <c r="B65" s="11">
+        <v>45324</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E65">
         <v>4944</v>
@@ -4565,14 +4939,14 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>75</v>
+      <c r="B66" s="11">
+        <v>45324</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E66">
         <v>4944</v>
@@ -4633,14 +5007,14 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>75</v>
+      <c r="B67" s="11">
+        <v>45324</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E67">
         <v>4907</v>
@@ -4696,14 +5070,14 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>75</v>
+      <c r="B68" s="11">
+        <v>45324</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E68">
         <v>4951</v>
@@ -4743,14 +5117,14 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>75</v>
+      <c r="B69" s="11">
+        <v>45324</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s">
         <v>64</v>
@@ -4793,14 +5167,14 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>75</v>
+      <c r="B70" s="11">
+        <v>45324</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E70">
         <v>4866</v>
@@ -4853,14 +5227,14 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>75</v>
+      <c r="B71" s="11">
+        <v>45324</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E71">
         <v>4941</v>
@@ -4914,14 +5288,14 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>75</v>
+      <c r="B72" s="11">
+        <v>45324</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E72">
         <v>4951</v>
@@ -4979,14 +5353,14 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>75</v>
+      <c r="B73" s="11">
+        <v>45324</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E73" t="s">
         <v>67</v>
@@ -5033,14 +5407,14 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>75</v>
+      <c r="B74" s="11">
+        <v>45324</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E74" t="s">
         <v>53</v>
@@ -5092,14 +5466,14 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>75</v>
+      <c r="B75" s="11">
+        <v>45324</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E75" t="s">
         <v>69</v>
@@ -5150,14 +5524,14 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>75</v>
+      <c r="B76" s="11">
+        <v>45324</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E76">
         <v>4955</v>
@@ -5197,14 +5571,14 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>75</v>
+      <c r="B77" s="11">
+        <v>45324</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E77">
         <v>4954</v>
@@ -5254,14 +5628,14 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>75</v>
+      <c r="B78" s="11">
+        <v>45324</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I78" s="9">
         <v>24</v>
@@ -5310,14 +5684,14 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>75</v>
+      <c r="B79" s="11">
+        <v>45324</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E79">
         <v>4871</v>
@@ -5378,14 +5752,14 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>75</v>
+      <c r="B80" s="11">
+        <v>45324</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E80">
         <v>4949</v>
@@ -5442,14 +5816,14 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>75</v>
+      <c r="B81" s="11">
+        <v>45324</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E81">
         <v>4956</v>
@@ -5503,14 +5877,14 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>75</v>
+      <c r="B82" s="11">
+        <v>45324</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I82" s="9">
         <v>26</v>
@@ -5555,14 +5929,14 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>75</v>
+      <c r="B83" s="11">
+        <v>45324</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E83" t="s">
         <v>33</v>
@@ -5621,14 +5995,14 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>75</v>
+      <c r="B84" s="11">
+        <v>45324</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
         <v>39</v>
@@ -5671,14 +6045,14 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>75</v>
+      <c r="B85" s="11">
+        <v>45324</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
         <v>41</v>
@@ -5714,18 +6088,18 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="8"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>83</v>
+      <c r="B86" s="11">
+        <v>45324</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
         <v>44</v>
@@ -5764,18 +6138,18 @@
       <c r="AJ86" s="8"/>
       <c r="AK86" s="8"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>83</v>
+      <c r="B87" s="11">
+        <v>45324</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
@@ -5827,18 +6201,18 @@
       </c>
       <c r="AK87" s="8"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>83</v>
+      <c r="B88" s="11">
+        <v>45324</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E88">
         <v>4900</v>
@@ -5895,18 +6269,18 @@
       </c>
       <c r="AK88" s="8"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>83</v>
+      <c r="B89" s="11">
+        <v>45324</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E89">
         <v>4902</v>
@@ -5945,18 +6319,18 @@
       <c r="AJ89" s="8"/>
       <c r="AK89" s="8"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>83</v>
+      <c r="B90" s="11">
+        <v>45324</v>
       </c>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E90" t="s">
         <v>53</v>
@@ -6008,18 +6382,18 @@
       </c>
       <c r="AK90" s="8"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>83</v>
+      <c r="B91" s="11">
+        <v>45324</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E91">
         <v>4944</v>
@@ -6076,18 +6450,18 @@
       </c>
       <c r="AK91" s="8"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>83</v>
+      <c r="B92" s="11">
+        <v>45324</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E92">
         <v>4944</v>
@@ -6126,18 +6500,18 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>83</v>
+      <c r="B93" s="11">
+        <v>45324</v>
       </c>
       <c r="C93" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D93" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E93">
         <v>4944</v>
@@ -6194,18 +6568,18 @@
       </c>
       <c r="AK93" s="8"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>83</v>
+      <c r="B94" s="11">
+        <v>45324</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E94">
         <v>4907</v>
@@ -6257,18 +6631,18 @@
       </c>
       <c r="AK94" s="8"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>83</v>
+      <c r="B95" s="11">
+        <v>45324</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E95">
         <v>4951</v>
@@ -6304,18 +6678,18 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>83</v>
+      <c r="B96" s="11">
+        <v>45324</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E96" t="s">
         <v>64</v>
@@ -6354,18 +6728,18 @@
       <c r="AJ96" s="8"/>
       <c r="AK96" s="8"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>83</v>
+      <c r="B97" s="11">
+        <v>45324</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E97">
         <v>4866</v>
@@ -6414,18 +6788,18 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>83</v>
+      <c r="B98" s="11">
+        <v>45324</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D98" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E98">
         <v>4941</v>
@@ -6475,18 +6849,18 @@
       </c>
       <c r="AK98" s="8"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>83</v>
+      <c r="B99" s="11">
+        <v>45324</v>
       </c>
       <c r="C99" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D99" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E99">
         <v>4951</v>
@@ -6540,18 +6914,18 @@
       </c>
       <c r="AK99" s="8"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>83</v>
+      <c r="B100" s="11">
+        <v>45324</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E100" t="s">
         <v>67</v>
@@ -6594,18 +6968,18 @@
       <c r="AJ100" s="8"/>
       <c r="AK100" s="8"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>83</v>
+      <c r="B101" s="11">
+        <v>45324</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E101" t="s">
         <v>53</v>
@@ -6653,18 +7027,18 @@
       <c r="AJ101" s="8"/>
       <c r="AK101" s="8"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>83</v>
+      <c r="B102" s="11">
+        <v>45324</v>
       </c>
       <c r="C102" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E102" t="s">
         <v>69</v>
@@ -6711,18 +7085,18 @@
       </c>
       <c r="AK102" s="8"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>83</v>
+      <c r="B103" s="11">
+        <v>45324</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D103" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E103">
         <v>4955</v>
@@ -6758,18 +7132,18 @@
       <c r="AJ103" s="8"/>
       <c r="AK103" s="8"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>83</v>
+      <c r="B104" s="11">
+        <v>45324</v>
       </c>
       <c r="C104" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D104" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E104">
         <v>4954</v>
@@ -6815,18 +7189,18 @@
       <c r="AJ104" s="8"/>
       <c r="AK104" s="8"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>83</v>
+      <c r="B105" s="11">
+        <v>45324</v>
       </c>
       <c r="C105" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D105" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I105" s="9">
         <v>24</v>
@@ -6871,18 +7245,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>83</v>
+      <c r="B106" s="11">
+        <v>45324</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E106">
         <v>4871</v>
@@ -6939,18 +7313,18 @@
       </c>
       <c r="AK106" s="8"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>83</v>
+      <c r="B107" s="11">
+        <v>45324</v>
       </c>
       <c r="C107" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E107">
         <v>4949</v>
@@ -7003,18 +7377,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>83</v>
+      <c r="B108" s="11">
+        <v>45324</v>
       </c>
       <c r="C108" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E108">
         <v>4956</v>
@@ -7064,18 +7438,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>83</v>
+      <c r="B109" s="11">
+        <v>45324</v>
       </c>
       <c r="C109" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I109" s="9">
         <v>26</v>
@@ -7116,18 +7490,18 @@
       </c>
       <c r="AK109" s="8"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>83</v>
+      <c r="B110" s="11">
+        <v>45324</v>
       </c>
       <c r="C110" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D110" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E110" t="s">
         <v>33</v>
@@ -7182,18 +7556,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>83</v>
+      <c r="B111" s="11">
+        <v>45324</v>
       </c>
       <c r="C111" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E111" t="s">
         <v>39</v>
@@ -7232,18 +7606,18 @@
       <c r="AJ111" s="8"/>
       <c r="AK111" s="8"/>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>83</v>
+      <c r="B112" s="11">
+        <v>45324</v>
       </c>
       <c r="C112" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E112" t="s">
         <v>41</v>
@@ -7279,18 +7653,18 @@
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>83</v>
+      <c r="B113" s="11">
+        <v>45324</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E113" t="s">
         <v>44</v>
@@ -7329,18 +7703,18 @@
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>83</v>
+      <c r="B114" s="11">
+        <v>45324</v>
       </c>
       <c r="C114" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E114" t="s">
         <v>48</v>
@@ -7392,18 +7766,18 @@
       </c>
       <c r="AK114" s="8"/>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>83</v>
+      <c r="B115" s="11">
+        <v>45324</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E115">
         <v>4900</v>
@@ -7460,18 +7834,18 @@
       </c>
       <c r="AK115" s="8"/>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>83</v>
+      <c r="B116" s="11">
+        <v>45324</v>
       </c>
       <c r="C116" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D116" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E116">
         <v>4902</v>
@@ -7510,18 +7884,18 @@
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8"/>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>83</v>
+      <c r="B117" s="11">
+        <v>45324</v>
       </c>
       <c r="C117" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E117" t="s">
         <v>53</v>
@@ -7573,18 +7947,18 @@
       </c>
       <c r="AK117" s="8"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>83</v>
+      <c r="B118" s="11">
+        <v>45324</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D118" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E118">
         <v>4944</v>
@@ -7641,18 +8015,18 @@
       </c>
       <c r="AK118" s="8"/>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>83</v>
+      <c r="B119" s="11">
+        <v>45324</v>
       </c>
       <c r="C119" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E119">
         <v>4944</v>
@@ -7691,18 +8065,18 @@
       <c r="AJ119" s="8"/>
       <c r="AK119" s="8"/>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>83</v>
+      <c r="B120" s="11">
+        <v>45324</v>
       </c>
       <c r="C120" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E120">
         <v>4944</v>
@@ -7759,18 +8133,18 @@
       </c>
       <c r="AK120" s="8"/>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>83</v>
+      <c r="B121" s="11">
+        <v>45324</v>
       </c>
       <c r="C121" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D121" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E121">
         <v>4907</v>
@@ -7822,18 +8196,18 @@
       </c>
       <c r="AK121" s="8"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>83</v>
+      <c r="B122" s="11">
+        <v>45324</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E122">
         <v>4951</v>
@@ -7869,18 +8243,18 @@
       <c r="AJ122" s="8"/>
       <c r="AK122" s="8"/>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>83</v>
+      <c r="B123" s="11">
+        <v>45324</v>
       </c>
       <c r="C123" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D123" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E123" t="s">
         <v>64</v>
@@ -7919,18 +8293,18 @@
       <c r="AJ123" s="8"/>
       <c r="AK123" s="8"/>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>83</v>
+      <c r="B124" s="11">
+        <v>45324</v>
       </c>
       <c r="C124" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D124" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E124">
         <v>4866</v>
@@ -7979,18 +8353,18 @@
       <c r="AJ124" s="8"/>
       <c r="AK124" s="8"/>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>83</v>
+      <c r="B125" s="11">
+        <v>45324</v>
       </c>
       <c r="C125" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D125" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E125">
         <v>4941</v>
@@ -8040,18 +8414,18 @@
       </c>
       <c r="AK125" s="8"/>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>83</v>
+      <c r="B126" s="11">
+        <v>45324</v>
       </c>
       <c r="C126" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D126" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E126">
         <v>4951</v>
@@ -8105,18 +8479,18 @@
       </c>
       <c r="AK126" s="8"/>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>83</v>
+      <c r="B127" s="11">
+        <v>45324</v>
       </c>
       <c r="C127" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D127" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E127" t="s">
         <v>67</v>
@@ -8159,18 +8533,18 @@
       <c r="AJ127" s="8"/>
       <c r="AK127" s="8"/>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>83</v>
+      <c r="B128" s="11">
+        <v>45324</v>
       </c>
       <c r="C128" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D128" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E128" t="s">
         <v>53</v>
@@ -8218,18 +8592,18 @@
       <c r="AJ128" s="8"/>
       <c r="AK128" s="8"/>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>83</v>
+      <c r="B129" s="11">
+        <v>45324</v>
       </c>
       <c r="C129" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D129" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E129" t="s">
         <v>69</v>
@@ -8276,18 +8650,18 @@
       </c>
       <c r="AK129" s="8"/>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>83</v>
+      <c r="B130" s="11">
+        <v>45324</v>
       </c>
       <c r="C130" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D130" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E130">
         <v>4955</v>
@@ -8323,18 +8697,18 @@
       <c r="AJ130" s="8"/>
       <c r="AK130" s="8"/>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>83</v>
+      <c r="B131" s="11">
+        <v>45324</v>
       </c>
       <c r="C131" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E131">
         <v>4954</v>
@@ -8380,18 +8754,18 @@
       <c r="AJ131" s="8"/>
       <c r="AK131" s="8"/>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>83</v>
+      <c r="B132" s="11">
+        <v>45324</v>
       </c>
       <c r="C132" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D132" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I132" s="9">
         <v>24</v>
@@ -8436,18 +8810,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>83</v>
+      <c r="B133" s="11">
+        <v>45324</v>
       </c>
       <c r="C133" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D133" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E133">
         <v>4871</v>
@@ -8504,18 +8878,18 @@
       </c>
       <c r="AK133" s="8"/>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>83</v>
+      <c r="B134" s="11">
+        <v>45324</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D134" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E134">
         <v>4949</v>
@@ -8568,18 +8942,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>83</v>
+      <c r="B135" s="11">
+        <v>45324</v>
       </c>
       <c r="C135" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E135">
         <v>4956</v>
@@ -8629,18 +9003,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>83</v>
+      <c r="B136" s="11">
+        <v>45324</v>
       </c>
       <c r="C136" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D136" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I136" s="9">
         <v>26</v>
@@ -8681,18 +9055,18 @@
       </c>
       <c r="AK136" s="8"/>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>83</v>
+      <c r="B137" s="11">
+        <v>45324</v>
       </c>
       <c r="C137" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D137" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E137" t="s">
         <v>33</v>
@@ -8747,18 +9121,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>83</v>
+      <c r="B138" s="11">
+        <v>45324</v>
       </c>
       <c r="C138" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D138" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E138" t="s">
         <v>39</v>
@@ -8797,18 +9171,18 @@
       <c r="AJ138" s="8"/>
       <c r="AK138" s="8"/>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>83</v>
+      <c r="B139" s="11">
+        <v>45324</v>
       </c>
       <c r="C139" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D139" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E139" t="s">
         <v>41</v>
@@ -8844,18 +9218,18 @@
       <c r="AJ139" s="8"/>
       <c r="AK139" s="8"/>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>83</v>
+      <c r="B140" s="11">
+        <v>45324</v>
       </c>
       <c r="C140" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D140" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E140" t="s">
         <v>44</v>
@@ -8894,18 +9268,18 @@
       <c r="AJ140" s="8"/>
       <c r="AK140" s="8"/>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>83</v>
+      <c r="B141" s="11">
+        <v>45324</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D141" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E141" t="s">
         <v>48</v>
@@ -8961,14 +9335,14 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>83</v>
+      <c r="B142" s="11">
+        <v>45324</v>
       </c>
       <c r="C142" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D142" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E142">
         <v>4900</v>
@@ -9029,14 +9403,14 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>83</v>
+      <c r="B143" s="11">
+        <v>45324</v>
       </c>
       <c r="C143" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D143" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E143">
         <v>4902</v>
@@ -9079,14 +9453,14 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>83</v>
+      <c r="B144" s="11">
+        <v>45324</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D144" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E144" t="s">
         <v>53</v>
@@ -9142,14 +9516,14 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>83</v>
+      <c r="B145" s="11">
+        <v>45324</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D145" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E145">
         <v>4944</v>
@@ -9210,14 +9584,14 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>83</v>
+      <c r="B146" s="11">
+        <v>45324</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D146" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E146">
         <v>4944</v>
@@ -9260,14 +9634,14 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>83</v>
+      <c r="B147" s="11">
+        <v>45324</v>
       </c>
       <c r="C147" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D147" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E147">
         <v>4944</v>
@@ -9328,14 +9702,14 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>83</v>
+      <c r="B148" s="11">
+        <v>45324</v>
       </c>
       <c r="C148" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D148" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E148">
         <v>4907</v>
@@ -9391,14 +9765,14 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>83</v>
+      <c r="B149" s="11">
+        <v>45324</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D149" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E149">
         <v>4951</v>
@@ -9438,14 +9812,14 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="11" t="s">
-        <v>83</v>
+      <c r="B150" s="11">
+        <v>45324</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D150" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E150" t="s">
         <v>64</v>
@@ -9488,14 +9862,14 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="11" t="s">
-        <v>83</v>
+      <c r="B151" s="11">
+        <v>45324</v>
       </c>
       <c r="C151" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D151" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E151">
         <v>4866</v>
@@ -9548,14 +9922,14 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>83</v>
+      <c r="B152" s="11">
+        <v>45324</v>
       </c>
       <c r="C152" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D152" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E152">
         <v>4941</v>
@@ -9609,14 +9983,14 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>83</v>
+      <c r="B153" s="11">
+        <v>45324</v>
       </c>
       <c r="C153" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D153" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E153">
         <v>4951</v>
@@ -9674,14 +10048,14 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>83</v>
+      <c r="B154" s="11">
+        <v>45324</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D154" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E154" t="s">
         <v>67</v>
@@ -9728,14 +10102,14 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>83</v>
+      <c r="B155" s="11">
+        <v>45324</v>
       </c>
       <c r="C155" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D155" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E155" t="s">
         <v>53</v>
@@ -9787,14 +10161,14 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>83</v>
+      <c r="B156" s="11">
+        <v>45324</v>
       </c>
       <c r="C156" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D156" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E156" t="s">
         <v>69</v>
@@ -9845,14 +10219,14 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>83</v>
+      <c r="B157" s="11">
+        <v>45324</v>
       </c>
       <c r="C157" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D157" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E157">
         <v>4955</v>
@@ -9892,14 +10266,14 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>83</v>
+      <c r="B158" s="11">
+        <v>45324</v>
       </c>
       <c r="C158" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D158" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E158">
         <v>4954</v>
@@ -9949,14 +10323,14 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>83</v>
+      <c r="B159" s="11">
+        <v>45324</v>
       </c>
       <c r="C159" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D159" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I159" s="9">
         <v>24</v>
@@ -10005,14 +10379,14 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>83</v>
+      <c r="B160" s="11">
+        <v>45324</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D160" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E160">
         <v>4871</v>
@@ -10073,14 +10447,14 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="11" t="s">
-        <v>83</v>
+      <c r="B161" s="11">
+        <v>45324</v>
       </c>
       <c r="C161" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D161" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E161">
         <v>4949</v>
@@ -10137,14 +10511,14 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>83</v>
+      <c r="B162" s="11">
+        <v>45324</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D162" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E162">
         <v>4956</v>
@@ -10198,14 +10572,14 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="11" t="s">
-        <v>83</v>
+      <c r="B163" s="11">
+        <v>45324</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D163" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I163" s="9">
         <v>26</v>
@@ -10246,8 +10620,966 @@
       </c>
       <c r="AK163" s="8"/>
     </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C164" t="s">
+        <v>111</v>
+      </c>
+      <c r="D164" t="s">
+        <v>114</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J164" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L164" s="33">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C165" t="s">
+        <v>111</v>
+      </c>
+      <c r="D165" t="s">
+        <v>114</v>
+      </c>
+      <c r="E165" s="15">
+        <v>8906</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J165" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L165" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="P165" s="36">
+        <v>243</v>
+      </c>
+      <c r="R165" s="37">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="T165" s="39">
+        <v>24</v>
+      </c>
+      <c r="U165" s="36"/>
+      <c r="V165" s="40">
+        <v>0.72</v>
+      </c>
+      <c r="W165" s="44"/>
+      <c r="X165" s="39">
+        <f t="shared" ref="X165:Z179" si="0">P165+T165</f>
+        <v>267</v>
+      </c>
+      <c r="Y165" s="45"/>
+      <c r="Z165" s="37">
+        <f t="shared" si="0"/>
+        <v>8.01</v>
+      </c>
+      <c r="AA165" s="44"/>
+      <c r="AB165" s="39"/>
+      <c r="AC165" s="46"/>
+      <c r="AD165" s="40"/>
+      <c r="AE165">
+        <v>0</v>
+      </c>
+      <c r="AF165">
+        <v>267</v>
+      </c>
+      <c r="AG165">
+        <v>0</v>
+      </c>
+      <c r="AH165">
+        <v>8.01</v>
+      </c>
+      <c r="AI165">
+        <v>3.82</v>
+      </c>
+      <c r="AJ165">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>162</v>
+      </c>
+      <c r="B166" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C166" t="s">
+        <v>111</v>
+      </c>
+      <c r="D166" t="s">
+        <v>114</v>
+      </c>
+      <c r="E166" s="16">
+        <v>7091</v>
+      </c>
+      <c r="F166" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J166" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L166" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="P166" s="36"/>
+      <c r="R166" s="37"/>
+      <c r="T166" s="39"/>
+      <c r="U166" s="36"/>
+      <c r="V166" s="40"/>
+      <c r="W166" s="44"/>
+      <c r="X166" s="39"/>
+      <c r="Y166" s="45"/>
+      <c r="Z166" s="37"/>
+      <c r="AA166" s="44"/>
+      <c r="AB166" s="39"/>
+      <c r="AC166" s="46"/>
+      <c r="AD166" s="40"/>
+      <c r="AE166">
+        <v>0</v>
+      </c>
+      <c r="AF166">
+        <v>0</v>
+      </c>
+      <c r="AG166">
+        <v>0</v>
+      </c>
+      <c r="AH166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>162</v>
+      </c>
+      <c r="B167" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C167" t="s">
+        <v>111</v>
+      </c>
+      <c r="D167" t="s">
+        <v>114</v>
+      </c>
+      <c r="E167" s="15">
+        <v>8863</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J167" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L167" s="33">
+        <v>30</v>
+      </c>
+      <c r="P167" s="36">
+        <v>537</v>
+      </c>
+      <c r="R167" s="37">
+        <v>28.680000000000007</v>
+      </c>
+      <c r="T167" s="39">
+        <v>23</v>
+      </c>
+      <c r="U167" s="36"/>
+      <c r="V167" s="40">
+        <v>1.32</v>
+      </c>
+      <c r="W167" s="44"/>
+      <c r="X167" s="39">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="Y167" s="45"/>
+      <c r="Z167" s="37">
+        <f t="shared" si="0"/>
+        <v>30.000000000000007</v>
+      </c>
+      <c r="AA167" s="44"/>
+      <c r="AB167" s="39"/>
+      <c r="AC167" s="46"/>
+      <c r="AD167" s="40"/>
+      <c r="AE167">
+        <v>0</v>
+      </c>
+      <c r="AF167">
+        <v>560</v>
+      </c>
+      <c r="AG167">
+        <v>0</v>
+      </c>
+      <c r="AH167">
+        <v>30.000000000000007</v>
+      </c>
+      <c r="AJ167">
+        <v>30.000000000000007</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>162</v>
+      </c>
+      <c r="B168" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C168" t="s">
+        <v>111</v>
+      </c>
+      <c r="D168" t="s">
+        <v>114</v>
+      </c>
+      <c r="E168" s="15">
+        <v>8868</v>
+      </c>
+      <c r="F168" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J168" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L168" s="33">
+        <v>30</v>
+      </c>
+      <c r="P168" s="36">
+        <v>47</v>
+      </c>
+      <c r="R168" s="37">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="T168" s="39">
+        <v>33</v>
+      </c>
+      <c r="U168" s="36"/>
+      <c r="V168" s="40">
+        <v>1.76</v>
+      </c>
+      <c r="W168" s="44"/>
+      <c r="X168" s="39">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="Y168" s="45"/>
+      <c r="Z168" s="37">
+        <f t="shared" si="0"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AA168" s="44"/>
+      <c r="AB168" s="39"/>
+      <c r="AC168" s="46"/>
+      <c r="AD168" s="40"/>
+      <c r="AE168">
+        <v>0</v>
+      </c>
+      <c r="AF168">
+        <v>80</v>
+      </c>
+      <c r="AG168">
+        <v>0</v>
+      </c>
+      <c r="AH168">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AI168">
+        <v>8.5879999999999992</v>
+      </c>
+      <c r="AJ168">
+        <v>12.857999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>162</v>
+      </c>
+      <c r="B169" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C169" t="s">
+        <v>111</v>
+      </c>
+      <c r="D169" t="s">
+        <v>114</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F169" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J169" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L169" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="P169" s="36"/>
+      <c r="R169" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="T169" s="39"/>
+      <c r="U169" s="36"/>
+      <c r="V169" s="40"/>
+      <c r="W169" s="44"/>
+      <c r="X169" s="39"/>
+      <c r="Y169" s="45"/>
+      <c r="Z169" s="37">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA169" s="44"/>
+      <c r="AB169" s="39"/>
+      <c r="AC169" s="46"/>
+      <c r="AD169" s="40"/>
+      <c r="AE169">
+        <v>1</v>
+      </c>
+      <c r="AF169">
+        <v>0</v>
+      </c>
+      <c r="AG169">
+        <v>0</v>
+      </c>
+      <c r="AH169">
+        <v>1.2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>162</v>
+      </c>
+      <c r="B170" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C170" t="s">
+        <v>111</v>
+      </c>
+      <c r="D170" t="s">
+        <v>114</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J170" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L170" s="33">
+        <v>4</v>
+      </c>
+      <c r="P170" s="36">
+        <v>93</v>
+      </c>
+      <c r="R170" s="37">
+        <v>4</v>
+      </c>
+      <c r="T170" s="39"/>
+      <c r="U170" s="36"/>
+      <c r="V170" s="40"/>
+      <c r="W170" s="44"/>
+      <c r="X170" s="39">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="Y170" s="45"/>
+      <c r="Z170" s="37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA170" s="44"/>
+      <c r="AB170" s="39"/>
+      <c r="AC170" s="46"/>
+      <c r="AD170" s="40"/>
+      <c r="AE170">
+        <v>0</v>
+      </c>
+      <c r="AF170">
+        <v>93</v>
+      </c>
+      <c r="AG170">
+        <v>0</v>
+      </c>
+      <c r="AH170">
+        <v>4</v>
+      </c>
+      <c r="AJ170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>162</v>
+      </c>
+      <c r="B171" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C171" t="s">
+        <v>111</v>
+      </c>
+      <c r="D171" t="s">
+        <v>114</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J171" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L171" s="33">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="P171" s="36"/>
+      <c r="R171" s="37"/>
+      <c r="T171" s="39">
+        <v>18</v>
+      </c>
+      <c r="U171" s="36"/>
+      <c r="V171" s="40">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="W171" s="44"/>
+      <c r="X171" s="39">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Y171" s="45"/>
+      <c r="Z171" s="37">
+        <f t="shared" si="0"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AA171" s="44"/>
+      <c r="AB171" s="39">
+        <v>18</v>
+      </c>
+      <c r="AC171" s="46"/>
+      <c r="AD171" s="40">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AE171">
+        <v>0</v>
+      </c>
+      <c r="AF171">
+        <v>0</v>
+      </c>
+      <c r="AG171">
+        <v>0</v>
+      </c>
+      <c r="AH171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>162</v>
+      </c>
+      <c r="B172" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C172" t="s">
+        <v>111</v>
+      </c>
+      <c r="D172" t="s">
+        <v>114</v>
+      </c>
+      <c r="E172" s="15">
+        <v>8903</v>
+      </c>
+      <c r="F172" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J172" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L172" s="33">
+        <v>30</v>
+      </c>
+      <c r="P172" s="36">
+        <v>808</v>
+      </c>
+      <c r="R172" s="37">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="T172" s="39"/>
+      <c r="U172" s="36"/>
+      <c r="V172" s="40"/>
+      <c r="W172" s="44"/>
+      <c r="X172" s="39">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="Y172" s="45"/>
+      <c r="Z172" s="37">
+        <f t="shared" si="0"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AA172" s="44"/>
+      <c r="AB172" s="39"/>
+      <c r="AC172" s="46"/>
+      <c r="AD172" s="40"/>
+      <c r="AE172">
+        <v>0</v>
+      </c>
+      <c r="AF172">
+        <v>808</v>
+      </c>
+      <c r="AG172">
+        <v>0</v>
+      </c>
+      <c r="AH172">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AJ172">
+        <v>29.999999999999996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>162</v>
+      </c>
+      <c r="B173" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C173" t="s">
+        <v>111</v>
+      </c>
+      <c r="D173" t="s">
+        <v>114</v>
+      </c>
+      <c r="E173" s="15">
+        <v>8758</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J173" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L173" s="33">
+        <v>78</v>
+      </c>
+      <c r="P173" s="36"/>
+      <c r="R173" s="37">
+        <v>26</v>
+      </c>
+      <c r="T173" s="39"/>
+      <c r="U173" s="36"/>
+      <c r="V173" s="40">
+        <v>11.7</v>
+      </c>
+      <c r="W173" s="44"/>
+      <c r="X173" s="39"/>
+      <c r="Y173" s="45"/>
+      <c r="Z173" s="37">
+        <f t="shared" si="0"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA173" s="44"/>
+      <c r="AB173" s="39"/>
+      <c r="AC173" s="46"/>
+      <c r="AD173" s="40"/>
+      <c r="AE173">
+        <v>29</v>
+      </c>
+      <c r="AF173">
+        <v>0</v>
+      </c>
+      <c r="AG173">
+        <v>0</v>
+      </c>
+      <c r="AH173">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AI173">
+        <v>18.61</v>
+      </c>
+      <c r="AJ173">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>162</v>
+      </c>
+      <c r="B174" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C174" t="s">
+        <v>111</v>
+      </c>
+      <c r="D174" t="s">
+        <v>114</v>
+      </c>
+      <c r="E174" s="17"/>
+      <c r="F174" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J174" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L174" s="34">
+        <v>1</v>
+      </c>
+      <c r="P174" s="36"/>
+      <c r="R174" s="38"/>
+      <c r="T174" s="39"/>
+      <c r="U174" s="36"/>
+      <c r="V174" s="41"/>
+      <c r="W174" s="44"/>
+      <c r="X174" s="39"/>
+      <c r="Y174" s="45"/>
+      <c r="Z174" s="37"/>
+      <c r="AA174" s="44"/>
+      <c r="AB174" s="39"/>
+      <c r="AC174" s="46"/>
+      <c r="AD174" s="40"/>
+      <c r="AE174">
+        <v>0</v>
+      </c>
+      <c r="AF174">
+        <v>0</v>
+      </c>
+      <c r="AG174">
+        <v>0</v>
+      </c>
+      <c r="AH174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>162</v>
+      </c>
+      <c r="B175" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C175" t="s">
+        <v>111</v>
+      </c>
+      <c r="D175" t="s">
+        <v>114</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F175" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J175" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="L175" s="35">
+        <v>18</v>
+      </c>
+      <c r="P175" s="36">
+        <v>336</v>
+      </c>
+      <c r="R175" s="38">
+        <v>18</v>
+      </c>
+      <c r="T175" s="39"/>
+      <c r="U175" s="36"/>
+      <c r="V175" s="41"/>
+      <c r="W175" s="44"/>
+      <c r="X175" s="39">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="Y175" s="45"/>
+      <c r="Z175" s="37">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AA175" s="44"/>
+      <c r="AB175" s="39"/>
+      <c r="AC175" s="46"/>
+      <c r="AD175" s="40"/>
+      <c r="AE175">
+        <v>0</v>
+      </c>
+      <c r="AF175">
+        <v>336</v>
+      </c>
+      <c r="AG175">
+        <v>0</v>
+      </c>
+      <c r="AH175">
+        <v>18</v>
+      </c>
+      <c r="AJ175">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>162</v>
+      </c>
+      <c r="B176" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D176" t="s">
+        <v>114</v>
+      </c>
+      <c r="E176" s="18">
+        <v>8922</v>
+      </c>
+      <c r="F176" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J176" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="L176" s="35">
+        <v>26</v>
+      </c>
+      <c r="P176" s="36"/>
+      <c r="R176" s="38"/>
+      <c r="T176" s="39"/>
+      <c r="U176" s="36"/>
+      <c r="V176" s="41"/>
+      <c r="W176" s="44"/>
+      <c r="X176" s="39"/>
+      <c r="Y176" s="45"/>
+      <c r="Z176" s="37"/>
+      <c r="AA176" s="44"/>
+      <c r="AB176" s="39"/>
+      <c r="AC176" s="46"/>
+      <c r="AD176" s="40"/>
+      <c r="AE176">
+        <v>0</v>
+      </c>
+      <c r="AF176">
+        <v>0</v>
+      </c>
+      <c r="AG176">
+        <v>0</v>
+      </c>
+      <c r="AH176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>162</v>
+      </c>
+      <c r="B177" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C177" t="s">
+        <v>111</v>
+      </c>
+      <c r="D177" t="s">
+        <v>114</v>
+      </c>
+      <c r="E177" s="18"/>
+      <c r="F177" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J177" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="L177" s="35">
+        <v>26</v>
+      </c>
+      <c r="P177" s="36"/>
+      <c r="R177" s="38"/>
+      <c r="T177" s="39"/>
+      <c r="U177" s="36"/>
+      <c r="V177" s="41"/>
+      <c r="W177" s="44"/>
+      <c r="X177" s="39"/>
+      <c r="Y177" s="45"/>
+      <c r="Z177" s="37"/>
+      <c r="AA177" s="44"/>
+      <c r="AB177" s="39"/>
+      <c r="AC177" s="46"/>
+      <c r="AD177" s="40"/>
+      <c r="AE177">
+        <v>0</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>0</v>
+      </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>162</v>
+      </c>
+      <c r="B178" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C178" t="s">
+        <v>111</v>
+      </c>
+      <c r="D178" t="s">
+        <v>114</v>
+      </c>
+      <c r="E178" s="19">
+        <v>8923</v>
+      </c>
+      <c r="F178" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J178" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L178" s="33">
+        <v>13</v>
+      </c>
+      <c r="P178" s="36"/>
+      <c r="R178" s="38">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="T178" s="39"/>
+      <c r="U178" s="42"/>
+      <c r="V178" s="43"/>
+      <c r="W178" s="44"/>
+      <c r="X178" s="39"/>
+      <c r="Y178" s="45"/>
+      <c r="Z178" s="37">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AA178" s="44"/>
+      <c r="AB178" s="39"/>
+      <c r="AC178" s="42"/>
+      <c r="AD178" s="43"/>
+      <c r="AE178">
+        <v>3</v>
+      </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
+      <c r="AG178">
+        <v>0</v>
+      </c>
+      <c r="AH178">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AJ178">
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>162</v>
+      </c>
+      <c r="B179" s="11">
+        <v>45324</v>
+      </c>
+      <c r="C179" t="s">
+        <v>111</v>
+      </c>
+      <c r="D179" t="s">
+        <v>114</v>
+      </c>
+      <c r="E179" s="18">
+        <v>8924</v>
+      </c>
+      <c r="F179" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J179" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L179" s="33">
+        <v>13</v>
+      </c>
+      <c r="P179" s="36"/>
+      <c r="R179" s="38">
+        <v>10.400000000000002</v>
+      </c>
+      <c r="T179" s="39"/>
+      <c r="U179" s="42"/>
+      <c r="V179" s="43">
+        <v>1.3</v>
+      </c>
+      <c r="W179" s="44"/>
+      <c r="X179" s="39"/>
+      <c r="Y179" s="45"/>
+      <c r="Z179" s="37">
+        <f t="shared" si="0"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="AA179" s="44"/>
+      <c r="AB179" s="39"/>
+      <c r="AC179" s="42"/>
+      <c r="AD179" s="43"/>
+      <c r="AE179">
+        <v>9</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>0</v>
+      </c>
+      <c r="AH179">
+        <v>11.700000000000003</v>
+      </c>
+      <c r="AJ179">
+        <v>11.700000000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL163" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AL179" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="JJMLN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06568E7-D413-4023-9E39-5A609E991E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15AF754-2404-420A-B820-B3E9FEE0A87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,12 +1057,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:AL179"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AL180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S70" sqref="S70"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC4" sqref="AC4:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1071,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1192,7 +1192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
     </row>
-    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="AK13" s="8"/>
     </row>
-    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
     </row>
-    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
     </row>
-    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
     </row>
-    <row r="17" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="AK17" s="8"/>
     </row>
-    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="AK18" s="8"/>
     </row>
-    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
     </row>
-    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
     </row>
-    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AK21" s="8"/>
     </row>
-    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
     </row>
-    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="AK28" s="8"/>
     </row>
-    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
     </row>
-    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
     </row>
-    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
     </row>
-    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="AK33" s="8"/>
     </row>
-    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="AK34" s="8"/>
     </row>
-    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
     </row>
-    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="AK36" s="8"/>
     </row>
-    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="AK37" s="8"/>
     </row>
-    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
     </row>
-    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="AK39" s="8"/>
     </row>
-    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="AK40" s="8"/>
     </row>
-    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
     </row>
-    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
     </row>
-    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
     </row>
-    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="AK44" s="8"/>
     </row>
-    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="AK45" s="8"/>
     </row>
-    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
     </row>
-    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
     </row>
-    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="AK48" s="8"/>
     </row>
-    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
     </row>
-    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
     </row>
-    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="AK52" s="8"/>
     </row>
-    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="AK55" s="8"/>
     </row>
-    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="8"/>
     </row>
-    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="AJ86" s="8"/>
       <c r="AK86" s="8"/>
     </row>
-    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="AK87" s="8"/>
     </row>
-    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="AK88" s="8"/>
     </row>
-    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="AJ89" s="8"/>
       <c r="AK89" s="8"/>
     </row>
-    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="AK90" s="8"/>
     </row>
-    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="AK91" s="8"/>
     </row>
-    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
     </row>
-    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="AK93" s="8"/>
     </row>
-    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="AK94" s="8"/>
     </row>
-    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
     </row>
-    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="AJ96" s="8"/>
       <c r="AK96" s="8"/>
     </row>
-    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6788,7 +6788,7 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
     </row>
-    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="AK98" s="8"/>
     </row>
-    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="AK99" s="8"/>
     </row>
-    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="AJ100" s="8"/>
       <c r="AK100" s="8"/>
     </row>
-    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="AJ101" s="8"/>
       <c r="AK101" s="8"/>
     </row>
-    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="AK102" s="8"/>
     </row>
-    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="AJ103" s="8"/>
       <c r="AK103" s="8"/>
     </row>
-    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="AJ104" s="8"/>
       <c r="AK104" s="8"/>
     </row>
-    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="AK106" s="8"/>
     </row>
-    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AK109" s="8"/>
     </row>
-    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="AJ111" s="8"/>
       <c r="AK111" s="8"/>
     </row>
-    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7653,7 +7653,7 @@
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
     </row>
-    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
     </row>
-    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="AK114" s="8"/>
     </row>
-    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="AK115" s="8"/>
     </row>
-    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8"/>
     </row>
-    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="AK117" s="8"/>
     </row>
-    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="AK118" s="8"/>
     </row>
-    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="AJ119" s="8"/>
       <c r="AK119" s="8"/>
     </row>
-    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="AK120" s="8"/>
     </row>
-    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="AK121" s="8"/>
     </row>
-    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="AJ122" s="8"/>
       <c r="AK122" s="8"/>
     </row>
-    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8293,7 +8293,7 @@
       <c r="AJ123" s="8"/>
       <c r="AK123" s="8"/>
     </row>
-    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8353,7 +8353,7 @@
       <c r="AJ124" s="8"/>
       <c r="AK124" s="8"/>
     </row>
-    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="AK125" s="8"/>
     </row>
-    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="AK126" s="8"/>
     </row>
-    <row r="127" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8533,7 +8533,7 @@
       <c r="AJ127" s="8"/>
       <c r="AK127" s="8"/>
     </row>
-    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="AJ128" s="8"/>
       <c r="AK128" s="8"/>
     </row>
-    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AK129" s="8"/>
     </row>
-    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="AJ130" s="8"/>
       <c r="AK130" s="8"/>
     </row>
-    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8754,7 +8754,7 @@
       <c r="AJ131" s="8"/>
       <c r="AK131" s="8"/>
     </row>
-    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AK133" s="8"/>
     </row>
-    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="AK136" s="8"/>
     </row>
-    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9171,7 +9171,7 @@
       <c r="AJ138" s="8"/>
       <c r="AK138" s="8"/>
     </row>
-    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="AJ139" s="8"/>
       <c r="AK139" s="8"/>
     </row>
-    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="AJ140" s="8"/>
       <c r="AK140" s="8"/>
     </row>
-    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="W165" s="44"/>
       <c r="X165" s="39">
-        <f t="shared" ref="X165:Z179" si="0">P165+T165</f>
+        <f t="shared" ref="X165:Z180" si="0">P165+T165</f>
         <v>267</v>
       </c>
       <c r="Y165" s="45"/>
@@ -11571,14 +11571,17 @@
         <v>11.700000000000003</v>
       </c>
     </row>
+    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="E180" s="18"/>
+      <c r="F180" s="29"/>
+      <c r="J180" s="30"/>
+      <c r="L180" s="33"/>
+      <c r="R180" s="38"/>
+      <c r="V180" s="43"/>
+      <c r="Z180" s="37"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL179" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="JJMLN"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AL179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15AF754-2404-420A-B820-B3E9FEE0A87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CBD9F5-A8C1-451E-A056-78BC57A05D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="117">
   <si>
     <t>Sl No</t>
   </si>
@@ -1060,9 +1060,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC4" sqref="AC4:AC1048576"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="W165" s="44"/>
       <c r="X165" s="39">
-        <f t="shared" ref="X165:Z180" si="0">P165+T165</f>
+        <f t="shared" ref="X165:Z179" si="0">P165+T165</f>
         <v>267</v>
       </c>
       <c r="Y165" s="45"/>
@@ -11572,13 +11572,65 @@
       </c>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="E180" s="18"/>
-      <c r="F180" s="29"/>
-      <c r="J180" s="30"/>
-      <c r="L180" s="33"/>
-      <c r="R180" s="38"/>
-      <c r="V180" s="43"/>
-      <c r="Z180" s="37"/>
+      <c r="B180" s="11">
+        <v>45325</v>
+      </c>
+      <c r="C180" t="s">
+        <v>111</v>
+      </c>
+      <c r="D180" t="s">
+        <v>114</v>
+      </c>
+      <c r="E180" s="18">
+        <v>8924</v>
+      </c>
+      <c r="F180" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I180">
+        <v>26</v>
+      </c>
+      <c r="J180" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L180" s="33">
+        <v>13</v>
+      </c>
+      <c r="P180" s="36"/>
+      <c r="R180" s="38">
+        <v>10.400000000000002</v>
+      </c>
+      <c r="T180" s="39"/>
+      <c r="U180" s="42"/>
+      <c r="V180" s="43">
+        <v>1.3</v>
+      </c>
+      <c r="W180" s="44"/>
+      <c r="X180" s="39"/>
+      <c r="Y180" s="45"/>
+      <c r="Z180" s="37">
+        <f t="shared" ref="Z180" si="1">R180+V180</f>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="AA180" s="44"/>
+      <c r="AB180" s="39"/>
+      <c r="AC180" s="42"/>
+      <c r="AD180" s="43"/>
+      <c r="AE180">
+        <v>9</v>
+      </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
+      <c r="AG180">
+        <v>0</v>
+      </c>
+      <c r="AH180">
+        <v>11.700000000000003</v>
+      </c>
+      <c r="AJ180">
+        <v>11.700000000000003</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AL179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CBD9F5-A8C1-451E-A056-78BC57A05D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B565ECD-F09D-49C3-8599-9A360411DCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$1:$AL$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$1:$AL$227</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="156">
   <si>
     <t>Sl No</t>
   </si>
@@ -381,13 +381,130 @@
   </si>
   <si>
     <t>Mill No. 2B</t>
+  </si>
+  <si>
+    <t>Mill No. 2</t>
+  </si>
+  <si>
+    <t>Graznpul</t>
+  </si>
+  <si>
+    <t>Shahi</t>
+  </si>
+  <si>
+    <t>8759R</t>
+  </si>
+  <si>
+    <t>Kodama</t>
+  </si>
+  <si>
+    <t>Piegon</t>
+  </si>
+  <si>
+    <t>L/653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globaltex </t>
+  </si>
+  <si>
+    <t>Rug Creation</t>
+  </si>
+  <si>
+    <t>Kurtas</t>
+  </si>
+  <si>
+    <t>De Jong</t>
+  </si>
+  <si>
+    <t>Denzay</t>
+  </si>
+  <si>
+    <t>Yec Gilam</t>
+  </si>
+  <si>
+    <t>KHORSHID BARSAVA</t>
+  </si>
+  <si>
+    <t>8/1 Bleached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/1 Bleach </t>
+  </si>
+  <si>
+    <t>10/2  Hessian</t>
+  </si>
+  <si>
+    <t>14/3 100,200gm</t>
+  </si>
+  <si>
+    <t>14/5 800gm</t>
+  </si>
+  <si>
+    <t>14/5 4kg spool</t>
+  </si>
+  <si>
+    <t>14/3 160 grams Spool</t>
+  </si>
+  <si>
+    <t>14/3 250 grams Spool</t>
+  </si>
+  <si>
+    <t>14/3 730g bleached</t>
+  </si>
+  <si>
+    <t>14/3 830 grams Spool</t>
+  </si>
+  <si>
+    <t>14/3 90gVot</t>
+  </si>
+  <si>
+    <t>16/2 Bleach Vot</t>
+  </si>
+  <si>
+    <t>16/2 CRM/CRT</t>
+  </si>
+  <si>
+    <t>18/1 Ply</t>
+  </si>
+  <si>
+    <t>19.35/3 Orange</t>
+  </si>
+  <si>
+    <t>20/1 Ply</t>
+  </si>
+  <si>
+    <t>24/1 CRM/CRT</t>
+  </si>
+  <si>
+    <t>24/1 CRT</t>
+  </si>
+  <si>
+    <t>24/1 Ply N</t>
+  </si>
+  <si>
+    <t>26/1 Ply</t>
+  </si>
+  <si>
+    <t>28/5 Hanks</t>
+  </si>
+  <si>
+    <t>28/1 skg  Spool</t>
+  </si>
+  <si>
+    <t>40/1 Ply-J</t>
+  </si>
+  <si>
+    <t>36/3 Natural</t>
+  </si>
+  <si>
+    <t>Mill No. 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -398,8 +515,10 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_-* ###0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_(* ###0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0.00000_);\(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +583,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -503,7 +628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -647,12 +772,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -775,6 +911,28 @@
     </xf>
     <xf numFmtId="172" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,12 +1215,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL180"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:AL227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T187" sqref="T187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,7 +1230,7 @@
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1192,7 +1350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1258,7 +1416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1308,7 +1466,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1373,7 +1531,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1423,7 +1581,7 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1490,7 +1648,7 @@
       </c>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1565,7 +1723,7 @@
       </c>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1615,7 +1773,7 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1687,7 +1845,7 @@
       </c>
       <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1750,7 +1908,7 @@
       </c>
       <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1800,7 +1958,7 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1868,7 +2026,7 @@
       </c>
       <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1931,7 +2089,7 @@
       </c>
       <c r="AK13" s="8"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1978,7 +2136,7 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2028,7 +2186,7 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2088,7 +2246,7 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2149,7 +2307,7 @@
       </c>
       <c r="AK17" s="8"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2214,7 +2372,7 @@
       </c>
       <c r="AK18" s="8"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2268,7 +2426,7 @@
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2327,7 +2485,7 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2385,7 +2543,7 @@
       </c>
       <c r="AK21" s="8"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2432,7 +2590,7 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2489,7 +2647,7 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2545,7 +2703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2613,7 +2771,7 @@
       </c>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2677,7 +2835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2738,7 +2896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2790,7 +2948,7 @@
       </c>
       <c r="AK28" s="8"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2856,7 +3014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2906,7 +3064,7 @@
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2958,7 +3116,7 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3008,7 +3166,7 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3071,7 +3229,7 @@
       </c>
       <c r="AK33" s="8"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3139,7 +3297,7 @@
       </c>
       <c r="AK34" s="8"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3189,7 +3347,7 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3252,7 +3410,7 @@
       </c>
       <c r="AK36" s="8"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3320,7 +3478,7 @@
       </c>
       <c r="AK37" s="8"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3370,7 +3528,7 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3438,7 +3596,7 @@
       </c>
       <c r="AK39" s="8"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3501,7 +3659,7 @@
       </c>
       <c r="AK40" s="8"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3548,7 +3706,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3598,7 +3756,7 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3658,7 +3816,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3719,7 +3877,7 @@
       </c>
       <c r="AK44" s="8"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3784,7 +3942,7 @@
       </c>
       <c r="AK45" s="8"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3838,7 +3996,7 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3897,7 +4055,7 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3955,7 +4113,7 @@
       </c>
       <c r="AK48" s="8"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4002,7 +4160,7 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4059,7 +4217,7 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4115,7 +4273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4183,7 +4341,7 @@
       </c>
       <c r="AK52" s="8"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4247,7 +4405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4308,7 +4466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4360,7 +4518,7 @@
       </c>
       <c r="AK55" s="8"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4426,7 +4584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4476,7 +4634,7 @@
       <c r="AJ57" s="8"/>
       <c r="AK57" s="8"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4523,7 +4681,7 @@
       <c r="AJ58" s="8"/>
       <c r="AK58" s="8"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4573,7 +4731,7 @@
       <c r="AJ59" s="8"/>
       <c r="AK59" s="8"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4636,7 +4794,7 @@
       </c>
       <c r="AK60" s="8"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4704,7 +4862,7 @@
       </c>
       <c r="AK61" s="8"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4754,7 +4912,7 @@
       <c r="AJ62" s="8"/>
       <c r="AK62" s="8"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4817,7 +4975,7 @@
       </c>
       <c r="AK63" s="8"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4885,7 +5043,7 @@
       </c>
       <c r="AK64" s="8"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4935,7 +5093,7 @@
       <c r="AJ65" s="8"/>
       <c r="AK65" s="8"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5003,7 +5161,7 @@
       </c>
       <c r="AK66" s="8"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5066,7 +5224,7 @@
       </c>
       <c r="AK67" s="8"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5113,7 +5271,7 @@
       <c r="AJ68" s="8"/>
       <c r="AK68" s="8"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5163,7 +5321,7 @@
       <c r="AJ69" s="8"/>
       <c r="AK69" s="8"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5223,7 +5381,7 @@
       <c r="AJ70" s="8"/>
       <c r="AK70" s="8"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5284,7 +5442,7 @@
       </c>
       <c r="AK71" s="8"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5349,7 +5507,7 @@
       </c>
       <c r="AK72" s="8"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5403,7 +5561,7 @@
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5462,7 +5620,7 @@
       <c r="AJ74" s="8"/>
       <c r="AK74" s="8"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5520,7 +5678,7 @@
       </c>
       <c r="AK75" s="8"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5567,7 +5725,7 @@
       <c r="AJ76" s="8"/>
       <c r="AK76" s="8"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5624,7 +5782,7 @@
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5680,7 +5838,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5748,7 +5906,7 @@
       </c>
       <c r="AK79" s="8"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5812,7 +5970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5873,7 +6031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5925,7 +6083,7 @@
       </c>
       <c r="AK82" s="8"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5991,7 +6149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6041,7 +6199,7 @@
       <c r="AJ84" s="8"/>
       <c r="AK84" s="8"/>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6088,7 +6246,7 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="8"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6138,7 +6296,7 @@
       <c r="AJ86" s="8"/>
       <c r="AK86" s="8"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6201,7 +6359,7 @@
       </c>
       <c r="AK87" s="8"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6269,7 +6427,7 @@
       </c>
       <c r="AK88" s="8"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6319,7 +6477,7 @@
       <c r="AJ89" s="8"/>
       <c r="AK89" s="8"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6382,7 +6540,7 @@
       </c>
       <c r="AK90" s="8"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6450,7 +6608,7 @@
       </c>
       <c r="AK91" s="8"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6500,7 +6658,7 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6568,7 +6726,7 @@
       </c>
       <c r="AK93" s="8"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6631,7 +6789,7 @@
       </c>
       <c r="AK94" s="8"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6678,7 +6836,7 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6728,7 +6886,7 @@
       <c r="AJ96" s="8"/>
       <c r="AK96" s="8"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6788,7 +6946,7 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6849,7 +7007,7 @@
       </c>
       <c r="AK98" s="8"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6914,7 +7072,7 @@
       </c>
       <c r="AK99" s="8"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6968,7 +7126,7 @@
       <c r="AJ100" s="8"/>
       <c r="AK100" s="8"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7027,7 +7185,7 @@
       <c r="AJ101" s="8"/>
       <c r="AK101" s="8"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7085,7 +7243,7 @@
       </c>
       <c r="AK102" s="8"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7132,7 +7290,7 @@
       <c r="AJ103" s="8"/>
       <c r="AK103" s="8"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7189,7 +7347,7 @@
       <c r="AJ104" s="8"/>
       <c r="AK104" s="8"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7245,7 +7403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7313,7 +7471,7 @@
       </c>
       <c r="AK106" s="8"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7377,7 +7535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7438,7 +7596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7490,7 +7648,7 @@
       </c>
       <c r="AK109" s="8"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7556,7 +7714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7606,7 +7764,7 @@
       <c r="AJ111" s="8"/>
       <c r="AK111" s="8"/>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7653,7 +7811,7 @@
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7703,7 +7861,7 @@
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7766,7 +7924,7 @@
       </c>
       <c r="AK114" s="8"/>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7834,7 +7992,7 @@
       </c>
       <c r="AK115" s="8"/>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7884,7 +8042,7 @@
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8"/>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7947,7 +8105,7 @@
       </c>
       <c r="AK117" s="8"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8015,7 +8173,7 @@
       </c>
       <c r="AK118" s="8"/>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8065,7 +8223,7 @@
       <c r="AJ119" s="8"/>
       <c r="AK119" s="8"/>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8133,7 +8291,7 @@
       </c>
       <c r="AK120" s="8"/>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8196,7 +8354,7 @@
       </c>
       <c r="AK121" s="8"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8243,7 +8401,7 @@
       <c r="AJ122" s="8"/>
       <c r="AK122" s="8"/>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8293,7 +8451,7 @@
       <c r="AJ123" s="8"/>
       <c r="AK123" s="8"/>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8353,7 +8511,7 @@
       <c r="AJ124" s="8"/>
       <c r="AK124" s="8"/>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8414,7 +8572,7 @@
       </c>
       <c r="AK125" s="8"/>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8479,7 +8637,7 @@
       </c>
       <c r="AK126" s="8"/>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8533,7 +8691,7 @@
       <c r="AJ127" s="8"/>
       <c r="AK127" s="8"/>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8592,7 +8750,7 @@
       <c r="AJ128" s="8"/>
       <c r="AK128" s="8"/>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8650,7 +8808,7 @@
       </c>
       <c r="AK129" s="8"/>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8697,7 +8855,7 @@
       <c r="AJ130" s="8"/>
       <c r="AK130" s="8"/>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8754,7 +8912,7 @@
       <c r="AJ131" s="8"/>
       <c r="AK131" s="8"/>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8810,7 +8968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8878,7 +9036,7 @@
       </c>
       <c r="AK133" s="8"/>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8942,7 +9100,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9003,7 +9161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9055,7 +9213,7 @@
       </c>
       <c r="AK136" s="8"/>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9121,7 +9279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9171,7 +9329,7 @@
       <c r="AJ138" s="8"/>
       <c r="AK138" s="8"/>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9218,7 +9376,7 @@
       <c r="AJ139" s="8"/>
       <c r="AK139" s="8"/>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9268,7 +9426,7 @@
       <c r="AJ140" s="8"/>
       <c r="AK140" s="8"/>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9331,7 +9489,7 @@
       </c>
       <c r="AK141" s="8"/>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9399,7 +9557,7 @@
       </c>
       <c r="AK142" s="8"/>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9449,7 +9607,7 @@
       <c r="AJ143" s="8"/>
       <c r="AK143" s="8"/>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9512,7 +9670,7 @@
       </c>
       <c r="AK144" s="8"/>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9580,7 +9738,7 @@
       </c>
       <c r="AK145" s="8"/>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9630,7 +9788,7 @@
       <c r="AJ146" s="8"/>
       <c r="AK146" s="8"/>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9698,7 +9856,7 @@
       </c>
       <c r="AK147" s="8"/>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9761,7 +9919,7 @@
       </c>
       <c r="AK148" s="8"/>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9808,7 +9966,7 @@
       <c r="AJ149" s="8"/>
       <c r="AK149" s="8"/>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9858,7 +10016,7 @@
       <c r="AJ150" s="8"/>
       <c r="AK150" s="8"/>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9918,7 +10076,7 @@
       <c r="AJ151" s="8"/>
       <c r="AK151" s="8"/>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9979,7 +10137,7 @@
       </c>
       <c r="AK152" s="8"/>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10044,7 +10202,7 @@
       </c>
       <c r="AK153" s="8"/>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10098,7 +10256,7 @@
       <c r="AJ154" s="8"/>
       <c r="AK154" s="8"/>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10157,7 +10315,7 @@
       <c r="AJ155" s="8"/>
       <c r="AK155" s="8"/>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10215,7 +10373,7 @@
       </c>
       <c r="AK156" s="8"/>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10262,7 +10420,7 @@
       <c r="AJ157" s="8"/>
       <c r="AK157" s="8"/>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10319,7 +10477,7 @@
       <c r="AJ158" s="8"/>
       <c r="AK158" s="8"/>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10375,7 +10533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10443,7 +10601,7 @@
       </c>
       <c r="AK160" s="8"/>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10507,7 +10665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10568,7 +10726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10620,9 +10778,9 @@
       </c>
       <c r="AK163" s="8"/>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="11">
         <v>45324</v>
@@ -10646,9 +10804,9 @@
         <v>10.54</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B165" s="11">
         <v>45324</v>
@@ -10717,9 +10875,9 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B166" s="11">
         <v>45324</v>
@@ -10771,9 +10929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B167" s="11">
         <v>45324</v>
@@ -10839,9 +10997,9 @@
         <v>30.000000000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B168" s="11">
         <v>45324</v>
@@ -10910,9 +11068,9 @@
         <v>12.857999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:38" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B169" s="11">
         <v>45324</v>
@@ -10969,9 +11127,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="170" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:38" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B170" s="11">
         <v>45324</v>
@@ -11033,9 +11191,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:38" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B171" s="11">
         <v>45324</v>
@@ -11101,9 +11259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B172" s="11">
         <v>45324</v>
@@ -11165,9 +11323,9 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B173" s="11">
         <v>45324</v>
@@ -11229,9 +11387,9 @@
         <v>56.31</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B174" s="11">
         <v>45324</v>
@@ -11281,9 +11439,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B175" s="11">
         <v>45324</v>
@@ -11345,9 +11503,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B176" s="11">
         <v>45324</v>
@@ -11399,9 +11557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B177" s="11">
         <v>45324</v>
@@ -11451,9 +11609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B178" s="11">
         <v>45324</v>
@@ -11510,9 +11668,9 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B179" s="11">
         <v>45324</v>
@@ -11571,7 +11729,10 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
       <c r="B180" s="11">
         <v>45325</v>
       </c>
@@ -11609,7 +11770,7 @@
       <c r="X180" s="39"/>
       <c r="Y180" s="45"/>
       <c r="Z180" s="37">
-        <f t="shared" ref="Z180" si="1">R180+V180</f>
+        <f t="shared" ref="Z180:Z196" si="1">R180+V180</f>
         <v>11.700000000000003</v>
       </c>
       <c r="AA180" s="44"/>
@@ -11632,8 +11793,3243 @@
         <v>11.700000000000003</v>
       </c>
     </row>
+    <row r="181" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C181" t="s">
+        <v>111</v>
+      </c>
+      <c r="D181" t="s">
+        <v>117</v>
+      </c>
+      <c r="E181" t="s">
+        <v>80</v>
+      </c>
+      <c r="F181" t="s">
+        <v>83</v>
+      </c>
+      <c r="I181" t="s">
+        <v>96</v>
+      </c>
+      <c r="O181" s="44">
+        <v>0</v>
+      </c>
+      <c r="P181" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="36">
+        <v>0</v>
+      </c>
+      <c r="R181" s="37">
+        <v>0</v>
+      </c>
+      <c r="S181" s="44"/>
+      <c r="T181" s="39"/>
+      <c r="U181" s="36"/>
+      <c r="V181" s="40"/>
+      <c r="W181" s="44">
+        <f t="shared" ref="W181:Y196" si="2">O181+S181</f>
+        <v>0</v>
+      </c>
+      <c r="X181" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y181" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z181" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA181" s="44"/>
+      <c r="AB181" s="39"/>
+      <c r="AC181" s="46"/>
+      <c r="AD181" s="40"/>
+      <c r="AE181">
+        <v>0</v>
+      </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
+      <c r="AH181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C182" t="s">
+        <v>111</v>
+      </c>
+      <c r="D182" t="s">
+        <v>117</v>
+      </c>
+      <c r="E182">
+        <v>8906</v>
+      </c>
+      <c r="F182" t="s">
+        <v>84</v>
+      </c>
+      <c r="I182" t="s">
+        <v>97</v>
+      </c>
+      <c r="O182" s="44">
+        <v>0</v>
+      </c>
+      <c r="P182" s="36">
+        <v>243</v>
+      </c>
+      <c r="Q182" s="36">
+        <v>0</v>
+      </c>
+      <c r="R182" s="37">
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="S182" s="44"/>
+      <c r="T182" s="39">
+        <v>24</v>
+      </c>
+      <c r="U182" s="36"/>
+      <c r="V182" s="40">
+        <v>0.72</v>
+      </c>
+      <c r="W182" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X182" s="39">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="Y182" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z182" s="37">
+        <f t="shared" si="1"/>
+        <v>8.01</v>
+      </c>
+      <c r="AA182" s="44"/>
+      <c r="AB182" s="39"/>
+      <c r="AC182" s="46"/>
+      <c r="AD182" s="40"/>
+      <c r="AE182">
+        <v>0</v>
+      </c>
+      <c r="AF182">
+        <v>267</v>
+      </c>
+      <c r="AG182">
+        <v>0</v>
+      </c>
+      <c r="AH182">
+        <v>8.01</v>
+      </c>
+      <c r="AI182">
+        <v>3.82</v>
+      </c>
+      <c r="AJ182">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C183" t="s">
+        <v>111</v>
+      </c>
+      <c r="D183" t="s">
+        <v>117</v>
+      </c>
+      <c r="E183">
+        <v>7091</v>
+      </c>
+      <c r="F183" t="s">
+        <v>85</v>
+      </c>
+      <c r="I183" t="s">
+        <v>98</v>
+      </c>
+      <c r="O183" s="44">
+        <v>0</v>
+      </c>
+      <c r="P183" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="36">
+        <v>0</v>
+      </c>
+      <c r="R183" s="37">
+        <v>0</v>
+      </c>
+      <c r="S183" s="44"/>
+      <c r="T183" s="39"/>
+      <c r="U183" s="36"/>
+      <c r="V183" s="40"/>
+      <c r="W183" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X183" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y183" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z183" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA183" s="44"/>
+      <c r="AB183" s="39"/>
+      <c r="AC183" s="46"/>
+      <c r="AD183" s="40"/>
+      <c r="AE183">
+        <v>0</v>
+      </c>
+      <c r="AF183">
+        <v>0</v>
+      </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C184" t="s">
+        <v>111</v>
+      </c>
+      <c r="D184" t="s">
+        <v>117</v>
+      </c>
+      <c r="E184">
+        <v>8863</v>
+      </c>
+      <c r="F184" t="s">
+        <v>86</v>
+      </c>
+      <c r="I184" t="s">
+        <v>99</v>
+      </c>
+      <c r="O184" s="44">
+        <v>0</v>
+      </c>
+      <c r="P184" s="36">
+        <v>537</v>
+      </c>
+      <c r="Q184" s="36">
+        <v>0</v>
+      </c>
+      <c r="R184" s="37">
+        <v>28.680000000000007</v>
+      </c>
+      <c r="S184" s="44"/>
+      <c r="T184" s="39">
+        <v>23</v>
+      </c>
+      <c r="U184" s="36"/>
+      <c r="V184" s="40">
+        <v>1.32</v>
+      </c>
+      <c r="W184" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X184" s="39">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="Y184" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z184" s="37">
+        <f t="shared" si="1"/>
+        <v>30.000000000000007</v>
+      </c>
+      <c r="AA184" s="44"/>
+      <c r="AB184" s="39"/>
+      <c r="AC184" s="46"/>
+      <c r="AD184" s="40"/>
+      <c r="AE184">
+        <v>0</v>
+      </c>
+      <c r="AF184">
+        <v>560</v>
+      </c>
+      <c r="AG184">
+        <v>0</v>
+      </c>
+      <c r="AH184">
+        <v>30.000000000000007</v>
+      </c>
+      <c r="AJ184">
+        <v>30.000000000000007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C185" t="s">
+        <v>111</v>
+      </c>
+      <c r="D185" t="s">
+        <v>117</v>
+      </c>
+      <c r="E185">
+        <v>8868</v>
+      </c>
+      <c r="F185" t="s">
+        <v>86</v>
+      </c>
+      <c r="I185" t="s">
+        <v>99</v>
+      </c>
+      <c r="O185" s="44">
+        <v>0</v>
+      </c>
+      <c r="P185" s="36">
+        <v>47</v>
+      </c>
+      <c r="Q185" s="36">
+        <v>0</v>
+      </c>
+      <c r="R185" s="37">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="S185" s="44"/>
+      <c r="T185" s="39">
+        <v>33</v>
+      </c>
+      <c r="U185" s="36"/>
+      <c r="V185" s="40">
+        <v>1.76</v>
+      </c>
+      <c r="W185" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X185" s="39">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y185" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z185" s="37">
+        <f t="shared" si="1"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AA185" s="44"/>
+      <c r="AB185" s="39"/>
+      <c r="AC185" s="46"/>
+      <c r="AD185" s="40"/>
+      <c r="AE185">
+        <v>0</v>
+      </c>
+      <c r="AF185">
+        <v>80</v>
+      </c>
+      <c r="AG185">
+        <v>0</v>
+      </c>
+      <c r="AH185">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AI185">
+        <v>8.5879999999999992</v>
+      </c>
+      <c r="AJ185">
+        <v>12.857999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C186" t="s">
+        <v>111</v>
+      </c>
+      <c r="D186" t="s">
+        <v>117</v>
+      </c>
+      <c r="E186" t="s">
+        <v>81</v>
+      </c>
+      <c r="F186" t="s">
+        <v>87</v>
+      </c>
+      <c r="I186" t="s">
+        <v>100</v>
+      </c>
+      <c r="O186" s="44">
+        <v>1</v>
+      </c>
+      <c r="P186" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="36">
+        <v>0</v>
+      </c>
+      <c r="R186" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="S186" s="44"/>
+      <c r="T186" s="39"/>
+      <c r="U186" s="36"/>
+      <c r="V186" s="40"/>
+      <c r="W186" s="44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X186" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y186" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z186" s="37">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA186" s="44"/>
+      <c r="AB186" s="39"/>
+      <c r="AC186" s="46"/>
+      <c r="AD186" s="40"/>
+      <c r="AE186">
+        <v>1</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>0</v>
+      </c>
+      <c r="AH186">
+        <v>1.2</v>
+      </c>
+      <c r="AJ186">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C187" t="s">
+        <v>111</v>
+      </c>
+      <c r="D187" t="s">
+        <v>117</v>
+      </c>
+      <c r="E187" t="s">
+        <v>81</v>
+      </c>
+      <c r="F187" t="s">
+        <v>87</v>
+      </c>
+      <c r="I187" t="s">
+        <v>101</v>
+      </c>
+      <c r="O187" s="44">
+        <v>0</v>
+      </c>
+      <c r="P187" s="36">
+        <v>93</v>
+      </c>
+      <c r="Q187" s="36">
+        <v>0</v>
+      </c>
+      <c r="R187" s="37">
+        <v>4</v>
+      </c>
+      <c r="S187" s="44"/>
+      <c r="T187" s="39"/>
+      <c r="U187" s="36"/>
+      <c r="V187" s="40"/>
+      <c r="W187" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X187" s="39">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="Y187" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z187" s="37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA187" s="44"/>
+      <c r="AB187" s="39"/>
+      <c r="AC187" s="46"/>
+      <c r="AD187" s="40"/>
+      <c r="AE187">
+        <v>0</v>
+      </c>
+      <c r="AF187">
+        <v>93</v>
+      </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>4</v>
+      </c>
+      <c r="AJ187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C188" t="s">
+        <v>111</v>
+      </c>
+      <c r="D188" t="s">
+        <v>117</v>
+      </c>
+      <c r="E188" t="s">
+        <v>80</v>
+      </c>
+      <c r="F188" t="s">
+        <v>83</v>
+      </c>
+      <c r="I188" t="s">
+        <v>102</v>
+      </c>
+      <c r="O188" s="44">
+        <v>0</v>
+      </c>
+      <c r="P188" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="36">
+        <v>0</v>
+      </c>
+      <c r="R188" s="37">
+        <v>0</v>
+      </c>
+      <c r="S188" s="44"/>
+      <c r="T188" s="39">
+        <v>18</v>
+      </c>
+      <c r="U188" s="36"/>
+      <c r="V188" s="40">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="W188" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X188" s="39">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Y188" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z188" s="37">
+        <f t="shared" si="1"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AA188" s="44"/>
+      <c r="AB188" s="39">
+        <v>18</v>
+      </c>
+      <c r="AC188" s="46"/>
+      <c r="AD188" s="40">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AE188">
+        <v>0</v>
+      </c>
+      <c r="AF188">
+        <v>0</v>
+      </c>
+      <c r="AG188">
+        <v>0</v>
+      </c>
+      <c r="AH188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C189" t="s">
+        <v>111</v>
+      </c>
+      <c r="D189" t="s">
+        <v>117</v>
+      </c>
+      <c r="E189">
+        <v>8903</v>
+      </c>
+      <c r="F189" t="s">
+        <v>88</v>
+      </c>
+      <c r="I189" t="s">
+        <v>103</v>
+      </c>
+      <c r="O189" s="44">
+        <v>0</v>
+      </c>
+      <c r="P189" s="36">
+        <v>808</v>
+      </c>
+      <c r="Q189" s="36">
+        <v>0</v>
+      </c>
+      <c r="R189" s="37">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="S189" s="44"/>
+      <c r="T189" s="39"/>
+      <c r="U189" s="36"/>
+      <c r="V189" s="40"/>
+      <c r="W189" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X189" s="39">
+        <f t="shared" si="2"/>
+        <v>808</v>
+      </c>
+      <c r="Y189" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z189" s="37">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AA189" s="44"/>
+      <c r="AB189" s="39"/>
+      <c r="AC189" s="46"/>
+      <c r="AD189" s="40"/>
+      <c r="AE189">
+        <v>0</v>
+      </c>
+      <c r="AF189">
+        <v>808</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AJ189">
+        <v>29.999999999999996</v>
+      </c>
+    </row>
+    <row r="190" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C190" t="s">
+        <v>111</v>
+      </c>
+      <c r="D190" t="s">
+        <v>117</v>
+      </c>
+      <c r="E190">
+        <v>8758</v>
+      </c>
+      <c r="F190" t="s">
+        <v>89</v>
+      </c>
+      <c r="I190" t="s">
+        <v>103</v>
+      </c>
+      <c r="O190" s="44">
+        <v>20</v>
+      </c>
+      <c r="P190" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="36">
+        <v>0</v>
+      </c>
+      <c r="R190" s="37">
+        <v>26</v>
+      </c>
+      <c r="S190" s="44">
+        <v>9</v>
+      </c>
+      <c r="T190" s="39"/>
+      <c r="U190" s="36"/>
+      <c r="V190" s="40">
+        <v>11.7</v>
+      </c>
+      <c r="W190" s="44">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="X190" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y190" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z190" s="37">
+        <f t="shared" si="1"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA190" s="44"/>
+      <c r="AB190" s="39"/>
+      <c r="AC190" s="46"/>
+      <c r="AD190" s="40"/>
+      <c r="AE190">
+        <v>29</v>
+      </c>
+      <c r="AF190">
+        <v>0</v>
+      </c>
+      <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AI190">
+        <v>18.61</v>
+      </c>
+      <c r="AJ190">
+        <v>56.31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C191" t="s">
+        <v>111</v>
+      </c>
+      <c r="D191" t="s">
+        <v>117</v>
+      </c>
+      <c r="F191" t="s">
+        <v>90</v>
+      </c>
+      <c r="I191" t="s">
+        <v>104</v>
+      </c>
+      <c r="O191" s="44">
+        <v>0</v>
+      </c>
+      <c r="P191" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="36">
+        <v>0</v>
+      </c>
+      <c r="R191" s="38">
+        <v>0</v>
+      </c>
+      <c r="S191" s="44"/>
+      <c r="T191" s="39"/>
+      <c r="U191" s="36"/>
+      <c r="V191" s="41"/>
+      <c r="W191" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X191" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y191" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z191" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA191" s="44"/>
+      <c r="AB191" s="39"/>
+      <c r="AC191" s="46"/>
+      <c r="AD191" s="40"/>
+      <c r="AE191">
+        <v>0</v>
+      </c>
+      <c r="AF191">
+        <v>0</v>
+      </c>
+      <c r="AG191">
+        <v>0</v>
+      </c>
+      <c r="AH191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C192" t="s">
+        <v>111</v>
+      </c>
+      <c r="D192" t="s">
+        <v>117</v>
+      </c>
+      <c r="E192" t="s">
+        <v>82</v>
+      </c>
+      <c r="F192" t="s">
+        <v>91</v>
+      </c>
+      <c r="I192" t="s">
+        <v>105</v>
+      </c>
+      <c r="O192" s="44">
+        <v>0</v>
+      </c>
+      <c r="P192" s="36">
+        <v>336</v>
+      </c>
+      <c r="Q192" s="36">
+        <v>0</v>
+      </c>
+      <c r="R192" s="38">
+        <v>18</v>
+      </c>
+      <c r="S192" s="44"/>
+      <c r="T192" s="39"/>
+      <c r="U192" s="36"/>
+      <c r="V192" s="41"/>
+      <c r="W192" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X192" s="39">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="Y192" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z192" s="37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AA192" s="44"/>
+      <c r="AB192" s="39"/>
+      <c r="AC192" s="46"/>
+      <c r="AD192" s="40"/>
+      <c r="AE192">
+        <v>0</v>
+      </c>
+      <c r="AF192">
+        <v>336</v>
+      </c>
+      <c r="AG192">
+        <v>0</v>
+      </c>
+      <c r="AH192">
+        <v>18</v>
+      </c>
+      <c r="AJ192">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C193" t="s">
+        <v>111</v>
+      </c>
+      <c r="D193" t="s">
+        <v>117</v>
+      </c>
+      <c r="E193">
+        <v>8922</v>
+      </c>
+      <c r="F193" t="s">
+        <v>92</v>
+      </c>
+      <c r="I193" t="s">
+        <v>106</v>
+      </c>
+      <c r="O193" s="44">
+        <v>0</v>
+      </c>
+      <c r="P193" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="36">
+        <v>0</v>
+      </c>
+      <c r="R193" s="38">
+        <v>0</v>
+      </c>
+      <c r="S193" s="44"/>
+      <c r="T193" s="39"/>
+      <c r="U193" s="36"/>
+      <c r="V193" s="41"/>
+      <c r="W193" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X193" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y193" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z193" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA193" s="44"/>
+      <c r="AB193" s="39"/>
+      <c r="AC193" s="46"/>
+      <c r="AD193" s="40"/>
+      <c r="AE193">
+        <v>0</v>
+      </c>
+      <c r="AF193">
+        <v>0</v>
+      </c>
+      <c r="AG193">
+        <v>0</v>
+      </c>
+      <c r="AH193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C194" t="s">
+        <v>111</v>
+      </c>
+      <c r="D194" t="s">
+        <v>117</v>
+      </c>
+      <c r="F194" t="s">
+        <v>93</v>
+      </c>
+      <c r="I194" t="s">
+        <v>107</v>
+      </c>
+      <c r="O194" s="44">
+        <v>0</v>
+      </c>
+      <c r="P194" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="36">
+        <v>0</v>
+      </c>
+      <c r="R194" s="38">
+        <v>0</v>
+      </c>
+      <c r="S194" s="44"/>
+      <c r="T194" s="39"/>
+      <c r="U194" s="36"/>
+      <c r="V194" s="41"/>
+      <c r="W194" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X194" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y194" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z194" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA194" s="44"/>
+      <c r="AB194" s="39"/>
+      <c r="AC194" s="46"/>
+      <c r="AD194" s="40"/>
+      <c r="AE194">
+        <v>0</v>
+      </c>
+      <c r="AF194">
+        <v>0</v>
+      </c>
+      <c r="AG194">
+        <v>0</v>
+      </c>
+      <c r="AH194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C195" t="s">
+        <v>111</v>
+      </c>
+      <c r="D195" t="s">
+        <v>117</v>
+      </c>
+      <c r="E195">
+        <v>8923</v>
+      </c>
+      <c r="F195" t="s">
+        <v>94</v>
+      </c>
+      <c r="I195" t="s">
+        <v>108</v>
+      </c>
+      <c r="O195" s="44">
+        <v>3</v>
+      </c>
+      <c r="P195" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="36">
+        <v>0</v>
+      </c>
+      <c r="R195" s="38">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="S195" s="44"/>
+      <c r="T195" s="39"/>
+      <c r="U195" s="42"/>
+      <c r="V195" s="43"/>
+      <c r="W195" s="44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X195" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y195" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z195" s="37">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AA195" s="44"/>
+      <c r="AB195" s="39"/>
+      <c r="AC195" s="42"/>
+      <c r="AD195" s="43"/>
+      <c r="AE195">
+        <v>3</v>
+      </c>
+      <c r="AF195">
+        <v>0</v>
+      </c>
+      <c r="AG195">
+        <v>0</v>
+      </c>
+      <c r="AH195">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AJ195">
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C196" t="s">
+        <v>111</v>
+      </c>
+      <c r="D196" t="s">
+        <v>117</v>
+      </c>
+      <c r="E196">
+        <v>8924</v>
+      </c>
+      <c r="F196" t="s">
+        <v>95</v>
+      </c>
+      <c r="I196" t="s">
+        <v>109</v>
+      </c>
+      <c r="O196" s="44">
+        <v>8</v>
+      </c>
+      <c r="P196" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="36">
+        <v>0</v>
+      </c>
+      <c r="R196" s="38">
+        <v>10.400000000000002</v>
+      </c>
+      <c r="S196" s="44">
+        <v>1</v>
+      </c>
+      <c r="T196" s="39"/>
+      <c r="U196" s="42"/>
+      <c r="V196" s="43">
+        <v>1.3</v>
+      </c>
+      <c r="W196" s="44">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X196" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y196" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z196" s="37">
+        <f t="shared" si="1"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="AA196" s="44"/>
+      <c r="AB196" s="39"/>
+      <c r="AC196" s="42"/>
+      <c r="AD196" s="43"/>
+      <c r="AE196">
+        <v>9</v>
+      </c>
+      <c r="AF196">
+        <v>0</v>
+      </c>
+      <c r="AG196">
+        <v>0</v>
+      </c>
+      <c r="AH196">
+        <v>11.700000000000003</v>
+      </c>
+      <c r="AJ196">
+        <v>11.700000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C197" t="s">
+        <v>111</v>
+      </c>
+      <c r="D197" t="s">
+        <v>155</v>
+      </c>
+      <c r="E197">
+        <v>8898</v>
+      </c>
+      <c r="F197" t="s">
+        <v>118</v>
+      </c>
+      <c r="I197" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AE197" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF197" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG197" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH197" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI197" s="47">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="AJ197" s="47">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D198" t="s">
+        <v>155</v>
+      </c>
+      <c r="E198" t="s">
+        <v>80</v>
+      </c>
+      <c r="F198" t="s">
+        <v>83</v>
+      </c>
+      <c r="I198" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>105</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T198">
+        <v>3</v>
+      </c>
+      <c r="V198">
+        <v>0.18</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>108</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="AB198">
+        <v>108</v>
+      </c>
+      <c r="AD198">
+        <v>4.28</v>
+      </c>
+      <c r="AE198" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF198" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG198" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH198" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI198" s="47"/>
+      <c r="AJ198" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C199" t="s">
+        <v>111</v>
+      </c>
+      <c r="D199" t="s">
+        <v>155</v>
+      </c>
+      <c r="E199">
+        <v>8864</v>
+      </c>
+      <c r="F199" t="s">
+        <v>86</v>
+      </c>
+      <c r="I199" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>280</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>15</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>280</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>15</v>
+      </c>
+      <c r="AE199" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF199" s="51">
+        <v>280</v>
+      </c>
+      <c r="AG199" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH199" s="37">
+        <v>15</v>
+      </c>
+      <c r="AI199" s="47"/>
+      <c r="AJ199" s="47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C200" t="s">
+        <v>111</v>
+      </c>
+      <c r="D200" t="s">
+        <v>155</v>
+      </c>
+      <c r="E200">
+        <v>8864</v>
+      </c>
+      <c r="F200" t="s">
+        <v>86</v>
+      </c>
+      <c r="I200" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>191</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>10.190000000000001</v>
+      </c>
+      <c r="T200">
+        <v>15</v>
+      </c>
+      <c r="V200">
+        <v>0.8</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>206</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>10.990000000000002</v>
+      </c>
+      <c r="AE200" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF200" s="51">
+        <v>206</v>
+      </c>
+      <c r="AG200" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH200" s="37">
+        <v>10.990000000000002</v>
+      </c>
+      <c r="AI200" s="47">
+        <v>4.01</v>
+      </c>
+      <c r="AJ200" s="47">
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C201" t="s">
+        <v>111</v>
+      </c>
+      <c r="D201" t="s">
+        <v>155</v>
+      </c>
+      <c r="E201">
+        <v>8864</v>
+      </c>
+      <c r="F201" t="s">
+        <v>86</v>
+      </c>
+      <c r="I201" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AE201" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF201" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG201" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH201" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI201" s="47">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="AJ201" s="47">
+        <v>1.5249999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C202" t="s">
+        <v>111</v>
+      </c>
+      <c r="D202" t="s">
+        <v>155</v>
+      </c>
+      <c r="E202">
+        <v>8847</v>
+      </c>
+      <c r="F202" t="s">
+        <v>119</v>
+      </c>
+      <c r="I202" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>27</v>
+      </c>
+      <c r="R202">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="U202">
+        <v>20</v>
+      </c>
+      <c r="V202">
+        <v>0.24</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>47</v>
+      </c>
+      <c r="Z202">
+        <v>0.56400000000000006</v>
+      </c>
+      <c r="AE202" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF202" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG202" s="52">
+        <v>47</v>
+      </c>
+      <c r="AH202" s="37">
+        <v>0.56400000000000006</v>
+      </c>
+      <c r="AI202" s="47">
+        <v>3.3959999999999999</v>
+      </c>
+      <c r="AJ202" s="47">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C203" t="s">
+        <v>111</v>
+      </c>
+      <c r="D203" t="s">
+        <v>155</v>
+      </c>
+      <c r="E203">
+        <v>8847</v>
+      </c>
+      <c r="F203" t="s">
+        <v>119</v>
+      </c>
+      <c r="I203" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AE203" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF203" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG203" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH203" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI203" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="AJ203" s="47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C204" t="s">
+        <v>111</v>
+      </c>
+      <c r="D204" t="s">
+        <v>155</v>
+      </c>
+      <c r="E204">
+        <v>8847</v>
+      </c>
+      <c r="F204" t="s">
+        <v>119</v>
+      </c>
+      <c r="I204" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AE204" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF204" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG204" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH204" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI204" s="47">
+        <v>0.48</v>
+      </c>
+      <c r="AJ204" s="47">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C205" t="s">
+        <v>111</v>
+      </c>
+      <c r="D205" t="s">
+        <v>155</v>
+      </c>
+      <c r="E205" t="s">
+        <v>120</v>
+      </c>
+      <c r="F205" t="s">
+        <v>121</v>
+      </c>
+      <c r="I205" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>260</v>
+      </c>
+      <c r="R205">
+        <v>4.16</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>260</v>
+      </c>
+      <c r="Z205">
+        <v>4.16</v>
+      </c>
+      <c r="AE205" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG205" s="52">
+        <v>260</v>
+      </c>
+      <c r="AH205" s="37">
+        <v>4.16</v>
+      </c>
+      <c r="AI205" s="47"/>
+      <c r="AJ205" s="47">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D206" t="s">
+        <v>155</v>
+      </c>
+      <c r="E206" t="s">
+        <v>120</v>
+      </c>
+      <c r="F206" t="s">
+        <v>121</v>
+      </c>
+      <c r="I206" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>56</v>
+      </c>
+      <c r="R206">
+        <v>1.008</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>56</v>
+      </c>
+      <c r="Z206">
+        <v>1.008</v>
+      </c>
+      <c r="AE206" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG206" s="52">
+        <v>56</v>
+      </c>
+      <c r="AH206" s="37">
+        <v>1.008</v>
+      </c>
+      <c r="AI206" s="47"/>
+      <c r="AJ206" s="47">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C207" t="s">
+        <v>111</v>
+      </c>
+      <c r="D207" t="s">
+        <v>155</v>
+      </c>
+      <c r="E207" t="s">
+        <v>120</v>
+      </c>
+      <c r="F207" t="s">
+        <v>121</v>
+      </c>
+      <c r="I207" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>19</v>
+      </c>
+      <c r="R207">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="U207">
+        <v>17</v>
+      </c>
+      <c r="V207">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>36</v>
+      </c>
+      <c r="Z207">
+        <v>0.84200000000000008</v>
+      </c>
+      <c r="AE207" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG207" s="52">
+        <v>36</v>
+      </c>
+      <c r="AH207" s="37">
+        <v>0.84200000000000008</v>
+      </c>
+      <c r="AI207" s="47"/>
+      <c r="AJ207" s="47">
+        <v>0.84200000000000008</v>
+      </c>
+    </row>
+    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C208" t="s">
+        <v>111</v>
+      </c>
+      <c r="D208" t="s">
+        <v>155</v>
+      </c>
+      <c r="E208" t="s">
+        <v>120</v>
+      </c>
+      <c r="F208" t="s">
+        <v>121</v>
+      </c>
+      <c r="I208" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>83</v>
+      </c>
+      <c r="R208">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>83</v>
+      </c>
+      <c r="Z208">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="AE208" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG208" s="52">
+        <v>83</v>
+      </c>
+      <c r="AH208" s="53">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="AI208" s="47"/>
+      <c r="AJ208" s="54">
+        <v>1.6533600000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C209" t="s">
+        <v>111</v>
+      </c>
+      <c r="D209" t="s">
+        <v>155</v>
+      </c>
+      <c r="F209" t="s">
+        <v>122</v>
+      </c>
+      <c r="I209" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>25</v>
+      </c>
+      <c r="R209">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>25</v>
+      </c>
+      <c r="Z209">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AE209" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG209" s="52">
+        <v>25</v>
+      </c>
+      <c r="AH209" s="37">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AI209" s="47">
+        <v>0.223</v>
+      </c>
+      <c r="AJ209" s="47">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C210" t="s">
+        <v>111</v>
+      </c>
+      <c r="D210" t="s">
+        <v>155</v>
+      </c>
+      <c r="E210" t="s">
+        <v>123</v>
+      </c>
+      <c r="F210" t="s">
+        <v>83</v>
+      </c>
+      <c r="I210" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>20</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>0.72299999999999986</v>
+      </c>
+      <c r="T210">
+        <v>14</v>
+      </c>
+      <c r="V210">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>34</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>1.3049999999999997</v>
+      </c>
+      <c r="AB210">
+        <v>34</v>
+      </c>
+      <c r="AD210">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="AE210" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG210" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH210" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI210" s="47"/>
+      <c r="AJ210" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C211" t="s">
+        <v>111</v>
+      </c>
+      <c r="D211" t="s">
+        <v>155</v>
+      </c>
+      <c r="E211">
+        <v>8824</v>
+      </c>
+      <c r="F211" t="s">
+        <v>124</v>
+      </c>
+      <c r="I211" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="O211">
+        <v>24</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>31.199999999999996</v>
+      </c>
+      <c r="S211">
+        <v>3</v>
+      </c>
+      <c r="V211">
+        <v>3.9</v>
+      </c>
+      <c r="W211">
+        <v>27</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>35.099999999999994</v>
+      </c>
+      <c r="AE211" s="44">
+        <v>27</v>
+      </c>
+      <c r="AF211" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG211" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH211" s="37">
+        <v>35.099999999999994</v>
+      </c>
+      <c r="AI211" s="47">
+        <v>13.55</v>
+      </c>
+      <c r="AJ211" s="47">
+        <v>48.649999999999991</v>
+      </c>
+    </row>
+    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C212" t="s">
+        <v>111</v>
+      </c>
+      <c r="D212" t="s">
+        <v>155</v>
+      </c>
+      <c r="E212">
+        <v>8925</v>
+      </c>
+      <c r="F212" t="s">
+        <v>125</v>
+      </c>
+      <c r="I212" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>808</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>808</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="AE212" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF212" s="51">
+        <v>808</v>
+      </c>
+      <c r="AG212" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH212" s="37">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="AI212" s="47"/>
+      <c r="AJ212" s="47">
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C213" t="s">
+        <v>111</v>
+      </c>
+      <c r="D213" t="s">
+        <v>155</v>
+      </c>
+      <c r="E213">
+        <v>8943</v>
+      </c>
+      <c r="F213" t="s">
+        <v>126</v>
+      </c>
+      <c r="I213" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="O213">
+        <v>19</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>24.7</v>
+      </c>
+      <c r="S213">
+        <v>1</v>
+      </c>
+      <c r="V213">
+        <v>1.3</v>
+      </c>
+      <c r="W213">
+        <v>20</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>26</v>
+      </c>
+      <c r="AE213" s="44">
+        <v>20</v>
+      </c>
+      <c r="AF213" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG213" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH213" s="37">
+        <v>26</v>
+      </c>
+      <c r="AI213" s="47"/>
+      <c r="AJ213" s="47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C214" t="s">
+        <v>111</v>
+      </c>
+      <c r="D214" t="s">
+        <v>155</v>
+      </c>
+      <c r="E214">
+        <v>8904</v>
+      </c>
+      <c r="F214" t="s">
+        <v>127</v>
+      </c>
+      <c r="I214" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AE214" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF214" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG214" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH214" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI214" s="47"/>
+      <c r="AJ214" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C215" t="s">
+        <v>111</v>
+      </c>
+      <c r="D215" t="s">
+        <v>155</v>
+      </c>
+      <c r="I215" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF215" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG215" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH215" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI215" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ215" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C216" t="s">
+        <v>111</v>
+      </c>
+      <c r="D216" t="s">
+        <v>155</v>
+      </c>
+      <c r="E216">
+        <v>8824</v>
+      </c>
+      <c r="F216" t="s">
+        <v>124</v>
+      </c>
+      <c r="I216" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="O216">
+        <v>6</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>7.7999999999999945</v>
+      </c>
+      <c r="S216">
+        <v>6</v>
+      </c>
+      <c r="V216">
+        <v>7.8</v>
+      </c>
+      <c r="W216">
+        <v>12</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>15.599999999999994</v>
+      </c>
+      <c r="AE216" s="44">
+        <v>12</v>
+      </c>
+      <c r="AF216" s="39">
+        <v>0</v>
+      </c>
+      <c r="AG216" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH216" s="37">
+        <v>15.599999999999994</v>
+      </c>
+      <c r="AI216" s="47">
+        <v>10.4</v>
+      </c>
+      <c r="AJ216" s="47">
+        <v>25.999999999999993</v>
+      </c>
+    </row>
+    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C217" t="s">
+        <v>111</v>
+      </c>
+      <c r="D217" t="s">
+        <v>155</v>
+      </c>
+      <c r="E217">
+        <v>8968</v>
+      </c>
+      <c r="F217" t="s">
+        <v>128</v>
+      </c>
+      <c r="I217" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AE217" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF217" s="39">
+        <v>0</v>
+      </c>
+      <c r="AG217" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH217" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI217" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="AJ217" s="47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C218" t="s">
+        <v>111</v>
+      </c>
+      <c r="D218" t="s">
+        <v>155</v>
+      </c>
+      <c r="E218">
+        <v>8903</v>
+      </c>
+      <c r="F218" t="s">
+        <v>88</v>
+      </c>
+      <c r="I218" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>404</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>15</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>404</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>15</v>
+      </c>
+      <c r="AE218" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF218" s="39">
+        <v>404</v>
+      </c>
+      <c r="AG218" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH218" s="37">
+        <v>15</v>
+      </c>
+      <c r="AI218" s="47"/>
+      <c r="AJ218" s="47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C219" t="s">
+        <v>111</v>
+      </c>
+      <c r="D219" t="s">
+        <v>155</v>
+      </c>
+      <c r="E219">
+        <v>8948</v>
+      </c>
+      <c r="F219" t="s">
+        <v>129</v>
+      </c>
+      <c r="I219" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>238</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>8.92</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>238</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>8.92</v>
+      </c>
+      <c r="AE219" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF219" s="39">
+        <v>238</v>
+      </c>
+      <c r="AG219" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH219" s="37">
+        <v>8.92</v>
+      </c>
+      <c r="AI219" s="47"/>
+      <c r="AJ219" s="47">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C220" t="s">
+        <v>111</v>
+      </c>
+      <c r="D220" t="s">
+        <v>155</v>
+      </c>
+      <c r="E220">
+        <v>8708</v>
+      </c>
+      <c r="F220" t="s">
+        <v>130</v>
+      </c>
+      <c r="I220" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>400</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>15.000000000000007</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>400</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>15.000000000000007</v>
+      </c>
+      <c r="AE220" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF220" s="39">
+        <v>400</v>
+      </c>
+      <c r="AG220" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH220" s="37">
+        <v>15.000000000000007</v>
+      </c>
+      <c r="AI220" s="47"/>
+      <c r="AJ220" s="47">
+        <v>15.000000000000007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C221" t="s">
+        <v>111</v>
+      </c>
+      <c r="D221" t="s">
+        <v>155</v>
+      </c>
+      <c r="E221">
+        <v>8844</v>
+      </c>
+      <c r="F221" t="s">
+        <v>86</v>
+      </c>
+      <c r="I221" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>500</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>500</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="AE221" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF221" s="39">
+        <v>500</v>
+      </c>
+      <c r="AG221" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH221" s="37">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="AI221" s="47"/>
+      <c r="AJ221" s="48">
+        <v>25.000000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C222" t="s">
+        <v>111</v>
+      </c>
+      <c r="D222" t="s">
+        <v>155</v>
+      </c>
+      <c r="E222">
+        <v>8844</v>
+      </c>
+      <c r="F222" t="s">
+        <v>86</v>
+      </c>
+      <c r="I222" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>500</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>25</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>500</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>25</v>
+      </c>
+      <c r="AE222" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF222" s="39">
+        <v>500</v>
+      </c>
+      <c r="AG222" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH222" s="37">
+        <v>25</v>
+      </c>
+      <c r="AI222" s="47"/>
+      <c r="AJ222" s="48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C223" t="s">
+        <v>111</v>
+      </c>
+      <c r="D223" t="s">
+        <v>155</v>
+      </c>
+      <c r="E223">
+        <v>8844</v>
+      </c>
+      <c r="F223" t="s">
+        <v>86</v>
+      </c>
+      <c r="I223" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>395</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>19.75</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>395</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>19.75</v>
+      </c>
+      <c r="AE223" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF223" s="39">
+        <v>395</v>
+      </c>
+      <c r="AG223" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH223" s="37">
+        <v>19.75</v>
+      </c>
+      <c r="AI223" s="47"/>
+      <c r="AJ223" s="48">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C224" t="s">
+        <v>111</v>
+      </c>
+      <c r="D224" t="s">
+        <v>155</v>
+      </c>
+      <c r="E224">
+        <v>8842</v>
+      </c>
+      <c r="F224" t="s">
+        <v>86</v>
+      </c>
+      <c r="I224" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>434</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>23.22</v>
+      </c>
+      <c r="T224">
+        <v>111</v>
+      </c>
+      <c r="V224">
+        <v>5.95</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>545</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>29.169999999999998</v>
+      </c>
+      <c r="AE224" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF224" s="39">
+        <v>545</v>
+      </c>
+      <c r="AG224" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH224" s="37">
+        <v>29.169999999999998</v>
+      </c>
+      <c r="AI224" s="47">
+        <v>0.83</v>
+      </c>
+      <c r="AJ224" s="48">
+        <v>29.999999999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C225" t="s">
+        <v>111</v>
+      </c>
+      <c r="D225" t="s">
+        <v>155</v>
+      </c>
+      <c r="E225">
+        <v>8842</v>
+      </c>
+      <c r="F225" t="s">
+        <v>86</v>
+      </c>
+      <c r="I225" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="39">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH225" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI225" s="47">
+        <v>12.574999999999999</v>
+      </c>
+      <c r="AJ225" s="48">
+        <v>12.574999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C226" t="s">
+        <v>111</v>
+      </c>
+      <c r="D226" t="s">
+        <v>155</v>
+      </c>
+      <c r="E226">
+        <v>8938</v>
+      </c>
+      <c r="F226" t="s">
+        <v>126</v>
+      </c>
+      <c r="I226" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="O226">
+        <v>30</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>39</v>
+      </c>
+      <c r="W226">
+        <v>30</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>39</v>
+      </c>
+      <c r="AE226" s="44">
+        <v>30</v>
+      </c>
+      <c r="AF226" s="39">
+        <v>0</v>
+      </c>
+      <c r="AG226" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH226" s="37">
+        <v>39</v>
+      </c>
+      <c r="AI226" s="47"/>
+      <c r="AJ226" s="47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C227" t="s">
+        <v>111</v>
+      </c>
+      <c r="D227" t="s">
+        <v>155</v>
+      </c>
+      <c r="E227" t="s">
+        <v>80</v>
+      </c>
+      <c r="F227" t="s">
+        <v>83</v>
+      </c>
+      <c r="I227" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE227" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF227" s="39">
+        <v>0</v>
+      </c>
+      <c r="AG227" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH227" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI227" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="AJ227" s="47">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AL227" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <dateGroupItem year="2024" month="2" day="4" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B565ECD-F09D-49C3-8599-9A360411DCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857710D-BD80-45B0-BC25-75364D6C9CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -1215,12 +1215,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T187" sqref="T187"/>
+      <selection pane="bottomLeft" activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
     </row>
-    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="AK13" s="8"/>
     </row>
-    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
     </row>
-    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
     </row>
-    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
     </row>
-    <row r="17" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="AK17" s="8"/>
     </row>
-    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="AK18" s="8"/>
     </row>
-    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
     </row>
-    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
     </row>
-    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="AK21" s="8"/>
     </row>
-    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
     </row>
-    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="AK28" s="8"/>
     </row>
-    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
     </row>
-    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
     </row>
-    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
     </row>
-    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="AK33" s="8"/>
     </row>
-    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="AK34" s="8"/>
     </row>
-    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
     </row>
-    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="AK36" s="8"/>
     </row>
-    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="AK37" s="8"/>
     </row>
-    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
     </row>
-    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="AK39" s="8"/>
     </row>
-    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="AK40" s="8"/>
     </row>
-    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
     </row>
-    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
     </row>
-    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
     </row>
-    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="AK44" s="8"/>
     </row>
-    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="AK45" s="8"/>
     </row>
-    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
     </row>
-    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
     </row>
-    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="AK48" s="8"/>
     </row>
-    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4160,7 +4160,7 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
     </row>
-    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4217,7 +4217,7 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
     </row>
-    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="AK52" s="8"/>
     </row>
-    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="AK55" s="8"/>
     </row>
-    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="AJ57" s="8"/>
       <c r="AK57" s="8"/>
     </row>
-    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="AJ58" s="8"/>
       <c r="AK58" s="8"/>
     </row>
-    <row r="59" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="AJ59" s="8"/>
       <c r="AK59" s="8"/>
     </row>
-    <row r="60" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="AK60" s="8"/>
     </row>
-    <row r="61" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="AK61" s="8"/>
     </row>
-    <row r="62" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="AJ62" s="8"/>
       <c r="AK62" s="8"/>
     </row>
-    <row r="63" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="AK63" s="8"/>
     </row>
-    <row r="64" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="AK64" s="8"/>
     </row>
-    <row r="65" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="AJ65" s="8"/>
       <c r="AK65" s="8"/>
     </row>
-    <row r="66" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="AK66" s="8"/>
     </row>
-    <row r="67" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="AK67" s="8"/>
     </row>
-    <row r="68" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="AJ68" s="8"/>
       <c r="AK68" s="8"/>
     </row>
-    <row r="69" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5321,7 +5321,7 @@
       <c r="AJ69" s="8"/>
       <c r="AK69" s="8"/>
     </row>
-    <row r="70" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="AJ70" s="8"/>
       <c r="AK70" s="8"/>
     </row>
-    <row r="71" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="AK71" s="8"/>
     </row>
-    <row r="72" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="AK72" s="8"/>
     </row>
-    <row r="73" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8"/>
     </row>
-    <row r="74" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="AJ74" s="8"/>
       <c r="AK74" s="8"/>
     </row>
-    <row r="75" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="AK75" s="8"/>
     </row>
-    <row r="76" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="AJ76" s="8"/>
       <c r="AK76" s="8"/>
     </row>
-    <row r="77" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8"/>
     </row>
-    <row r="78" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="AK79" s="8"/>
     </row>
-    <row r="80" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="AK82" s="8"/>
     </row>
-    <row r="83" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="AJ84" s="8"/>
       <c r="AK84" s="8"/>
     </row>
-    <row r="85" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="8"/>
     </row>
-    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="AJ86" s="8"/>
       <c r="AK86" s="8"/>
     </row>
-    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="AK87" s="8"/>
     </row>
-    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="AK88" s="8"/>
     </row>
-    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="AJ89" s="8"/>
       <c r="AK89" s="8"/>
     </row>
-    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="AK90" s="8"/>
     </row>
-    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="AK91" s="8"/>
     </row>
-    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6658,7 +6658,7 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
     </row>
-    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="AK93" s="8"/>
     </row>
-    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="AK94" s="8"/>
     </row>
-    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
     </row>
-    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="AJ96" s="8"/>
       <c r="AK96" s="8"/>
     </row>
-    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6946,7 +6946,7 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
     </row>
-    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="AK98" s="8"/>
     </row>
-    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="AK99" s="8"/>
     </row>
-    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="AJ100" s="8"/>
       <c r="AK100" s="8"/>
     </row>
-    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="AJ101" s="8"/>
       <c r="AK101" s="8"/>
     </row>
-    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="AK102" s="8"/>
     </row>
-    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7290,7 +7290,7 @@
       <c r="AJ103" s="8"/>
       <c r="AK103" s="8"/>
     </row>
-    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="AJ104" s="8"/>
       <c r="AK104" s="8"/>
     </row>
-    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="AK106" s="8"/>
     </row>
-    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="AK109" s="8"/>
     </row>
-    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7764,7 +7764,7 @@
       <c r="AJ111" s="8"/>
       <c r="AK111" s="8"/>
     </row>
-    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
     </row>
-    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
     </row>
-    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="AK114" s="8"/>
     </row>
-    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="AK115" s="8"/>
     </row>
-    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8"/>
     </row>
-    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="AK117" s="8"/>
     </row>
-    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="AK118" s="8"/>
     </row>
-    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="AJ119" s="8"/>
       <c r="AK119" s="8"/>
     </row>
-    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="AK120" s="8"/>
     </row>
-    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8354,7 +8354,7 @@
       </c>
       <c r="AK121" s="8"/>
     </row>
-    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8401,7 +8401,7 @@
       <c r="AJ122" s="8"/>
       <c r="AK122" s="8"/>
     </row>
-    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="AJ123" s="8"/>
       <c r="AK123" s="8"/>
     </row>
-    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8511,7 +8511,7 @@
       <c r="AJ124" s="8"/>
       <c r="AK124" s="8"/>
     </row>
-    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="AK125" s="8"/>
     </row>
-    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="AK126" s="8"/>
     </row>
-    <row r="127" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="AJ127" s="8"/>
       <c r="AK127" s="8"/>
     </row>
-    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8750,7 +8750,7 @@
       <c r="AJ128" s="8"/>
       <c r="AK128" s="8"/>
     </row>
-    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="AK129" s="8"/>
     </row>
-    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="AJ130" s="8"/>
       <c r="AK130" s="8"/>
     </row>
-    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8912,7 +8912,7 @@
       <c r="AJ131" s="8"/>
       <c r="AK131" s="8"/>
     </row>
-    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="AK133" s="8"/>
     </row>
-    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="AK136" s="8"/>
     </row>
-    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9329,7 +9329,7 @@
       <c r="AJ138" s="8"/>
       <c r="AK138" s="8"/>
     </row>
-    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9376,7 +9376,7 @@
       <c r="AJ139" s="8"/>
       <c r="AK139" s="8"/>
     </row>
-    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9426,7 +9426,7 @@
       <c r="AJ140" s="8"/>
       <c r="AK140" s="8"/>
     </row>
-    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="AK141" s="8"/>
     </row>
-    <row r="142" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="AK142" s="8"/>
     </row>
-    <row r="143" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9607,7 +9607,7 @@
       <c r="AJ143" s="8"/>
       <c r="AK143" s="8"/>
     </row>
-    <row r="144" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="AK144" s="8"/>
     </row>
-    <row r="145" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="AK145" s="8"/>
     </row>
-    <row r="146" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9788,7 +9788,7 @@
       <c r="AJ146" s="8"/>
       <c r="AK146" s="8"/>
     </row>
-    <row r="147" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9856,7 +9856,7 @@
       </c>
       <c r="AK147" s="8"/>
     </row>
-    <row r="148" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="AK148" s="8"/>
     </row>
-    <row r="149" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9966,7 +9966,7 @@
       <c r="AJ149" s="8"/>
       <c r="AK149" s="8"/>
     </row>
-    <row r="150" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10016,7 +10016,7 @@
       <c r="AJ150" s="8"/>
       <c r="AK150" s="8"/>
     </row>
-    <row r="151" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10076,7 +10076,7 @@
       <c r="AJ151" s="8"/>
       <c r="AK151" s="8"/>
     </row>
-    <row r="152" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="AK152" s="8"/>
     </row>
-    <row r="153" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="AK153" s="8"/>
     </row>
-    <row r="154" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10256,7 +10256,7 @@
       <c r="AJ154" s="8"/>
       <c r="AK154" s="8"/>
     </row>
-    <row r="155" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10315,7 +10315,7 @@
       <c r="AJ155" s="8"/>
       <c r="AK155" s="8"/>
     </row>
-    <row r="156" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="AK156" s="8"/>
     </row>
-    <row r="157" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10420,7 +10420,7 @@
       <c r="AJ157" s="8"/>
       <c r="AK157" s="8"/>
     </row>
-    <row r="158" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10477,7 +10477,7 @@
       <c r="AJ158" s="8"/>
       <c r="AK158" s="8"/>
     </row>
-    <row r="159" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="160" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="AK160" s="8"/>
     </row>
-    <row r="161" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10778,7 +10778,7 @@
       </c>
       <c r="AK163" s="8"/>
     </row>
-    <row r="164" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>10.54</v>
       </c>
     </row>
-    <row r="165" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="166" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>30.000000000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>12.857999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:38" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="170" spans="1:38" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>56.31</v>
       </c>
     </row>
-    <row r="174" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="179" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>2.7440000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>0.84200000000000008</v>
       </c>
     </row>
-    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>1.6533600000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>48.649999999999991</v>
       </c>
     </row>
-    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>15.000000000000007</v>
       </c>
     </row>
-    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>12.574999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -15023,13 +15023,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL227" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2024" month="2" day="4" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AL227" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857710D-BD80-45B0-BC25-75364D6C9CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370B9A6-9D1A-436E-B0C3-9AE6626D77BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="171">
   <si>
     <t>Sl No</t>
   </si>
@@ -498,6 +498,51 @@
   </si>
   <si>
     <t>Mill No. 3</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Mill No.3</t>
+  </si>
+  <si>
+    <t>Petrapole</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Iskenda</t>
+  </si>
+  <si>
+    <t>Uzbakistan</t>
+  </si>
+  <si>
+    <t>Bandar Abbas</t>
+  </si>
+  <si>
+    <t>L/683</t>
   </si>
 </sst>
 </file>
@@ -1216,11 +1261,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL227"/>
+  <dimension ref="A1:AL307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M189" sqref="M189"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15022,6 +15067,5150 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="228" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B228" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C228" t="s">
+        <v>111</v>
+      </c>
+      <c r="D228" t="s">
+        <v>161</v>
+      </c>
+      <c r="E228" t="s">
+        <v>80</v>
+      </c>
+      <c r="F228" t="s">
+        <v>83</v>
+      </c>
+      <c r="G228" t="s">
+        <v>156</v>
+      </c>
+      <c r="H228" t="s">
+        <v>156</v>
+      </c>
+      <c r="I228" t="s">
+        <v>96</v>
+      </c>
+      <c r="O228" s="44">
+        <v>0</v>
+      </c>
+      <c r="P228" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="36">
+        <v>0</v>
+      </c>
+      <c r="R228" s="37">
+        <v>0</v>
+      </c>
+      <c r="S228" s="44"/>
+      <c r="T228" s="39"/>
+      <c r="U228" s="36"/>
+      <c r="V228" s="40"/>
+      <c r="W228" s="44">
+        <f t="shared" ref="W228:Z243" si="3">O228+S228</f>
+        <v>0</v>
+      </c>
+      <c r="X228" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y228" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z228" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA228" s="44"/>
+      <c r="AB228" s="39"/>
+      <c r="AC228" s="46"/>
+      <c r="AD228" s="40"/>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B229" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C229" t="s">
+        <v>111</v>
+      </c>
+      <c r="D229" t="s">
+        <v>155</v>
+      </c>
+      <c r="E229">
+        <v>8906</v>
+      </c>
+      <c r="F229" t="s">
+        <v>84</v>
+      </c>
+      <c r="G229" t="s">
+        <v>157</v>
+      </c>
+      <c r="I229" t="s">
+        <v>97</v>
+      </c>
+      <c r="O229" s="44">
+        <v>0</v>
+      </c>
+      <c r="P229" s="36">
+        <v>267</v>
+      </c>
+      <c r="Q229" s="36">
+        <v>0</v>
+      </c>
+      <c r="R229" s="37">
+        <v>8.01</v>
+      </c>
+      <c r="S229" s="44"/>
+      <c r="T229" s="39">
+        <v>48</v>
+      </c>
+      <c r="U229" s="36"/>
+      <c r="V229" s="40">
+        <v>1.44</v>
+      </c>
+      <c r="W229" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X229" s="39">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="Y229" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z229" s="37">
+        <f t="shared" si="3"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AA229" s="44"/>
+      <c r="AB229" s="39"/>
+      <c r="AC229" s="46"/>
+      <c r="AD229" s="40"/>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>315</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="AI229">
+        <v>2.38</v>
+      </c>
+      <c r="AJ229">
+        <v>11.829999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B230" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C230" t="s">
+        <v>111</v>
+      </c>
+      <c r="D230" t="s">
+        <v>155</v>
+      </c>
+      <c r="E230">
+        <v>7091</v>
+      </c>
+      <c r="F230" t="s">
+        <v>85</v>
+      </c>
+      <c r="G230" t="s">
+        <v>158</v>
+      </c>
+      <c r="I230" t="s">
+        <v>98</v>
+      </c>
+      <c r="O230" s="44">
+        <v>0</v>
+      </c>
+      <c r="P230" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="36">
+        <v>0</v>
+      </c>
+      <c r="R230" s="37">
+        <v>0</v>
+      </c>
+      <c r="S230" s="44"/>
+      <c r="T230" s="39"/>
+      <c r="U230" s="36"/>
+      <c r="V230" s="40"/>
+      <c r="W230" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X230" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y230" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z230" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA230" s="44"/>
+      <c r="AB230" s="39"/>
+      <c r="AC230" s="46"/>
+      <c r="AD230" s="40"/>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B231" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C231" t="s">
+        <v>111</v>
+      </c>
+      <c r="D231" t="s">
+        <v>155</v>
+      </c>
+      <c r="E231">
+        <v>8863</v>
+      </c>
+      <c r="F231" t="s">
+        <v>86</v>
+      </c>
+      <c r="G231" t="s">
+        <v>159</v>
+      </c>
+      <c r="I231" t="s">
+        <v>99</v>
+      </c>
+      <c r="O231" s="44">
+        <v>0</v>
+      </c>
+      <c r="P231" s="36">
+        <v>560</v>
+      </c>
+      <c r="Q231" s="36">
+        <v>0</v>
+      </c>
+      <c r="R231" s="37">
+        <v>30.000000000000007</v>
+      </c>
+      <c r="S231" s="44"/>
+      <c r="T231" s="39"/>
+      <c r="U231" s="36"/>
+      <c r="V231" s="40"/>
+      <c r="W231" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X231" s="39">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="Y231" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z231" s="37">
+        <f t="shared" si="3"/>
+        <v>30.000000000000007</v>
+      </c>
+      <c r="AA231" s="44"/>
+      <c r="AB231" s="39"/>
+      <c r="AC231" s="46"/>
+      <c r="AD231" s="40"/>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>560</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>30.000000000000007</v>
+      </c>
+      <c r="AJ231">
+        <v>30.000000000000007</v>
+      </c>
+    </row>
+    <row r="232" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B232" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C232" t="s">
+        <v>111</v>
+      </c>
+      <c r="D232" t="s">
+        <v>155</v>
+      </c>
+      <c r="E232">
+        <v>8868</v>
+      </c>
+      <c r="F232" t="s">
+        <v>86</v>
+      </c>
+      <c r="G232" t="s">
+        <v>159</v>
+      </c>
+      <c r="I232" t="s">
+        <v>99</v>
+      </c>
+      <c r="O232" s="44">
+        <v>0</v>
+      </c>
+      <c r="P232" s="36">
+        <v>80</v>
+      </c>
+      <c r="Q232" s="36">
+        <v>0</v>
+      </c>
+      <c r="R232" s="37">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="S232" s="44"/>
+      <c r="T232" s="39">
+        <v>72</v>
+      </c>
+      <c r="U232" s="36"/>
+      <c r="V232" s="40">
+        <v>3.85</v>
+      </c>
+      <c r="W232" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X232" s="39">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="Y232" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z232" s="37">
+        <f t="shared" si="3"/>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="AA232" s="44"/>
+      <c r="AB232" s="39"/>
+      <c r="AC232" s="46"/>
+      <c r="AD232" s="40"/>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>152</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="AI232">
+        <v>7.0380000000000003</v>
+      </c>
+      <c r="AJ232">
+        <v>15.157999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B233" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C233" t="s">
+        <v>111</v>
+      </c>
+      <c r="D233" t="s">
+        <v>155</v>
+      </c>
+      <c r="E233" t="s">
+        <v>81</v>
+      </c>
+      <c r="F233" t="s">
+        <v>87</v>
+      </c>
+      <c r="I233" t="s">
+        <v>100</v>
+      </c>
+      <c r="O233" s="44">
+        <v>1</v>
+      </c>
+      <c r="P233" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="36">
+        <v>0</v>
+      </c>
+      <c r="R233" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="S233" s="44"/>
+      <c r="T233" s="39"/>
+      <c r="U233" s="36"/>
+      <c r="V233" s="40"/>
+      <c r="W233" s="44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X233" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y233" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z233" s="37">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA233" s="44"/>
+      <c r="AB233" s="39"/>
+      <c r="AC233" s="46"/>
+      <c r="AD233" s="40"/>
+      <c r="AE233">
+        <v>1</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>1.2</v>
+      </c>
+      <c r="AJ233">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B234" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C234" t="s">
+        <v>111</v>
+      </c>
+      <c r="D234" t="s">
+        <v>155</v>
+      </c>
+      <c r="E234" t="s">
+        <v>81</v>
+      </c>
+      <c r="F234" t="s">
+        <v>87</v>
+      </c>
+      <c r="I234" t="s">
+        <v>101</v>
+      </c>
+      <c r="O234" s="44">
+        <v>0</v>
+      </c>
+      <c r="P234" s="36">
+        <v>93</v>
+      </c>
+      <c r="Q234" s="36">
+        <v>0</v>
+      </c>
+      <c r="R234" s="37">
+        <v>4</v>
+      </c>
+      <c r="S234" s="44"/>
+      <c r="T234" s="39"/>
+      <c r="U234" s="36"/>
+      <c r="V234" s="40"/>
+      <c r="W234" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X234" s="39">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="Y234" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z234" s="37">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AA234" s="44"/>
+      <c r="AB234" s="39"/>
+      <c r="AC234" s="46"/>
+      <c r="AD234" s="40"/>
+      <c r="AE234">
+        <v>0</v>
+      </c>
+      <c r="AF234">
+        <v>93</v>
+      </c>
+      <c r="AG234">
+        <v>0</v>
+      </c>
+      <c r="AH234">
+        <v>4</v>
+      </c>
+      <c r="AJ234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B235" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C235" t="s">
+        <v>111</v>
+      </c>
+      <c r="D235" t="s">
+        <v>155</v>
+      </c>
+      <c r="E235" t="s">
+        <v>80</v>
+      </c>
+      <c r="F235" t="s">
+        <v>83</v>
+      </c>
+      <c r="G235" t="s">
+        <v>156</v>
+      </c>
+      <c r="I235" t="s">
+        <v>102</v>
+      </c>
+      <c r="O235" s="44">
+        <v>0</v>
+      </c>
+      <c r="P235" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q235" s="36">
+        <v>0</v>
+      </c>
+      <c r="R235" s="37">
+        <v>0</v>
+      </c>
+      <c r="S235" s="44"/>
+      <c r="T235" s="39"/>
+      <c r="U235" s="36"/>
+      <c r="V235" s="40"/>
+      <c r="W235" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X235" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y235" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z235" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA235" s="44"/>
+      <c r="AB235" s="39"/>
+      <c r="AC235" s="46"/>
+      <c r="AD235" s="40"/>
+      <c r="AE235">
+        <v>0</v>
+      </c>
+      <c r="AF235">
+        <v>0</v>
+      </c>
+      <c r="AG235">
+        <v>0</v>
+      </c>
+      <c r="AH235">
+        <v>0</v>
+      </c>
+      <c r="AJ235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B236" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C236" t="s">
+        <v>111</v>
+      </c>
+      <c r="D236" t="s">
+        <v>155</v>
+      </c>
+      <c r="E236">
+        <v>8903</v>
+      </c>
+      <c r="F236" t="s">
+        <v>88</v>
+      </c>
+      <c r="G236" t="s">
+        <v>159</v>
+      </c>
+      <c r="I236" t="s">
+        <v>103</v>
+      </c>
+      <c r="O236" s="44">
+        <v>0</v>
+      </c>
+      <c r="P236" s="36">
+        <v>808</v>
+      </c>
+      <c r="Q236" s="36">
+        <v>0</v>
+      </c>
+      <c r="R236" s="37">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="S236" s="44"/>
+      <c r="T236" s="39"/>
+      <c r="U236" s="36"/>
+      <c r="V236" s="40"/>
+      <c r="W236" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X236" s="39">
+        <f t="shared" si="3"/>
+        <v>808</v>
+      </c>
+      <c r="Y236" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z236" s="37">
+        <f t="shared" si="3"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AA236" s="44"/>
+      <c r="AB236" s="39"/>
+      <c r="AC236" s="46"/>
+      <c r="AD236" s="40"/>
+      <c r="AE236">
+        <v>0</v>
+      </c>
+      <c r="AF236">
+        <v>808</v>
+      </c>
+      <c r="AG236">
+        <v>0</v>
+      </c>
+      <c r="AH236">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AJ236">
+        <v>29.999999999999996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B237" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C237" t="s">
+        <v>111</v>
+      </c>
+      <c r="D237" t="s">
+        <v>155</v>
+      </c>
+      <c r="E237">
+        <v>8758</v>
+      </c>
+      <c r="F237" t="s">
+        <v>89</v>
+      </c>
+      <c r="I237" t="s">
+        <v>103</v>
+      </c>
+      <c r="O237" s="44">
+        <v>29</v>
+      </c>
+      <c r="P237" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="36">
+        <v>0</v>
+      </c>
+      <c r="R237" s="37">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="S237" s="44">
+        <v>5</v>
+      </c>
+      <c r="T237" s="39"/>
+      <c r="U237" s="36"/>
+      <c r="V237" s="40">
+        <v>6.5</v>
+      </c>
+      <c r="W237" s="44">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X237" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y237" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z237" s="37">
+        <f t="shared" si="3"/>
+        <v>44.2</v>
+      </c>
+      <c r="AA237" s="44"/>
+      <c r="AB237" s="39"/>
+      <c r="AC237" s="46"/>
+      <c r="AD237" s="40"/>
+      <c r="AE237">
+        <v>34</v>
+      </c>
+      <c r="AF237">
+        <v>0</v>
+      </c>
+      <c r="AG237">
+        <v>0</v>
+      </c>
+      <c r="AH237">
+        <v>44.2</v>
+      </c>
+      <c r="AI237">
+        <v>20.81</v>
+      </c>
+      <c r="AJ237">
+        <v>65.010000000000005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B238" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C238" t="s">
+        <v>111</v>
+      </c>
+      <c r="D238" t="s">
+        <v>155</v>
+      </c>
+      <c r="F238" t="s">
+        <v>90</v>
+      </c>
+      <c r="G238" t="s">
+        <v>156</v>
+      </c>
+      <c r="I238" t="s">
+        <v>104</v>
+      </c>
+      <c r="O238" s="44">
+        <v>0</v>
+      </c>
+      <c r="P238" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q238" s="36">
+        <v>0</v>
+      </c>
+      <c r="R238" s="38">
+        <v>0</v>
+      </c>
+      <c r="S238" s="44"/>
+      <c r="T238" s="39"/>
+      <c r="U238" s="36"/>
+      <c r="V238" s="41"/>
+      <c r="W238" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X238" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y238" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z238" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA238" s="44"/>
+      <c r="AB238" s="39"/>
+      <c r="AC238" s="46"/>
+      <c r="AD238" s="40"/>
+      <c r="AE238">
+        <v>0</v>
+      </c>
+      <c r="AF238">
+        <v>0</v>
+      </c>
+      <c r="AG238">
+        <v>0</v>
+      </c>
+      <c r="AH238">
+        <v>0</v>
+      </c>
+      <c r="AJ238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B239" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C239" t="s">
+        <v>111</v>
+      </c>
+      <c r="D239" t="s">
+        <v>155</v>
+      </c>
+      <c r="E239" t="s">
+        <v>82</v>
+      </c>
+      <c r="F239" t="s">
+        <v>91</v>
+      </c>
+      <c r="G239" t="s">
+        <v>159</v>
+      </c>
+      <c r="I239" t="s">
+        <v>105</v>
+      </c>
+      <c r="O239" s="44">
+        <v>0</v>
+      </c>
+      <c r="P239" s="36">
+        <v>336</v>
+      </c>
+      <c r="Q239" s="36">
+        <v>0</v>
+      </c>
+      <c r="R239" s="38">
+        <v>18</v>
+      </c>
+      <c r="S239" s="44"/>
+      <c r="T239" s="39"/>
+      <c r="U239" s="36"/>
+      <c r="V239" s="41"/>
+      <c r="W239" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X239" s="39">
+        <f t="shared" si="3"/>
+        <v>336</v>
+      </c>
+      <c r="Y239" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z239" s="37">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AA239" s="44"/>
+      <c r="AB239" s="39"/>
+      <c r="AC239" s="46"/>
+      <c r="AD239" s="40"/>
+      <c r="AE239">
+        <v>0</v>
+      </c>
+      <c r="AF239">
+        <v>336</v>
+      </c>
+      <c r="AG239">
+        <v>0</v>
+      </c>
+      <c r="AH239">
+        <v>18</v>
+      </c>
+      <c r="AJ239">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B240" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C240" t="s">
+        <v>111</v>
+      </c>
+      <c r="D240" t="s">
+        <v>155</v>
+      </c>
+      <c r="E240">
+        <v>8922</v>
+      </c>
+      <c r="F240" t="s">
+        <v>92</v>
+      </c>
+      <c r="G240" t="s">
+        <v>160</v>
+      </c>
+      <c r="I240" t="s">
+        <v>106</v>
+      </c>
+      <c r="O240" s="44">
+        <v>0</v>
+      </c>
+      <c r="P240" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q240" s="36">
+        <v>0</v>
+      </c>
+      <c r="R240" s="38">
+        <v>0</v>
+      </c>
+      <c r="S240" s="44">
+        <v>2</v>
+      </c>
+      <c r="T240" s="39"/>
+      <c r="U240" s="36"/>
+      <c r="V240" s="41">
+        <v>2.6</v>
+      </c>
+      <c r="W240" s="44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X240" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y240" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z240" s="37">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="AA240" s="44"/>
+      <c r="AB240" s="39"/>
+      <c r="AC240" s="46"/>
+      <c r="AD240" s="40"/>
+      <c r="AE240">
+        <v>2</v>
+      </c>
+      <c r="AF240">
+        <v>0</v>
+      </c>
+      <c r="AG240">
+        <v>0</v>
+      </c>
+      <c r="AH240">
+        <v>2.6</v>
+      </c>
+      <c r="AJ240">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="241" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B241" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C241" t="s">
+        <v>111</v>
+      </c>
+      <c r="D241" t="s">
+        <v>155</v>
+      </c>
+      <c r="F241" t="s">
+        <v>93</v>
+      </c>
+      <c r="G241" t="s">
+        <v>160</v>
+      </c>
+      <c r="I241" t="s">
+        <v>107</v>
+      </c>
+      <c r="O241" s="44">
+        <v>0</v>
+      </c>
+      <c r="P241" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="36">
+        <v>0</v>
+      </c>
+      <c r="R241" s="38">
+        <v>0</v>
+      </c>
+      <c r="S241" s="44"/>
+      <c r="T241" s="39"/>
+      <c r="U241" s="36"/>
+      <c r="V241" s="41"/>
+      <c r="W241" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X241" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y241" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z241" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA241" s="44"/>
+      <c r="AB241" s="39"/>
+      <c r="AC241" s="46"/>
+      <c r="AD241" s="40"/>
+      <c r="AE241">
+        <v>0</v>
+      </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>0</v>
+      </c>
+      <c r="AH241">
+        <v>0</v>
+      </c>
+      <c r="AI241">
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="AJ241">
+        <v>3.1589999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B242" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C242" t="s">
+        <v>111</v>
+      </c>
+      <c r="D242" t="s">
+        <v>155</v>
+      </c>
+      <c r="E242">
+        <v>8923</v>
+      </c>
+      <c r="F242" t="s">
+        <v>94</v>
+      </c>
+      <c r="G242" t="s">
+        <v>160</v>
+      </c>
+      <c r="I242" t="s">
+        <v>108</v>
+      </c>
+      <c r="O242" s="44">
+        <v>3</v>
+      </c>
+      <c r="P242" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="36">
+        <v>0</v>
+      </c>
+      <c r="R242" s="38">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="S242" s="44"/>
+      <c r="T242" s="39"/>
+      <c r="U242" s="42"/>
+      <c r="V242" s="43"/>
+      <c r="W242" s="44">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X242" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y242" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z242" s="37">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AA242" s="44"/>
+      <c r="AB242" s="39"/>
+      <c r="AC242" s="42"/>
+      <c r="AD242" s="43"/>
+      <c r="AE242">
+        <v>3</v>
+      </c>
+      <c r="AF242">
+        <v>0</v>
+      </c>
+      <c r="AG242">
+        <v>0</v>
+      </c>
+      <c r="AH242">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AJ242">
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="243" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B243" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C243" t="s">
+        <v>111</v>
+      </c>
+      <c r="D243" t="s">
+        <v>155</v>
+      </c>
+      <c r="E243">
+        <v>8924</v>
+      </c>
+      <c r="F243" t="s">
+        <v>95</v>
+      </c>
+      <c r="G243" t="s">
+        <v>160</v>
+      </c>
+      <c r="I243" t="s">
+        <v>109</v>
+      </c>
+      <c r="O243" s="44">
+        <v>9</v>
+      </c>
+      <c r="P243" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q243" s="36">
+        <v>0</v>
+      </c>
+      <c r="R243" s="38">
+        <v>11.700000000000003</v>
+      </c>
+      <c r="S243" s="44"/>
+      <c r="T243" s="39"/>
+      <c r="U243" s="42"/>
+      <c r="V243" s="43"/>
+      <c r="W243" s="44">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="X243" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y243" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z243" s="37">
+        <f t="shared" si="3"/>
+        <v>11.700000000000003</v>
+      </c>
+      <c r="AA243" s="44"/>
+      <c r="AB243" s="39"/>
+      <c r="AC243" s="42"/>
+      <c r="AD243" s="43"/>
+      <c r="AE243">
+        <v>9</v>
+      </c>
+      <c r="AF243">
+        <v>0</v>
+      </c>
+      <c r="AG243">
+        <v>0</v>
+      </c>
+      <c r="AH243">
+        <v>11.700000000000003</v>
+      </c>
+      <c r="AJ243">
+        <v>11.700000000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B244" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C244" t="s">
+        <v>111</v>
+      </c>
+      <c r="D244" t="s">
+        <v>155</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="V244">
+        <v>0</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="AE244">
+        <v>0</v>
+      </c>
+      <c r="AF244">
+        <v>0</v>
+      </c>
+      <c r="AG244">
+        <v>0</v>
+      </c>
+      <c r="AH244">
+        <v>0</v>
+      </c>
+      <c r="AJ244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B245" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C245" t="s">
+        <v>111</v>
+      </c>
+      <c r="D245" t="s">
+        <v>155</v>
+      </c>
+      <c r="E245">
+        <v>8898</v>
+      </c>
+      <c r="F245" t="s">
+        <v>118</v>
+      </c>
+      <c r="I245" t="s">
+        <v>131</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AG245">
+        <v>0</v>
+      </c>
+      <c r="AH245">
+        <v>0</v>
+      </c>
+      <c r="AI245">
+        <v>0</v>
+      </c>
+      <c r="AJ245">
+        <v>0</v>
+      </c>
+      <c r="AK245">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="AL245">
+        <v>2.2890000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B246" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C246" t="s">
+        <v>111</v>
+      </c>
+      <c r="D246" t="s">
+        <v>155</v>
+      </c>
+      <c r="E246" t="s">
+        <v>80</v>
+      </c>
+      <c r="F246" t="s">
+        <v>83</v>
+      </c>
+      <c r="G246" t="s">
+        <v>156</v>
+      </c>
+      <c r="I246" t="s">
+        <v>132</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AG246">
+        <v>0</v>
+      </c>
+      <c r="AH246">
+        <v>0</v>
+      </c>
+      <c r="AI246">
+        <v>0</v>
+      </c>
+      <c r="AJ246">
+        <v>0</v>
+      </c>
+      <c r="AL246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B247" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C247" t="s">
+        <v>111</v>
+      </c>
+      <c r="D247" t="s">
+        <v>155</v>
+      </c>
+      <c r="E247">
+        <v>8864</v>
+      </c>
+      <c r="F247" t="s">
+        <v>86</v>
+      </c>
+      <c r="G247" t="s">
+        <v>159</v>
+      </c>
+      <c r="H247" t="s">
+        <v>162</v>
+      </c>
+      <c r="I247" t="s">
+        <v>133</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>280</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>15</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>280</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>15</v>
+      </c>
+      <c r="AG247">
+        <v>0</v>
+      </c>
+      <c r="AH247">
+        <v>280</v>
+      </c>
+      <c r="AI247">
+        <v>0</v>
+      </c>
+      <c r="AJ247">
+        <v>15</v>
+      </c>
+      <c r="AL247">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B248" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C248" t="s">
+        <v>111</v>
+      </c>
+      <c r="D248" t="s">
+        <v>155</v>
+      </c>
+      <c r="E248">
+        <v>8864</v>
+      </c>
+      <c r="F248" t="s">
+        <v>86</v>
+      </c>
+      <c r="G248" t="s">
+        <v>159</v>
+      </c>
+      <c r="H248" t="s">
+        <v>162</v>
+      </c>
+      <c r="I248" t="s">
+        <v>133</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>206</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>10.990000000000002</v>
+      </c>
+      <c r="T248">
+        <v>33</v>
+      </c>
+      <c r="V248">
+        <v>1.76</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>239</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AG248">
+        <v>0</v>
+      </c>
+      <c r="AH248">
+        <v>239</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>12.750000000000002</v>
+      </c>
+      <c r="AK248">
+        <v>2.25</v>
+      </c>
+      <c r="AL248">
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B249" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C249" t="s">
+        <v>111</v>
+      </c>
+      <c r="D249" t="s">
+        <v>155</v>
+      </c>
+      <c r="E249">
+        <v>8864</v>
+      </c>
+      <c r="F249" t="s">
+        <v>86</v>
+      </c>
+      <c r="G249" t="s">
+        <v>159</v>
+      </c>
+      <c r="H249" t="s">
+        <v>162</v>
+      </c>
+      <c r="I249" t="s">
+        <v>133</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AG249">
+        <v>0</v>
+      </c>
+      <c r="AH249">
+        <v>0</v>
+      </c>
+      <c r="AI249">
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <v>0</v>
+      </c>
+      <c r="AK249">
+        <v>3.625</v>
+      </c>
+      <c r="AL249">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="250" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B250" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C250" t="s">
+        <v>111</v>
+      </c>
+      <c r="D250" t="s">
+        <v>155</v>
+      </c>
+      <c r="E250">
+        <v>8847</v>
+      </c>
+      <c r="F250" t="s">
+        <v>119</v>
+      </c>
+      <c r="G250" t="s">
+        <v>163</v>
+      </c>
+      <c r="H250" t="s">
+        <v>164</v>
+      </c>
+      <c r="I250" t="s">
+        <v>134</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>47</v>
+      </c>
+      <c r="R250">
+        <v>0.56400000000000006</v>
+      </c>
+      <c r="U250">
+        <v>15</v>
+      </c>
+      <c r="V250">
+        <v>0.18</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>62</v>
+      </c>
+      <c r="Z250">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AG250">
+        <v>0</v>
+      </c>
+      <c r="AH250">
+        <v>0</v>
+      </c>
+      <c r="AI250">
+        <v>62</v>
+      </c>
+      <c r="AJ250">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AK250">
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="AL250">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="251" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B251" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C251" t="s">
+        <v>111</v>
+      </c>
+      <c r="D251" t="s">
+        <v>155</v>
+      </c>
+      <c r="E251">
+        <v>8847</v>
+      </c>
+      <c r="F251" t="s">
+        <v>119</v>
+      </c>
+      <c r="G251" t="s">
+        <v>163</v>
+      </c>
+      <c r="H251" t="s">
+        <v>164</v>
+      </c>
+      <c r="I251" t="s">
+        <v>135</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AG251">
+        <v>0</v>
+      </c>
+      <c r="AH251">
+        <v>0</v>
+      </c>
+      <c r="AI251">
+        <v>0</v>
+      </c>
+      <c r="AJ251">
+        <v>0</v>
+      </c>
+      <c r="AK251">
+        <v>0.8</v>
+      </c>
+      <c r="AL251">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="252" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B252" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C252" t="s">
+        <v>111</v>
+      </c>
+      <c r="D252" t="s">
+        <v>155</v>
+      </c>
+      <c r="E252">
+        <v>8847</v>
+      </c>
+      <c r="F252" t="s">
+        <v>119</v>
+      </c>
+      <c r="G252" t="s">
+        <v>163</v>
+      </c>
+      <c r="H252" t="s">
+        <v>164</v>
+      </c>
+      <c r="I252" t="s">
+        <v>136</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AG252">
+        <v>0</v>
+      </c>
+      <c r="AH252">
+        <v>0</v>
+      </c>
+      <c r="AI252">
+        <v>0</v>
+      </c>
+      <c r="AJ252">
+        <v>0</v>
+      </c>
+      <c r="AK252">
+        <v>0.48</v>
+      </c>
+      <c r="AL252">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="253" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B253" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C253" t="s">
+        <v>111</v>
+      </c>
+      <c r="D253" t="s">
+        <v>155</v>
+      </c>
+      <c r="E253" t="s">
+        <v>120</v>
+      </c>
+      <c r="F253" t="s">
+        <v>121</v>
+      </c>
+      <c r="G253" t="s">
+        <v>163</v>
+      </c>
+      <c r="H253" t="s">
+        <v>164</v>
+      </c>
+      <c r="I253" t="s">
+        <v>137</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>260</v>
+      </c>
+      <c r="R253">
+        <v>4.16</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>260</v>
+      </c>
+      <c r="Z253">
+        <v>4.16</v>
+      </c>
+      <c r="AG253">
+        <v>0</v>
+      </c>
+      <c r="AH253">
+        <v>0</v>
+      </c>
+      <c r="AI253">
+        <v>260</v>
+      </c>
+      <c r="AJ253">
+        <v>4.16</v>
+      </c>
+      <c r="AL253">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="254" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B254" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C254" t="s">
+        <v>111</v>
+      </c>
+      <c r="D254" t="s">
+        <v>155</v>
+      </c>
+      <c r="E254" t="s">
+        <v>120</v>
+      </c>
+      <c r="F254" t="s">
+        <v>121</v>
+      </c>
+      <c r="G254" t="s">
+        <v>163</v>
+      </c>
+      <c r="H254" t="s">
+        <v>164</v>
+      </c>
+      <c r="I254" t="s">
+        <v>138</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>56</v>
+      </c>
+      <c r="R254">
+        <v>1.008</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>56</v>
+      </c>
+      <c r="Z254">
+        <v>1.008</v>
+      </c>
+      <c r="AG254">
+        <v>0</v>
+      </c>
+      <c r="AH254">
+        <v>0</v>
+      </c>
+      <c r="AI254">
+        <v>56</v>
+      </c>
+      <c r="AJ254">
+        <v>1.008</v>
+      </c>
+      <c r="AL254">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="255" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B255" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C255" t="s">
+        <v>111</v>
+      </c>
+      <c r="D255" t="s">
+        <v>155</v>
+      </c>
+      <c r="E255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F255" t="s">
+        <v>121</v>
+      </c>
+      <c r="G255" t="s">
+        <v>163</v>
+      </c>
+      <c r="H255" t="s">
+        <v>164</v>
+      </c>
+      <c r="I255" t="s">
+        <v>139</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>36</v>
+      </c>
+      <c r="R255">
+        <v>0.84200000000000008</v>
+      </c>
+      <c r="U255">
+        <v>20</v>
+      </c>
+      <c r="V255">
+        <v>0.46</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>56</v>
+      </c>
+      <c r="Z255">
+        <v>1.302</v>
+      </c>
+      <c r="AG255">
+        <v>0</v>
+      </c>
+      <c r="AH255">
+        <v>0</v>
+      </c>
+      <c r="AI255">
+        <v>56</v>
+      </c>
+      <c r="AJ255">
+        <v>1.302</v>
+      </c>
+      <c r="AL255">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="256" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B256" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C256" t="s">
+        <v>111</v>
+      </c>
+      <c r="D256" t="s">
+        <v>155</v>
+      </c>
+      <c r="E256" t="s">
+        <v>120</v>
+      </c>
+      <c r="F256" t="s">
+        <v>121</v>
+      </c>
+      <c r="G256" t="s">
+        <v>163</v>
+      </c>
+      <c r="H256" t="s">
+        <v>164</v>
+      </c>
+      <c r="I256" t="s">
+        <v>140</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>83</v>
+      </c>
+      <c r="R256">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>83</v>
+      </c>
+      <c r="Z256">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="AG256">
+        <v>0</v>
+      </c>
+      <c r="AH256">
+        <v>0</v>
+      </c>
+      <c r="AI256">
+        <v>83</v>
+      </c>
+      <c r="AJ256">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="AL256">
+        <v>1.6533600000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B257" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C257" t="s">
+        <v>111</v>
+      </c>
+      <c r="D257" t="s">
+        <v>155</v>
+      </c>
+      <c r="F257" t="s">
+        <v>122</v>
+      </c>
+      <c r="G257" t="s">
+        <v>163</v>
+      </c>
+      <c r="H257" t="s">
+        <v>164</v>
+      </c>
+      <c r="I257" t="s">
+        <v>141</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>25</v>
+      </c>
+      <c r="R257">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>25</v>
+      </c>
+      <c r="Z257">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AG257">
+        <v>0</v>
+      </c>
+      <c r="AH257">
+        <v>0</v>
+      </c>
+      <c r="AI257">
+        <v>25</v>
+      </c>
+      <c r="AJ257">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AK257">
+        <v>0.223</v>
+      </c>
+      <c r="AL257">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B258" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C258" t="s">
+        <v>111</v>
+      </c>
+      <c r="D258" t="s">
+        <v>155</v>
+      </c>
+      <c r="E258" t="s">
+        <v>123</v>
+      </c>
+      <c r="F258" t="s">
+        <v>83</v>
+      </c>
+      <c r="G258" t="s">
+        <v>156</v>
+      </c>
+      <c r="I258" t="s">
+        <v>142</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>0</v>
+      </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>0</v>
+      </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
+      <c r="AG258">
+        <v>0</v>
+      </c>
+      <c r="AH258">
+        <v>0</v>
+      </c>
+      <c r="AI258">
+        <v>0</v>
+      </c>
+      <c r="AJ258">
+        <v>0</v>
+      </c>
+      <c r="AL258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B259" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C259" t="s">
+        <v>111</v>
+      </c>
+      <c r="D259" t="s">
+        <v>155</v>
+      </c>
+      <c r="E259">
+        <v>8824</v>
+      </c>
+      <c r="F259" t="s">
+        <v>124</v>
+      </c>
+      <c r="G259" t="s">
+        <v>165</v>
+      </c>
+      <c r="I259" t="s">
+        <v>143</v>
+      </c>
+      <c r="O259">
+        <v>27</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>35.099999999999994</v>
+      </c>
+      <c r="S259">
+        <v>5</v>
+      </c>
+      <c r="V259">
+        <v>6.5</v>
+      </c>
+      <c r="W259">
+        <v>32</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>41.599999999999994</v>
+      </c>
+      <c r="AG259">
+        <v>32</v>
+      </c>
+      <c r="AH259">
+        <v>0</v>
+      </c>
+      <c r="AI259">
+        <v>0</v>
+      </c>
+      <c r="AJ259">
+        <v>41.599999999999994</v>
+      </c>
+      <c r="AK259">
+        <v>10.4</v>
+      </c>
+      <c r="AL259">
+        <v>51.999999999999993</v>
+      </c>
+    </row>
+    <row r="260" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B260" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C260" t="s">
+        <v>111</v>
+      </c>
+      <c r="D260" t="s">
+        <v>155</v>
+      </c>
+      <c r="E260">
+        <v>8758</v>
+      </c>
+      <c r="F260" t="s">
+        <v>89</v>
+      </c>
+      <c r="I260" t="s">
+        <v>103</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AG260">
+        <v>0</v>
+      </c>
+      <c r="AH260">
+        <v>0</v>
+      </c>
+      <c r="AI260">
+        <v>0</v>
+      </c>
+      <c r="AJ260">
+        <v>0</v>
+      </c>
+      <c r="AK260">
+        <v>0.83</v>
+      </c>
+      <c r="AL260">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="261" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B261" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C261" t="s">
+        <v>111</v>
+      </c>
+      <c r="D261" t="s">
+        <v>155</v>
+      </c>
+      <c r="E261">
+        <v>8925</v>
+      </c>
+      <c r="F261" t="s">
+        <v>125</v>
+      </c>
+      <c r="I261" t="s">
+        <v>103</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>808</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>808</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="AG261">
+        <v>0</v>
+      </c>
+      <c r="AH261">
+        <v>808</v>
+      </c>
+      <c r="AI261">
+        <v>0</v>
+      </c>
+      <c r="AJ261">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="AL261">
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B262" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C262" t="s">
+        <v>111</v>
+      </c>
+      <c r="D262" t="s">
+        <v>155</v>
+      </c>
+      <c r="E262">
+        <v>8938</v>
+      </c>
+      <c r="F262" t="s">
+        <v>126</v>
+      </c>
+      <c r="G262" t="s">
+        <v>166</v>
+      </c>
+      <c r="H262" t="s">
+        <v>167</v>
+      </c>
+      <c r="I262" t="s">
+        <v>144</v>
+      </c>
+      <c r="O262">
+        <v>20</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>26</v>
+      </c>
+      <c r="W262">
+        <v>20</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>26</v>
+      </c>
+      <c r="AA262">
+        <v>20</v>
+      </c>
+      <c r="AD262">
+        <v>26</v>
+      </c>
+      <c r="AG262">
+        <v>0</v>
+      </c>
+      <c r="AH262">
+        <v>0</v>
+      </c>
+      <c r="AI262">
+        <v>0</v>
+      </c>
+      <c r="AJ262">
+        <v>0</v>
+      </c>
+      <c r="AL262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B263" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C263" t="s">
+        <v>111</v>
+      </c>
+      <c r="D263" t="s">
+        <v>155</v>
+      </c>
+      <c r="E263">
+        <v>8904</v>
+      </c>
+      <c r="F263" t="s">
+        <v>127</v>
+      </c>
+      <c r="I263" t="s">
+        <v>145</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AG263">
+        <v>0</v>
+      </c>
+      <c r="AH263">
+        <v>0</v>
+      </c>
+      <c r="AI263">
+        <v>0</v>
+      </c>
+      <c r="AJ263">
+        <v>0</v>
+      </c>
+      <c r="AL263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B264" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C264" t="s">
+        <v>111</v>
+      </c>
+      <c r="D264" t="s">
+        <v>155</v>
+      </c>
+      <c r="I264" t="s">
+        <v>146</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AG264">
+        <v>0</v>
+      </c>
+      <c r="AH264">
+        <v>0</v>
+      </c>
+      <c r="AI264">
+        <v>0</v>
+      </c>
+      <c r="AJ264">
+        <v>0</v>
+      </c>
+      <c r="AK264">
+        <v>4.7</v>
+      </c>
+      <c r="AL264">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="265" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B265" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C265" t="s">
+        <v>111</v>
+      </c>
+      <c r="D265" t="s">
+        <v>155</v>
+      </c>
+      <c r="E265">
+        <v>8824</v>
+      </c>
+      <c r="F265" t="s">
+        <v>124</v>
+      </c>
+      <c r="G265" t="s">
+        <v>165</v>
+      </c>
+      <c r="H265" t="s">
+        <v>167</v>
+      </c>
+      <c r="I265" t="s">
+        <v>147</v>
+      </c>
+      <c r="O265">
+        <v>12</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>15.599999999999994</v>
+      </c>
+      <c r="S265">
+        <v>8</v>
+      </c>
+      <c r="V265">
+        <v>10.4</v>
+      </c>
+      <c r="W265">
+        <v>20</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>25.999999999999993</v>
+      </c>
+      <c r="AG265">
+        <v>20</v>
+      </c>
+      <c r="AH265">
+        <v>0</v>
+      </c>
+      <c r="AI265">
+        <v>0</v>
+      </c>
+      <c r="AJ265">
+        <v>25.999999999999993</v>
+      </c>
+      <c r="AL265">
+        <v>25.999999999999993</v>
+      </c>
+    </row>
+    <row r="266" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B266" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C266" t="s">
+        <v>111</v>
+      </c>
+      <c r="D266" t="s">
+        <v>155</v>
+      </c>
+      <c r="E266">
+        <v>8968</v>
+      </c>
+      <c r="F266" t="s">
+        <v>128</v>
+      </c>
+      <c r="H266" t="s">
+        <v>167</v>
+      </c>
+      <c r="I266" t="s">
+        <v>148</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <v>1</v>
+      </c>
+      <c r="V266">
+        <v>1.3</v>
+      </c>
+      <c r="W266">
+        <v>1</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>1.3</v>
+      </c>
+      <c r="AG266">
+        <v>1</v>
+      </c>
+      <c r="AH266">
+        <v>0</v>
+      </c>
+      <c r="AI266">
+        <v>0</v>
+      </c>
+      <c r="AJ266">
+        <v>1.3</v>
+      </c>
+      <c r="AK266">
+        <v>3.6</v>
+      </c>
+      <c r="AL266">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B267" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C267" t="s">
+        <v>111</v>
+      </c>
+      <c r="D267" t="s">
+        <v>155</v>
+      </c>
+      <c r="E267">
+        <v>8903</v>
+      </c>
+      <c r="F267" t="s">
+        <v>88</v>
+      </c>
+      <c r="G267" t="s">
+        <v>159</v>
+      </c>
+      <c r="I267" t="s">
+        <v>149</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>404</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>15</v>
+      </c>
+      <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
+        <v>404</v>
+      </c>
+      <c r="Y267">
+        <v>0</v>
+      </c>
+      <c r="Z267">
+        <v>15</v>
+      </c>
+      <c r="AG267">
+        <v>0</v>
+      </c>
+      <c r="AH267">
+        <v>404</v>
+      </c>
+      <c r="AI267">
+        <v>0</v>
+      </c>
+      <c r="AJ267">
+        <v>15</v>
+      </c>
+      <c r="AL267">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B268" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C268" t="s">
+        <v>111</v>
+      </c>
+      <c r="D268" t="s">
+        <v>155</v>
+      </c>
+      <c r="E268">
+        <v>8948</v>
+      </c>
+      <c r="F268" t="s">
+        <v>129</v>
+      </c>
+      <c r="G268" t="s">
+        <v>168</v>
+      </c>
+      <c r="H268" t="s">
+        <v>169</v>
+      </c>
+      <c r="I268" t="s">
+        <v>150</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>238</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>8.92</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>238</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>8.92</v>
+      </c>
+      <c r="AG268">
+        <v>0</v>
+      </c>
+      <c r="AH268">
+        <v>238</v>
+      </c>
+      <c r="AI268">
+        <v>0</v>
+      </c>
+      <c r="AJ268">
+        <v>8.92</v>
+      </c>
+      <c r="AK268">
+        <v>3.8</v>
+      </c>
+      <c r="AL268">
+        <v>12.719999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B269" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C269" t="s">
+        <v>111</v>
+      </c>
+      <c r="D269" t="s">
+        <v>155</v>
+      </c>
+      <c r="E269">
+        <v>8708</v>
+      </c>
+      <c r="F269" t="s">
+        <v>130</v>
+      </c>
+      <c r="G269" t="s">
+        <v>168</v>
+      </c>
+      <c r="H269" t="s">
+        <v>169</v>
+      </c>
+      <c r="I269" t="s">
+        <v>150</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>400</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>15.000000000000007</v>
+      </c>
+      <c r="W269">
+        <v>0</v>
+      </c>
+      <c r="X269">
+        <v>400</v>
+      </c>
+      <c r="Y269">
+        <v>0</v>
+      </c>
+      <c r="Z269">
+        <v>15.000000000000007</v>
+      </c>
+      <c r="AB269">
+        <v>400</v>
+      </c>
+      <c r="AD269">
+        <v>15</v>
+      </c>
+      <c r="AG269">
+        <v>0</v>
+      </c>
+      <c r="AH269">
+        <v>0</v>
+      </c>
+      <c r="AI269">
+        <v>0</v>
+      </c>
+      <c r="AJ269">
+        <v>0</v>
+      </c>
+      <c r="AL269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B270" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C270" t="s">
+        <v>111</v>
+      </c>
+      <c r="D270" t="s">
+        <v>155</v>
+      </c>
+      <c r="E270">
+        <v>8844</v>
+      </c>
+      <c r="F270" t="s">
+        <v>86</v>
+      </c>
+      <c r="G270" t="s">
+        <v>159</v>
+      </c>
+      <c r="H270" t="s">
+        <v>162</v>
+      </c>
+      <c r="I270" t="s">
+        <v>151</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>500</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="W270">
+        <v>0</v>
+      </c>
+      <c r="X270">
+        <v>500</v>
+      </c>
+      <c r="Y270">
+        <v>0</v>
+      </c>
+      <c r="Z270">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="AG270">
+        <v>0</v>
+      </c>
+      <c r="AH270">
+        <v>500</v>
+      </c>
+      <c r="AI270">
+        <v>0</v>
+      </c>
+      <c r="AJ270">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="AL270">
+        <v>25.000000000000004</v>
+      </c>
+    </row>
+    <row r="271" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B271" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C271" t="s">
+        <v>111</v>
+      </c>
+      <c r="D271" t="s">
+        <v>155</v>
+      </c>
+      <c r="E271">
+        <v>8844</v>
+      </c>
+      <c r="F271" t="s">
+        <v>86</v>
+      </c>
+      <c r="G271" t="s">
+        <v>159</v>
+      </c>
+      <c r="H271" t="s">
+        <v>162</v>
+      </c>
+      <c r="I271" t="s">
+        <v>151</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>500</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>25</v>
+      </c>
+      <c r="W271">
+        <v>0</v>
+      </c>
+      <c r="X271">
+        <v>500</v>
+      </c>
+      <c r="Y271">
+        <v>0</v>
+      </c>
+      <c r="Z271">
+        <v>25</v>
+      </c>
+      <c r="AG271">
+        <v>0</v>
+      </c>
+      <c r="AH271">
+        <v>500</v>
+      </c>
+      <c r="AI271">
+        <v>0</v>
+      </c>
+      <c r="AJ271">
+        <v>25</v>
+      </c>
+      <c r="AL271">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B272" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C272" t="s">
+        <v>111</v>
+      </c>
+      <c r="D272" t="s">
+        <v>155</v>
+      </c>
+      <c r="E272">
+        <v>8844</v>
+      </c>
+      <c r="F272" t="s">
+        <v>86</v>
+      </c>
+      <c r="G272" t="s">
+        <v>159</v>
+      </c>
+      <c r="H272" t="s">
+        <v>162</v>
+      </c>
+      <c r="I272" t="s">
+        <v>151</v>
+      </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <v>395</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>19.75</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
+        <v>395</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+      <c r="Z272">
+        <v>19.75</v>
+      </c>
+      <c r="AG272">
+        <v>0</v>
+      </c>
+      <c r="AH272">
+        <v>395</v>
+      </c>
+      <c r="AI272">
+        <v>0</v>
+      </c>
+      <c r="AJ272">
+        <v>19.75</v>
+      </c>
+      <c r="AL272">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="273" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B273" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C273" t="s">
+        <v>111</v>
+      </c>
+      <c r="D273" t="s">
+        <v>155</v>
+      </c>
+      <c r="E273">
+        <v>8842</v>
+      </c>
+      <c r="F273" t="s">
+        <v>86</v>
+      </c>
+      <c r="G273" t="s">
+        <v>159</v>
+      </c>
+      <c r="H273" t="s">
+        <v>162</v>
+      </c>
+      <c r="I273" t="s">
+        <v>152</v>
+      </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
+      <c r="P273">
+        <v>545</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>29.169999999999998</v>
+      </c>
+      <c r="T273">
+        <v>15</v>
+      </c>
+      <c r="V273">
+        <v>0.83</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>560</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AG273">
+        <v>0</v>
+      </c>
+      <c r="AH273">
+        <v>560</v>
+      </c>
+      <c r="AI273">
+        <v>0</v>
+      </c>
+      <c r="AJ273">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AL273">
+        <v>29.999999999999996</v>
+      </c>
+    </row>
+    <row r="274" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B274" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C274" t="s">
+        <v>111</v>
+      </c>
+      <c r="D274" t="s">
+        <v>155</v>
+      </c>
+      <c r="E274">
+        <v>8842</v>
+      </c>
+      <c r="F274" t="s">
+        <v>86</v>
+      </c>
+      <c r="G274" t="s">
+        <v>159</v>
+      </c>
+      <c r="H274" t="s">
+        <v>162</v>
+      </c>
+      <c r="I274" t="s">
+        <v>152</v>
+      </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>0</v>
+      </c>
+      <c r="T274">
+        <v>142</v>
+      </c>
+      <c r="V274">
+        <v>7.6</v>
+      </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
+      <c r="X274">
+        <v>142</v>
+      </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
+      <c r="Z274">
+        <v>7.6</v>
+      </c>
+      <c r="AG274">
+        <v>0</v>
+      </c>
+      <c r="AH274">
+        <v>142</v>
+      </c>
+      <c r="AI274">
+        <v>0</v>
+      </c>
+      <c r="AJ274">
+        <v>7.6</v>
+      </c>
+      <c r="AK274">
+        <v>9.1750000000000007</v>
+      </c>
+      <c r="AL274">
+        <v>16.774999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B275" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C275" t="s">
+        <v>111</v>
+      </c>
+      <c r="D275" t="s">
+        <v>155</v>
+      </c>
+      <c r="E275">
+        <v>8938</v>
+      </c>
+      <c r="F275" t="s">
+        <v>126</v>
+      </c>
+      <c r="G275" t="s">
+        <v>166</v>
+      </c>
+      <c r="H275" t="s">
+        <v>167</v>
+      </c>
+      <c r="I275" t="s">
+        <v>153</v>
+      </c>
+      <c r="O275">
+        <v>30</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <v>39</v>
+      </c>
+      <c r="W275">
+        <v>30</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>0</v>
+      </c>
+      <c r="Z275">
+        <v>39</v>
+      </c>
+      <c r="AA275">
+        <v>30</v>
+      </c>
+      <c r="AD275">
+        <v>39</v>
+      </c>
+      <c r="AG275">
+        <v>0</v>
+      </c>
+      <c r="AH275">
+        <v>0</v>
+      </c>
+      <c r="AI275">
+        <v>0</v>
+      </c>
+      <c r="AJ275">
+        <v>0</v>
+      </c>
+      <c r="AL275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B276" s="11">
+        <v>45330</v>
+      </c>
+      <c r="C276" t="s">
+        <v>111</v>
+      </c>
+      <c r="D276" t="s">
+        <v>155</v>
+      </c>
+      <c r="E276" t="s">
+        <v>80</v>
+      </c>
+      <c r="F276" t="s">
+        <v>83</v>
+      </c>
+      <c r="G276" t="s">
+        <v>156</v>
+      </c>
+      <c r="I276" t="s">
+        <v>154</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>0</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>0</v>
+      </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
+      <c r="AG276">
+        <v>0</v>
+      </c>
+      <c r="AH276">
+        <v>0</v>
+      </c>
+      <c r="AI276">
+        <v>0</v>
+      </c>
+      <c r="AJ276">
+        <v>0</v>
+      </c>
+      <c r="AK276">
+        <v>0.05</v>
+      </c>
+      <c r="AL276">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="277" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E277">
+        <v>8898</v>
+      </c>
+      <c r="F277" t="s">
+        <v>118</v>
+      </c>
+      <c r="I277" t="s">
+        <v>131</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277">
+        <v>0</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>1</v>
+      </c>
+      <c r="U277">
+        <v>1.3</v>
+      </c>
+      <c r="V277">
+        <v>1</v>
+      </c>
+      <c r="W277">
+        <v>0</v>
+      </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
+      <c r="Y277">
+        <v>1.3</v>
+      </c>
+      <c r="AF277">
+        <v>1</v>
+      </c>
+      <c r="AG277">
+        <v>0</v>
+      </c>
+      <c r="AH277">
+        <v>0</v>
+      </c>
+      <c r="AI277">
+        <v>1.3</v>
+      </c>
+      <c r="AJ277">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="AK277">
+        <v>1.6220000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E278" t="s">
+        <v>80</v>
+      </c>
+      <c r="F278" t="s">
+        <v>83</v>
+      </c>
+      <c r="G278" t="s">
+        <v>156</v>
+      </c>
+      <c r="I278" t="s">
+        <v>132</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278">
+        <v>0</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="V278">
+        <v>0</v>
+      </c>
+      <c r="W278">
+        <v>0</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
+      <c r="AF278">
+        <v>0</v>
+      </c>
+      <c r="AG278">
+        <v>0</v>
+      </c>
+      <c r="AH278">
+        <v>0</v>
+      </c>
+      <c r="AI278">
+        <v>0</v>
+      </c>
+      <c r="AK278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E279">
+        <v>8864</v>
+      </c>
+      <c r="F279" t="s">
+        <v>86</v>
+      </c>
+      <c r="G279" t="s">
+        <v>159</v>
+      </c>
+      <c r="H279" t="s">
+        <v>162</v>
+      </c>
+      <c r="I279" t="s">
+        <v>133</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>280</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>15</v>
+      </c>
+      <c r="V279">
+        <v>0</v>
+      </c>
+      <c r="W279">
+        <v>280</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>15</v>
+      </c>
+      <c r="AF279">
+        <v>0</v>
+      </c>
+      <c r="AG279">
+        <v>280</v>
+      </c>
+      <c r="AH279">
+        <v>0</v>
+      </c>
+      <c r="AI279">
+        <v>15</v>
+      </c>
+      <c r="AK279">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E280">
+        <v>8864</v>
+      </c>
+      <c r="F280" t="s">
+        <v>86</v>
+      </c>
+      <c r="G280" t="s">
+        <v>159</v>
+      </c>
+      <c r="H280" t="s">
+        <v>162</v>
+      </c>
+      <c r="I280" t="s">
+        <v>133</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>239</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <v>12.750000000000002</v>
+      </c>
+      <c r="S280">
+        <v>41</v>
+      </c>
+      <c r="U280">
+        <v>2.25</v>
+      </c>
+      <c r="V280">
+        <v>0</v>
+      </c>
+      <c r="W280">
+        <v>280</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>15.000000000000002</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>280</v>
+      </c>
+      <c r="AH280">
+        <v>0</v>
+      </c>
+      <c r="AI280">
+        <v>15.000000000000002</v>
+      </c>
+      <c r="AK280">
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E281">
+        <v>8864</v>
+      </c>
+      <c r="F281" t="s">
+        <v>86</v>
+      </c>
+      <c r="G281" t="s">
+        <v>159</v>
+      </c>
+      <c r="H281" t="s">
+        <v>162</v>
+      </c>
+      <c r="I281" t="s">
+        <v>133</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
+      <c r="P281">
+        <v>0</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="S281">
+        <v>9</v>
+      </c>
+      <c r="U281">
+        <v>0.48</v>
+      </c>
+      <c r="V281">
+        <v>0</v>
+      </c>
+      <c r="W281">
+        <v>9</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0.48</v>
+      </c>
+      <c r="AF281">
+        <v>0</v>
+      </c>
+      <c r="AG281">
+        <v>9</v>
+      </c>
+      <c r="AH281">
+        <v>0</v>
+      </c>
+      <c r="AI281">
+        <v>0.48</v>
+      </c>
+      <c r="AJ281">
+        <v>4.5449999999999999</v>
+      </c>
+      <c r="AK281">
+        <v>5.0250000000000004</v>
+      </c>
+    </row>
+    <row r="282" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E282">
+        <v>8847</v>
+      </c>
+      <c r="F282" t="s">
+        <v>119</v>
+      </c>
+      <c r="G282" t="s">
+        <v>163</v>
+      </c>
+      <c r="H282" t="s">
+        <v>164</v>
+      </c>
+      <c r="I282" t="s">
+        <v>134</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
+      <c r="P282">
+        <v>62</v>
+      </c>
+      <c r="Q282">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="T282">
+        <v>30</v>
+      </c>
+      <c r="U282">
+        <v>0.36</v>
+      </c>
+      <c r="V282">
+        <v>0</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>92</v>
+      </c>
+      <c r="Y282">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="AF282">
+        <v>0</v>
+      </c>
+      <c r="AG282">
+        <v>0</v>
+      </c>
+      <c r="AH282">
+        <v>92</v>
+      </c>
+      <c r="AI282">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="AJ282">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="AK282">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="283" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E283">
+        <v>8847</v>
+      </c>
+      <c r="F283" t="s">
+        <v>119</v>
+      </c>
+      <c r="G283" t="s">
+        <v>163</v>
+      </c>
+      <c r="H283" t="s">
+        <v>164</v>
+      </c>
+      <c r="I283" t="s">
+        <v>135</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
+      <c r="P283">
+        <v>0</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="V283">
+        <v>0</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="AF283">
+        <v>0</v>
+      </c>
+      <c r="AG283">
+        <v>0</v>
+      </c>
+      <c r="AH283">
+        <v>0</v>
+      </c>
+      <c r="AI283">
+        <v>0</v>
+      </c>
+      <c r="AJ283">
+        <v>0.8</v>
+      </c>
+      <c r="AK283">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="284" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E284">
+        <v>8847</v>
+      </c>
+      <c r="F284" t="s">
+        <v>119</v>
+      </c>
+      <c r="G284" t="s">
+        <v>163</v>
+      </c>
+      <c r="H284" t="s">
+        <v>164</v>
+      </c>
+      <c r="I284" t="s">
+        <v>136</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+      <c r="O284">
+        <v>0</v>
+      </c>
+      <c r="P284">
+        <v>0</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="V284">
+        <v>0</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="AF284">
+        <v>0</v>
+      </c>
+      <c r="AG284">
+        <v>0</v>
+      </c>
+      <c r="AH284">
+        <v>0</v>
+      </c>
+      <c r="AI284">
+        <v>0</v>
+      </c>
+      <c r="AJ284">
+        <v>0.48</v>
+      </c>
+      <c r="AK284">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="285" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E285" t="s">
+        <v>120</v>
+      </c>
+      <c r="F285" t="s">
+        <v>121</v>
+      </c>
+      <c r="G285" t="s">
+        <v>163</v>
+      </c>
+      <c r="H285" t="s">
+        <v>164</v>
+      </c>
+      <c r="I285" t="s">
+        <v>137</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>260</v>
+      </c>
+      <c r="Q285">
+        <v>4.16</v>
+      </c>
+      <c r="V285">
+        <v>0</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>260</v>
+      </c>
+      <c r="Y285">
+        <v>4.16</v>
+      </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
+      <c r="AG285">
+        <v>0</v>
+      </c>
+      <c r="AH285">
+        <v>260</v>
+      </c>
+      <c r="AI285">
+        <v>4.16</v>
+      </c>
+      <c r="AK285">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="286" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E286" t="s">
+        <v>120</v>
+      </c>
+      <c r="F286" t="s">
+        <v>121</v>
+      </c>
+      <c r="G286" t="s">
+        <v>163</v>
+      </c>
+      <c r="H286" t="s">
+        <v>164</v>
+      </c>
+      <c r="I286" t="s">
+        <v>138</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
+      <c r="P286">
+        <v>56</v>
+      </c>
+      <c r="Q286">
+        <v>1.008</v>
+      </c>
+      <c r="V286">
+        <v>0</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>56</v>
+      </c>
+      <c r="Y286">
+        <v>1.008</v>
+      </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
+      <c r="AG286">
+        <v>0</v>
+      </c>
+      <c r="AH286">
+        <v>56</v>
+      </c>
+      <c r="AI286">
+        <v>1.008</v>
+      </c>
+      <c r="AK286">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="287" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E287" t="s">
+        <v>120</v>
+      </c>
+      <c r="F287" t="s">
+        <v>121</v>
+      </c>
+      <c r="G287" t="s">
+        <v>163</v>
+      </c>
+      <c r="H287" t="s">
+        <v>164</v>
+      </c>
+      <c r="I287" t="s">
+        <v>139</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
+      <c r="P287">
+        <v>56</v>
+      </c>
+      <c r="Q287">
+        <v>1.302</v>
+      </c>
+      <c r="T287">
+        <v>7</v>
+      </c>
+      <c r="U287">
+        <v>0.16968</v>
+      </c>
+      <c r="V287">
+        <v>0</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>63</v>
+      </c>
+      <c r="Y287">
+        <v>1.4716800000000001</v>
+      </c>
+      <c r="AF287">
+        <v>0</v>
+      </c>
+      <c r="AG287">
+        <v>0</v>
+      </c>
+      <c r="AH287">
+        <v>63</v>
+      </c>
+      <c r="AI287">
+        <v>1.4716800000000001</v>
+      </c>
+      <c r="AK287">
+        <v>1.4716800000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E288" t="s">
+        <v>120</v>
+      </c>
+      <c r="F288" t="s">
+        <v>121</v>
+      </c>
+      <c r="G288" t="s">
+        <v>163</v>
+      </c>
+      <c r="H288" t="s">
+        <v>164</v>
+      </c>
+      <c r="I288" t="s">
+        <v>140</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288">
+        <v>83</v>
+      </c>
+      <c r="Q288">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="V288">
+        <v>0</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>83</v>
+      </c>
+      <c r="Y288">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="AF288">
+        <v>0</v>
+      </c>
+      <c r="AG288">
+        <v>0</v>
+      </c>
+      <c r="AH288">
+        <v>83</v>
+      </c>
+      <c r="AI288">
+        <v>1.6533600000000002</v>
+      </c>
+      <c r="AK288">
+        <v>1.6533600000000002</v>
+      </c>
+    </row>
+    <row r="289" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="F289" t="s">
+        <v>122</v>
+      </c>
+      <c r="G289" t="s">
+        <v>163</v>
+      </c>
+      <c r="H289" t="s">
+        <v>164</v>
+      </c>
+      <c r="I289" t="s">
+        <v>141</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
+      <c r="P289">
+        <v>25</v>
+      </c>
+      <c r="Q289">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="V289">
+        <v>0</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>25</v>
+      </c>
+      <c r="Y289">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AF289">
+        <v>0</v>
+      </c>
+      <c r="AG289">
+        <v>0</v>
+      </c>
+      <c r="AH289">
+        <v>25</v>
+      </c>
+      <c r="AI289">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AJ289">
+        <v>0.223</v>
+      </c>
+      <c r="AK289">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E290" t="s">
+        <v>123</v>
+      </c>
+      <c r="F290" t="s">
+        <v>83</v>
+      </c>
+      <c r="G290" t="s">
+        <v>156</v>
+      </c>
+      <c r="I290" t="s">
+        <v>142</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="V290">
+        <v>0</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="AF290">
+        <v>0</v>
+      </c>
+      <c r="AG290">
+        <v>0</v>
+      </c>
+      <c r="AH290">
+        <v>0</v>
+      </c>
+      <c r="AI290">
+        <v>0</v>
+      </c>
+      <c r="AK290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E291">
+        <v>8824</v>
+      </c>
+      <c r="F291" t="s">
+        <v>124</v>
+      </c>
+      <c r="G291" t="s">
+        <v>165</v>
+      </c>
+      <c r="I291" t="s">
+        <v>143</v>
+      </c>
+      <c r="N291">
+        <v>32</v>
+      </c>
+      <c r="O291">
+        <v>0</v>
+      </c>
+      <c r="P291">
+        <v>0</v>
+      </c>
+      <c r="Q291">
+        <v>41.599999999999994</v>
+      </c>
+      <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="U291">
+        <v>2.6</v>
+      </c>
+      <c r="V291">
+        <v>34</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>44.199999999999996</v>
+      </c>
+      <c r="AF291">
+        <v>34</v>
+      </c>
+      <c r="AG291">
+        <v>0</v>
+      </c>
+      <c r="AH291">
+        <v>0</v>
+      </c>
+      <c r="AI291">
+        <v>44.199999999999996</v>
+      </c>
+      <c r="AJ291">
+        <v>7.8</v>
+      </c>
+      <c r="AK291">
+        <v>51.999999999999993</v>
+      </c>
+    </row>
+    <row r="292" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E292">
+        <v>8758</v>
+      </c>
+      <c r="F292" t="s">
+        <v>89</v>
+      </c>
+      <c r="I292" t="s">
+        <v>103</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+      <c r="O292">
+        <v>0</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="V292">
+        <v>0</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="AF292">
+        <v>0</v>
+      </c>
+      <c r="AG292">
+        <v>0</v>
+      </c>
+      <c r="AH292">
+        <v>0</v>
+      </c>
+      <c r="AI292">
+        <v>0</v>
+      </c>
+      <c r="AJ292">
+        <v>6.43</v>
+      </c>
+      <c r="AK292">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="293" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E293">
+        <v>8925</v>
+      </c>
+      <c r="F293" t="s">
+        <v>125</v>
+      </c>
+      <c r="I293" t="s">
+        <v>103</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+      <c r="O293">
+        <v>808</v>
+      </c>
+      <c r="P293">
+        <v>0</v>
+      </c>
+      <c r="Q293">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="V293">
+        <v>0</v>
+      </c>
+      <c r="W293">
+        <v>808</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
+      <c r="AG293">
+        <v>808</v>
+      </c>
+      <c r="AH293">
+        <v>0</v>
+      </c>
+      <c r="AI293">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="AK293">
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E294">
+        <v>8904</v>
+      </c>
+      <c r="F294" t="s">
+        <v>127</v>
+      </c>
+      <c r="I294" t="s">
+        <v>145</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="V294">
+        <v>0</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="AF294">
+        <v>0</v>
+      </c>
+      <c r="AG294">
+        <v>0</v>
+      </c>
+      <c r="AH294">
+        <v>0</v>
+      </c>
+      <c r="AI294">
+        <v>0</v>
+      </c>
+      <c r="AK294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="I295" t="s">
+        <v>146</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+      <c r="O295">
+        <v>0</v>
+      </c>
+      <c r="P295">
+        <v>0</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="V295">
+        <v>0</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
+      <c r="AG295">
+        <v>0</v>
+      </c>
+      <c r="AH295">
+        <v>0</v>
+      </c>
+      <c r="AI295">
+        <v>0</v>
+      </c>
+      <c r="AJ295">
+        <v>8.44</v>
+      </c>
+      <c r="AK295">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="296" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E296">
+        <v>8824</v>
+      </c>
+      <c r="F296" t="s">
+        <v>124</v>
+      </c>
+      <c r="G296" t="s">
+        <v>165</v>
+      </c>
+      <c r="H296" t="s">
+        <v>167</v>
+      </c>
+      <c r="I296" t="s">
+        <v>147</v>
+      </c>
+      <c r="N296">
+        <v>20</v>
+      </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+      <c r="Q296">
+        <v>25.999999999999993</v>
+      </c>
+      <c r="V296">
+        <v>20</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>25.999999999999993</v>
+      </c>
+      <c r="AF296">
+        <v>20</v>
+      </c>
+      <c r="AG296">
+        <v>0</v>
+      </c>
+      <c r="AH296">
+        <v>0</v>
+      </c>
+      <c r="AI296">
+        <v>25.999999999999993</v>
+      </c>
+      <c r="AK296">
+        <v>25.999999999999993</v>
+      </c>
+    </row>
+    <row r="297" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E297">
+        <v>8968</v>
+      </c>
+      <c r="F297" t="s">
+        <v>128</v>
+      </c>
+      <c r="H297" t="s">
+        <v>167</v>
+      </c>
+      <c r="I297" t="s">
+        <v>148</v>
+      </c>
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+      <c r="Q297">
+        <v>1.3</v>
+      </c>
+      <c r="R297">
+        <v>3</v>
+      </c>
+      <c r="U297">
+        <v>3.9</v>
+      </c>
+      <c r="V297">
+        <v>4</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>5.2</v>
+      </c>
+      <c r="AF297">
+        <v>4</v>
+      </c>
+      <c r="AG297">
+        <v>0</v>
+      </c>
+      <c r="AH297">
+        <v>0</v>
+      </c>
+      <c r="AI297">
+        <v>5.2</v>
+      </c>
+      <c r="AK297">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="298" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E298">
+        <v>8903</v>
+      </c>
+      <c r="F298" t="s">
+        <v>88</v>
+      </c>
+      <c r="G298" t="s">
+        <v>159</v>
+      </c>
+      <c r="I298" t="s">
+        <v>149</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>404</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+      <c r="Q298">
+        <v>15</v>
+      </c>
+      <c r="V298">
+        <v>0</v>
+      </c>
+      <c r="W298">
+        <v>404</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>15</v>
+      </c>
+      <c r="AF298">
+        <v>0</v>
+      </c>
+      <c r="AG298">
+        <v>404</v>
+      </c>
+      <c r="AH298">
+        <v>0</v>
+      </c>
+      <c r="AI298">
+        <v>15</v>
+      </c>
+      <c r="AK298">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E299">
+        <v>8948</v>
+      </c>
+      <c r="F299" t="s">
+        <v>129</v>
+      </c>
+      <c r="G299" t="s">
+        <v>168</v>
+      </c>
+      <c r="H299" t="s">
+        <v>169</v>
+      </c>
+      <c r="I299" t="s">
+        <v>150</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>238</v>
+      </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
+      <c r="Q299">
+        <v>8.92</v>
+      </c>
+      <c r="V299">
+        <v>0</v>
+      </c>
+      <c r="W299">
+        <v>238</v>
+      </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
+      <c r="Y299">
+        <v>8.92</v>
+      </c>
+      <c r="AF299">
+        <v>0</v>
+      </c>
+      <c r="AG299">
+        <v>238</v>
+      </c>
+      <c r="AH299">
+        <v>0</v>
+      </c>
+      <c r="AI299">
+        <v>8.92</v>
+      </c>
+      <c r="AJ299">
+        <v>11.8</v>
+      </c>
+      <c r="AK299">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="300" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E300">
+        <v>8948</v>
+      </c>
+      <c r="F300" t="s">
+        <v>129</v>
+      </c>
+      <c r="G300" t="s">
+        <v>168</v>
+      </c>
+      <c r="H300" t="s">
+        <v>169</v>
+      </c>
+      <c r="I300" t="s">
+        <v>150</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <v>0</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="V300">
+        <v>0</v>
+      </c>
+      <c r="W300">
+        <v>0</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>0</v>
+      </c>
+      <c r="AF300">
+        <v>0</v>
+      </c>
+      <c r="AG300">
+        <v>0</v>
+      </c>
+      <c r="AH300">
+        <v>0</v>
+      </c>
+      <c r="AI300">
+        <v>0</v>
+      </c>
+      <c r="AK300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E301">
+        <v>8844</v>
+      </c>
+      <c r="F301" t="s">
+        <v>86</v>
+      </c>
+      <c r="G301" t="s">
+        <v>159</v>
+      </c>
+      <c r="H301" t="s">
+        <v>162</v>
+      </c>
+      <c r="I301" t="s">
+        <v>151</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301">
+        <v>500</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="V301">
+        <v>0</v>
+      </c>
+      <c r="W301">
+        <v>500</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="AF301">
+        <v>0</v>
+      </c>
+      <c r="AG301">
+        <v>500</v>
+      </c>
+      <c r="AH301">
+        <v>0</v>
+      </c>
+      <c r="AI301">
+        <v>25.000000000000004</v>
+      </c>
+      <c r="AK301">
+        <v>25.000000000000004</v>
+      </c>
+    </row>
+    <row r="302" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E302">
+        <v>8844</v>
+      </c>
+      <c r="F302" t="s">
+        <v>86</v>
+      </c>
+      <c r="G302" t="s">
+        <v>159</v>
+      </c>
+      <c r="H302" t="s">
+        <v>162</v>
+      </c>
+      <c r="I302" t="s">
+        <v>151</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>500</v>
+      </c>
+      <c r="P302">
+        <v>0</v>
+      </c>
+      <c r="Q302">
+        <v>25</v>
+      </c>
+      <c r="V302">
+        <v>0</v>
+      </c>
+      <c r="W302">
+        <v>500</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>25</v>
+      </c>
+      <c r="AF302">
+        <v>0</v>
+      </c>
+      <c r="AG302">
+        <v>500</v>
+      </c>
+      <c r="AH302">
+        <v>0</v>
+      </c>
+      <c r="AI302">
+        <v>25</v>
+      </c>
+      <c r="AK302">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E303">
+        <v>8844</v>
+      </c>
+      <c r="F303" t="s">
+        <v>86</v>
+      </c>
+      <c r="G303" t="s">
+        <v>159</v>
+      </c>
+      <c r="H303" t="s">
+        <v>162</v>
+      </c>
+      <c r="I303" t="s">
+        <v>151</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>395</v>
+      </c>
+      <c r="P303">
+        <v>0</v>
+      </c>
+      <c r="Q303">
+        <v>19.75</v>
+      </c>
+      <c r="V303">
+        <v>0</v>
+      </c>
+      <c r="W303">
+        <v>395</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <v>19.75</v>
+      </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
+      <c r="AG303">
+        <v>395</v>
+      </c>
+      <c r="AH303">
+        <v>0</v>
+      </c>
+      <c r="AI303">
+        <v>19.75</v>
+      </c>
+      <c r="AK303">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="304" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E304">
+        <v>8842</v>
+      </c>
+      <c r="F304" t="s">
+        <v>86</v>
+      </c>
+      <c r="G304" t="s">
+        <v>159</v>
+      </c>
+      <c r="H304" t="s">
+        <v>162</v>
+      </c>
+      <c r="I304" t="s">
+        <v>152</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>560</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="V304">
+        <v>0</v>
+      </c>
+      <c r="W304">
+        <v>560</v>
+      </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
+      <c r="Y304">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AF304">
+        <v>0</v>
+      </c>
+      <c r="AG304">
+        <v>560</v>
+      </c>
+      <c r="AH304">
+        <v>0</v>
+      </c>
+      <c r="AI304">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="AK304">
+        <v>29.999999999999996</v>
+      </c>
+    </row>
+    <row r="305" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E305">
+        <v>8842</v>
+      </c>
+      <c r="F305" t="s">
+        <v>86</v>
+      </c>
+      <c r="G305" t="s">
+        <v>159</v>
+      </c>
+      <c r="H305" t="s">
+        <v>162</v>
+      </c>
+      <c r="I305" t="s">
+        <v>152</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>142</v>
+      </c>
+      <c r="P305">
+        <v>0</v>
+      </c>
+      <c r="Q305">
+        <v>7.6</v>
+      </c>
+      <c r="S305">
+        <v>71</v>
+      </c>
+      <c r="U305">
+        <v>3.8</v>
+      </c>
+      <c r="V305">
+        <v>0</v>
+      </c>
+      <c r="W305">
+        <v>213</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="AF305">
+        <v>0</v>
+      </c>
+      <c r="AG305">
+        <v>213</v>
+      </c>
+      <c r="AH305">
+        <v>0</v>
+      </c>
+      <c r="AI305">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="AJ305">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="AK305">
+        <v>20.474999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E306">
+        <v>8842</v>
+      </c>
+      <c r="F306" t="s">
+        <v>86</v>
+      </c>
+      <c r="G306" t="s">
+        <v>159</v>
+      </c>
+      <c r="H306" t="s">
+        <v>162</v>
+      </c>
+      <c r="I306" t="s">
+        <v>152</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+      <c r="P306">
+        <v>0</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="V306">
+        <v>0</v>
+      </c>
+      <c r="W306">
+        <v>0</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>0</v>
+      </c>
+      <c r="AF306">
+        <v>0</v>
+      </c>
+      <c r="AG306">
+        <v>0</v>
+      </c>
+      <c r="AH306">
+        <v>0</v>
+      </c>
+      <c r="AI306">
+        <v>0</v>
+      </c>
+      <c r="AJ306">
+        <v>0</v>
+      </c>
+      <c r="AK306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="E307" t="s">
+        <v>170</v>
+      </c>
+      <c r="F307" t="s">
+        <v>83</v>
+      </c>
+      <c r="G307" t="s">
+        <v>156</v>
+      </c>
+      <c r="I307" t="s">
+        <v>154</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="V307">
+        <v>0</v>
+      </c>
+      <c r="W307">
+        <v>0</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>0</v>
+      </c>
+      <c r="AF307">
+        <v>0</v>
+      </c>
+      <c r="AG307">
+        <v>0</v>
+      </c>
+      <c r="AH307">
+        <v>0</v>
+      </c>
+      <c r="AI307">
+        <v>0</v>
+      </c>
+      <c r="AJ307">
+        <v>0.05</v>
+      </c>
+      <c r="AK307">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL227" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370B9A6-9D1A-436E-B0C3-9AE6626D77BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95580514-1C35-4F7A-9E3C-5DB96DB0377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$1:$AL$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stock!$A$1:$AL$307</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1260,12 +1260,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:AL307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AD171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="AK13" s="8"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="AK17" s="8"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="AK18" s="8"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AK21" s="8"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="AK28" s="8"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3211,7 +3211,7 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="AK33" s="8"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="AK34" s="8"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="AK36" s="8"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="AK37" s="8"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AK39" s="8"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AK40" s="8"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="AK44" s="8"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="AK45" s="8"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="AK48" s="8"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="AK52" s="8"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="AK55" s="8"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="8"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6341,7 +6341,7 @@
       <c r="AJ86" s="8"/>
       <c r="AK86" s="8"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="AK87" s="8"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="AK88" s="8"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="AJ89" s="8"/>
       <c r="AK89" s="8"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="AK90" s="8"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="AK91" s="8"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="AK93" s="8"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="AK94" s="8"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="AJ96" s="8"/>
       <c r="AK96" s="8"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="AK98" s="8"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="AK99" s="8"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7171,7 +7171,7 @@
       <c r="AJ100" s="8"/>
       <c r="AK100" s="8"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7230,7 +7230,7 @@
       <c r="AJ101" s="8"/>
       <c r="AK101" s="8"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="AK102" s="8"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="AJ103" s="8"/>
       <c r="AK103" s="8"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="AJ104" s="8"/>
       <c r="AK104" s="8"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="AK106" s="8"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AK109" s="8"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="AJ111" s="8"/>
       <c r="AK111" s="8"/>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7906,7 +7906,7 @@
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="AK114" s="8"/>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="AK115" s="8"/>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8"/>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="AK117" s="8"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="AK118" s="8"/>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="AJ119" s="8"/>
       <c r="AK119" s="8"/>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="AK120" s="8"/>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="AK121" s="8"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8446,7 +8446,7 @@
       <c r="AJ122" s="8"/>
       <c r="AK122" s="8"/>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="AJ123" s="8"/>
       <c r="AK123" s="8"/>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8556,7 +8556,7 @@
       <c r="AJ124" s="8"/>
       <c r="AK124" s="8"/>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="AK125" s="8"/>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8682,7 +8682,7 @@
       </c>
       <c r="AK126" s="8"/>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="AJ127" s="8"/>
       <c r="AK127" s="8"/>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8795,7 +8795,7 @@
       <c r="AJ128" s="8"/>
       <c r="AK128" s="8"/>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="AK129" s="8"/>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="AJ130" s="8"/>
       <c r="AK130" s="8"/>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8957,7 +8957,7 @@
       <c r="AJ131" s="8"/>
       <c r="AK131" s="8"/>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="AK133" s="8"/>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="AK136" s="8"/>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="AJ138" s="8"/>
       <c r="AK138" s="8"/>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="AJ139" s="8"/>
       <c r="AK139" s="8"/>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9471,7 +9471,7 @@
       <c r="AJ140" s="8"/>
       <c r="AK140" s="8"/>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>30.000000000000007</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>12.857999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>56.31</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>2.7440000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>0.84200000000000008</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>1.6533600000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>48.649999999999991</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>15.000000000000007</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>12.574999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="11">
         <v>45330</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="11">
         <v>45330</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>11.829999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="11">
         <v>45330</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="11">
         <v>45330</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>30.000000000000007</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="11">
         <v>45330</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>15.157999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="11">
         <v>45330</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="11">
         <v>45330</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="11">
         <v>45330</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="11">
         <v>45330</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="11">
         <v>45330</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>65.010000000000005</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="11">
         <v>45330</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="11">
         <v>45330</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="11">
         <v>45330</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="241" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" s="11">
         <v>45330</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>3.1589999999999998</v>
       </c>
     </row>
-    <row r="242" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" s="11">
         <v>45330</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="243" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" s="11">
         <v>45330</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="244" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" s="11">
         <v>45330</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" s="11">
         <v>45330</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="246" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="11">
         <v>45330</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="11">
         <v>45330</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="11">
         <v>45330</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="249" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" s="11">
         <v>45330</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="250" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" s="11">
         <v>45330</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="251" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="11">
         <v>45330</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="252" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="11">
         <v>45330</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="253" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="11">
         <v>45330</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="254" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="11">
         <v>45330</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="255" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" s="11">
         <v>45330</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="256" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" s="11">
         <v>45330</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>1.6533600000000002</v>
       </c>
     </row>
-    <row r="257" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" s="11">
         <v>45330</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="258" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" s="11">
         <v>45330</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" s="11">
         <v>45330</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>51.999999999999993</v>
       </c>
     </row>
-    <row r="260" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" s="11">
         <v>45330</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="261" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" s="11">
         <v>45330</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="262" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" s="11">
         <v>45330</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" s="11">
         <v>45330</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" s="11">
         <v>45330</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="265" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" s="11">
         <v>45330</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="266" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B266" s="11">
         <v>45330</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="267" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B267" s="11">
         <v>45330</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" s="11">
         <v>45330</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>12.719999999999999</v>
       </c>
     </row>
-    <row r="269" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" s="11">
         <v>45330</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" s="11">
         <v>45330</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="271" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" s="11">
         <v>45330</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" s="11">
         <v>45330</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="273" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" s="11">
         <v>45330</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="274" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" s="11">
         <v>45330</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>16.774999999999999</v>
       </c>
     </row>
-    <row r="275" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" s="11">
         <v>45330</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" s="11">
         <v>45330</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="277" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E277">
         <v>8898</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="278" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E278" t="s">
         <v>80</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E279">
         <v>8864</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E280">
         <v>8864</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="281" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E281">
         <v>8864</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="282" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E282">
         <v>8847</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="283" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E283">
         <v>8847</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="284" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E284">
         <v>8847</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="285" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E285" t="s">
         <v>120</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="286" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E286" t="s">
         <v>120</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="287" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E287" t="s">
         <v>120</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>1.4716800000000001</v>
       </c>
     </row>
-    <row r="288" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="E288" t="s">
         <v>120</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>1.6533600000000002</v>
       </c>
     </row>
-    <row r="289" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="289" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="F289" t="s">
         <v>122</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="290" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="290" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E290" t="s">
         <v>123</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="291" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E291">
         <v>8824</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>51.999999999999993</v>
       </c>
     </row>
-    <row r="292" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="292" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E292">
         <v>8758</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="293" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="293" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E293">
         <v>8925</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="294" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="294" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E294">
         <v>8904</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="295" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="I295" t="s">
         <v>146</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="296" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="296" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E296">
         <v>8824</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="297" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="297" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E297">
         <v>8968</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="298" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="298" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E298">
         <v>8903</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="299" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E299">
         <v>8948</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>20.72</v>
       </c>
     </row>
-    <row r="300" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="300" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E300">
         <v>8948</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="301" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E301">
         <v>8844</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="302" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="302" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E302">
         <v>8844</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="303" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E303">
         <v>8844</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="304" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="304" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E304">
         <v>8842</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="305" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="305" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E305">
         <v>8842</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>20.474999999999998</v>
       </c>
     </row>
-    <row r="306" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="306" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E306">
         <v>8842</v>
       </c>
@@ -20155,7 +20155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="5:37" x14ac:dyDescent="0.3">
+    <row r="307" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="E307" t="s">
         <v>170</v>
       </c>
@@ -20212,7 +20212,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL227" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AL307" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <dateGroupItem year="2024" month="2" day="2" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="JJMLN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95580514-1C35-4F7A-9E3C-5DB96DB0377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E1D68-26E1-4F5E-B278-2360289374DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1263,9 +1263,9 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:AL307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AD171"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L310" sqref="L310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11774,7 +11774,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="183" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>30.000000000000007</v>
       </c>
     </row>
-    <row r="185" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>12.857999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="187" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>56.31</v>
       </c>
     </row>
-    <row r="191" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>2.7440000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>0.84200000000000008</v>
       </c>
     </row>
-    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>1.6533600000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>48.649999999999991</v>
       </c>
     </row>
-    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>15.000000000000007</v>
       </c>
     </row>
-    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>12.574999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="228" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B228" s="11">
         <v>45330</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B229" s="11">
         <v>45330</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>11.829999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B230" s="11">
         <v>45330</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B231" s="11">
         <v>45330</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>30.000000000000007</v>
       </c>
     </row>
-    <row r="232" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B232" s="11">
         <v>45330</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>15.157999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B233" s="11">
         <v>45330</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B234" s="11">
         <v>45330</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B235" s="11">
         <v>45330</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B236" s="11">
         <v>45330</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="237" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B237" s="11">
         <v>45330</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>65.010000000000005</v>
       </c>
     </row>
-    <row r="238" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B238" s="11">
         <v>45330</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B239" s="11">
         <v>45330</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B240" s="11">
         <v>45330</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="241" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B241" s="11">
         <v>45330</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>3.1589999999999998</v>
       </c>
     </row>
-    <row r="242" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B242" s="11">
         <v>45330</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="243" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B243" s="11">
         <v>45330</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="244" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B244" s="11">
         <v>45330</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B245" s="11">
         <v>45330</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="246" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B246" s="11">
         <v>45330</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B247" s="11">
         <v>45330</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B248" s="11">
         <v>45330</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="249" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B249" s="11">
         <v>45330</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="250" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B250" s="11">
         <v>45330</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="251" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B251" s="11">
         <v>45330</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="252" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B252" s="11">
         <v>45330</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="253" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B253" s="11">
         <v>45330</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="254" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B254" s="11">
         <v>45330</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="255" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B255" s="11">
         <v>45330</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="256" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B256" s="11">
         <v>45330</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>1.6533600000000002</v>
       </c>
     </row>
-    <row r="257" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B257" s="11">
         <v>45330</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="258" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B258" s="11">
         <v>45330</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B259" s="11">
         <v>45330</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>51.999999999999993</v>
       </c>
     </row>
-    <row r="260" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B260" s="11">
         <v>45330</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="261" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B261" s="11">
         <v>45330</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="262" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B262" s="11">
         <v>45330</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B263" s="11">
         <v>45330</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B264" s="11">
         <v>45330</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="265" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B265" s="11">
         <v>45330</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="266" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B266" s="11">
         <v>45330</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="267" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B267" s="11">
         <v>45330</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B268" s="11">
         <v>45330</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>12.719999999999999</v>
       </c>
     </row>
-    <row r="269" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B269" s="11">
         <v>45330</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B270" s="11">
         <v>45330</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="271" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B271" s="11">
         <v>45330</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B272" s="11">
         <v>45330</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="273" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B273" s="11">
         <v>45330</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="274" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B274" s="11">
         <v>45330</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>16.774999999999999</v>
       </c>
     </row>
-    <row r="275" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B275" s="11">
         <v>45330</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B276" s="11">
         <v>45330</v>
       </c>
@@ -20213,11 +20213,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AL307" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <dateGroupItem year="2024" month="2" day="2" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="JJMLN"/>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E1D68-26E1-4F5E-B278-2360289374DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6849B8C8-DB5B-4D96-8A44-78B8F8088210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L310" sqref="L310"/>
     </sheetView>
   </sheetViews>
@@ -1395,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
     </row>
-    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
     </row>
-    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
     </row>
-    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
     </row>
-    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="AK13" s="8"/>
     </row>
-    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
     </row>
-    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
     </row>
-    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
     </row>
-    <row r="17" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="AK17" s="8"/>
     </row>
-    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="AK18" s="8"/>
     </row>
-    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
     </row>
-    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
     </row>
-    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AK21" s="8"/>
     </row>
-    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
     </row>
-    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
     </row>
-    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="AK25" s="8"/>
     </row>
-    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="AK28" s="8"/>
     </row>
-    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
     </row>
-    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
     </row>
-    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3211,7 +3211,7 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
     </row>
-    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="AK33" s="8"/>
     </row>
-    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="AK34" s="8"/>
     </row>
-    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
     </row>
-    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="AK36" s="8"/>
     </row>
-    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="AK37" s="8"/>
     </row>
-    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
     </row>
-    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AK39" s="8"/>
     </row>
-    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AK40" s="8"/>
     </row>
-    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
     </row>
-    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
     </row>
-    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
     </row>
-    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="AK44" s="8"/>
     </row>
-    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="AK45" s="8"/>
     </row>
-    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
     </row>
-    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
     </row>
-    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="AK48" s="8"/>
     </row>
-    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
     </row>
-    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
     </row>
-    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="AK52" s="8"/>
     </row>
-    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="AK55" s="8"/>
     </row>
-    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="8"/>
     </row>
-    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6341,7 +6341,7 @@
       <c r="AJ86" s="8"/>
       <c r="AK86" s="8"/>
     </row>
-    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="AK87" s="8"/>
     </row>
-    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="AK88" s="8"/>
     </row>
-    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="AJ89" s="8"/>
       <c r="AK89" s="8"/>
     </row>
-    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="AK90" s="8"/>
     </row>
-    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="AK91" s="8"/>
     </row>
-    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
     </row>
-    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="AK93" s="8"/>
     </row>
-    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="AK94" s="8"/>
     </row>
-    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
     </row>
-    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="AJ96" s="8"/>
       <c r="AK96" s="8"/>
     </row>
-    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
     </row>
-    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="AK98" s="8"/>
     </row>
-    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="AK99" s="8"/>
     </row>
-    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7171,7 +7171,7 @@
       <c r="AJ100" s="8"/>
       <c r="AK100" s="8"/>
     </row>
-    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7230,7 +7230,7 @@
       <c r="AJ101" s="8"/>
       <c r="AK101" s="8"/>
     </row>
-    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="AK102" s="8"/>
     </row>
-    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="AJ103" s="8"/>
       <c r="AK103" s="8"/>
     </row>
-    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="AJ104" s="8"/>
       <c r="AK104" s="8"/>
     </row>
-    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="AK106" s="8"/>
     </row>
-    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AK109" s="8"/>
     </row>
-    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="AJ111" s="8"/>
       <c r="AK111" s="8"/>
     </row>
-    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="AJ112" s="8"/>
       <c r="AK112" s="8"/>
     </row>
-    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7906,7 +7906,7 @@
       <c r="AJ113" s="8"/>
       <c r="AK113" s="8"/>
     </row>
-    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="AK114" s="8"/>
     </row>
-    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="AK115" s="8"/>
     </row>
-    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="AJ116" s="8"/>
       <c r="AK116" s="8"/>
     </row>
-    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="AK117" s="8"/>
     </row>
-    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="AK118" s="8"/>
     </row>
-    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="AJ119" s="8"/>
       <c r="AK119" s="8"/>
     </row>
-    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="AK120" s="8"/>
     </row>
-    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="AK121" s="8"/>
     </row>
-    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8446,7 +8446,7 @@
       <c r="AJ122" s="8"/>
       <c r="AK122" s="8"/>
     </row>
-    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="AJ123" s="8"/>
       <c r="AK123" s="8"/>
     </row>
-    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8556,7 +8556,7 @@
       <c r="AJ124" s="8"/>
       <c r="AK124" s="8"/>
     </row>
-    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="AK125" s="8"/>
     </row>
-    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8682,7 +8682,7 @@
       </c>
       <c r="AK126" s="8"/>
     </row>
-    <row r="127" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="AJ127" s="8"/>
       <c r="AK127" s="8"/>
     </row>
-    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8795,7 +8795,7 @@
       <c r="AJ128" s="8"/>
       <c r="AK128" s="8"/>
     </row>
-    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="AK129" s="8"/>
     </row>
-    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="AJ130" s="8"/>
       <c r="AK130" s="8"/>
     </row>
-    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8957,7 +8957,7 @@
       <c r="AJ131" s="8"/>
       <c r="AK131" s="8"/>
     </row>
-    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="AK133" s="8"/>
     </row>
-    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="AK136" s="8"/>
     </row>
-    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="AJ138" s="8"/>
       <c r="AK138" s="8"/>
     </row>
-    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="AJ139" s="8"/>
       <c r="AK139" s="8"/>
     </row>
-    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9471,7 +9471,7 @@
       <c r="AJ140" s="8"/>
       <c r="AK140" s="8"/>
     </row>
-    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="277" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E277">
         <v>8898</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="278" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E278" t="s">
         <v>80</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E279">
         <v>8864</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E280">
         <v>8864</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="281" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E281">
         <v>8864</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="282" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E282">
         <v>8847</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="283" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E283">
         <v>8847</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="284" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E284">
         <v>8847</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="285" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E285" t="s">
         <v>120</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="286" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E286" t="s">
         <v>120</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="287" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E287" t="s">
         <v>120</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>1.4716800000000001</v>
       </c>
     </row>
-    <row r="288" spans="2:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:38" x14ac:dyDescent="0.3">
       <c r="E288" t="s">
         <v>120</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>1.6533600000000002</v>
       </c>
     </row>
-    <row r="289" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="5:37" x14ac:dyDescent="0.3">
       <c r="F289" t="s">
         <v>122</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="290" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E290" t="s">
         <v>123</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E291">
         <v>8824</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>51.999999999999993</v>
       </c>
     </row>
-    <row r="292" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E292">
         <v>8758</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="293" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E293">
         <v>8925</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="294" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E294">
         <v>8904</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="5:37" x14ac:dyDescent="0.3">
       <c r="I295" t="s">
         <v>146</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="296" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E296">
         <v>8824</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="297" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E297">
         <v>8968</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="298" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E298">
         <v>8903</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E299">
         <v>8948</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>20.72</v>
       </c>
     </row>
-    <row r="300" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E300">
         <v>8948</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E301">
         <v>8844</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="302" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E302">
         <v>8844</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E303">
         <v>8844</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="304" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E304">
         <v>8842</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>29.999999999999996</v>
       </c>
     </row>
-    <row r="305" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E305">
         <v>8842</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>20.474999999999998</v>
       </c>
     </row>
-    <row r="306" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E306">
         <v>8842</v>
       </c>
@@ -20155,7 +20155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="5:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="5:37" x14ac:dyDescent="0.3">
       <c r="E307" t="s">
         <v>170</v>
       </c>
@@ -20212,13 +20212,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL307" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="JJMLN"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AL307" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
